--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concat-my.sharepoint.com/personal/oliver_antwerpen_concat_de/Documents/Kunden/ITSG/DiGeN/posh/xls-wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63ED40BD-D64C-4CF4-B67E-1649A89617F5}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFA4D0D9-77CC-4C02-843A-273AA8C315DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="870" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="26" r:id="rId1"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="1773">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -5704,6 +5704,24 @@
   </si>
   <si>
     <t>disabled</t>
+  </si>
+  <si>
+    <t>Synergy SPP</t>
+  </si>
+  <si>
+    <t>HPE_Synergy_Custom_SPP_2019.03.20190825_Z7550-96751.iso</t>
+  </si>
+  <si>
+    <t>Artifact Bundle</t>
+  </si>
+  <si>
+    <t>HPE-ESXi-6.7-2019-07-24-v4.2.zip</t>
+  </si>
+  <si>
+    <t>Golden Image</t>
+  </si>
+  <si>
+    <t>bla.zip</t>
   </si>
 </sst>
 </file>
@@ -6904,25 +6922,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6932,6 +6941,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6944,6 +6956,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22162,8 +22180,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -22580,26 +22598,42 @@
       <c r="G30" s="189"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6"/>
-      <c r="B31" s="189"/>
+      <c r="A31" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B31" s="189" t="s">
+        <v>1768</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="189"/>
+      <c r="E31" s="189" t="s">
+        <v>1768</v>
+      </c>
       <c r="F31" s="189"/>
       <c r="G31" s="189"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6"/>
-      <c r="B32" s="189"/>
+      <c r="A32" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B32" s="189" t="s">
+        <v>1770</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="189"/>
+      <c r="E32" s="189" t="s">
+        <v>1770</v>
+      </c>
       <c r="F32" s="189"/>
       <c r="G32" s="189"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="6"/>
-      <c r="B33" s="189"/>
+      <c r="A33" s="6" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B33" s="189" t="s">
+        <v>1772</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="189"/>
@@ -23108,7 +23142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123FC9F-23EA-4F5F-A4E7-231974F9FE8E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -24889,16 +24923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="201" t="s">
         <v>1280</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="202"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="202"/>
+      <c r="B2" s="200"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="161" t="s">
@@ -24925,10 +24959,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="199" t="s">
         <v>1287</v>
       </c>
-      <c r="B6" s="202"/>
+      <c r="B6" s="200"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="161" t="s">
@@ -24947,10 +24981,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="201" t="s">
+      <c r="A9" s="199" t="s">
         <v>1291</v>
       </c>
-      <c r="B9" s="202"/>
+      <c r="B9" s="200"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="161" t="s">
@@ -25002,32 +25036,32 @@
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1"/>
     <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="199" t="s">
+      <c r="A18" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="200"/>
-      <c r="F18" s="199" t="s">
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="202"/>
+      <c r="F18" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="200"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="202"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="202"/>
-      <c r="F19" s="201" t="s">
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="200"/>
+      <c r="F19" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="202"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="200"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="161" t="s">
@@ -25102,88 +25136,88 @@
       <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="201" t="s">
+      <c r="A24" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="202"/>
-      <c r="F24" s="201" t="s">
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="200"/>
+      <c r="F24" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="202"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="200"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="210" t="s">
+      <c r="A25" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="B25" s="211"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="212"/>
-      <c r="F25" s="210" t="s">
+      <c r="B25" s="209"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="210"/>
+      <c r="F25" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="212"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="210"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="201" t="s">
+      <c r="A26" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="B26" s="209"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="202"/>
-      <c r="F26" s="201" t="s">
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="200"/>
+      <c r="F26" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="202"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="200"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="210" t="s">
+      <c r="A27" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="212"/>
-      <c r="F27" s="210" t="s">
+      <c r="B27" s="209"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="210"/>
+      <c r="F27" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="212"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="210"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="201" t="s">
+      <c r="A28" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="202"/>
-      <c r="F28" s="201" t="s">
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="200"/>
+      <c r="F28" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="202"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="200"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="208"/>
-      <c r="F29" s="206" t="s">
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205"/>
+      <c r="F29" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="208"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="205"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="167" t="s">
@@ -25318,18 +25352,18 @@
       <c r="I35" s="162"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="208"/>
-      <c r="F36" s="206" t="s">
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="205"/>
+      <c r="F36" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="205"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="167" t="s">
@@ -25458,18 +25492,18 @@
       <c r="I43" s="162"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="206" t="s">
+      <c r="A44" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="B44" s="207"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="F44" s="206" t="s">
+      <c r="B44" s="204"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="205"/>
+      <c r="F44" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="208"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="204"/>
+      <c r="I44" s="205"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="167" t="s">
@@ -25550,18 +25584,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="206" t="s">
+      <c r="A48" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="B48" s="207"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="208"/>
-      <c r="F48" s="206" t="s">
+      <c r="B48" s="204"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="205"/>
+      <c r="F48" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="208"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="205"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="167" t="s">
@@ -25643,32 +25677,32 @@
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1"/>
     <row r="53" spans="1:9" ht="18">
-      <c r="A53" s="199" t="s">
+      <c r="A53" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="200"/>
-      <c r="F53" s="199" t="s">
+      <c r="B53" s="206"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="202"/>
+      <c r="F53" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="G53" s="205"/>
-      <c r="H53" s="205"/>
-      <c r="I53" s="200"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
+      <c r="I53" s="202"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="201" t="s">
+      <c r="A54" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B54" s="209"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="202"/>
-      <c r="F54" s="201" t="s">
+      <c r="B54" s="207"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="200"/>
+      <c r="F54" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="G54" s="209"/>
-      <c r="H54" s="209"/>
-      <c r="I54" s="202"/>
+      <c r="G54" s="207"/>
+      <c r="H54" s="207"/>
+      <c r="I54" s="200"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="161" t="s">
@@ -25743,88 +25777,88 @@
       <c r="I58" s="162"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="201" t="s">
+      <c r="A59" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="B59" s="209"/>
-      <c r="C59" s="209"/>
-      <c r="D59" s="202"/>
-      <c r="F59" s="201" t="s">
+      <c r="B59" s="207"/>
+      <c r="C59" s="207"/>
+      <c r="D59" s="200"/>
+      <c r="F59" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="G59" s="209"/>
-      <c r="H59" s="209"/>
-      <c r="I59" s="202"/>
+      <c r="G59" s="207"/>
+      <c r="H59" s="207"/>
+      <c r="I59" s="200"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="210" t="s">
+      <c r="A60" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="B60" s="211"/>
-      <c r="C60" s="211"/>
-      <c r="D60" s="212"/>
-      <c r="F60" s="210" t="s">
+      <c r="B60" s="209"/>
+      <c r="C60" s="209"/>
+      <c r="D60" s="210"/>
+      <c r="F60" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="212"/>
+      <c r="G60" s="209"/>
+      <c r="H60" s="209"/>
+      <c r="I60" s="210"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="201" t="s">
+      <c r="A61" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="B61" s="209"/>
-      <c r="C61" s="209"/>
-      <c r="D61" s="202"/>
-      <c r="F61" s="201" t="s">
+      <c r="B61" s="207"/>
+      <c r="C61" s="207"/>
+      <c r="D61" s="200"/>
+      <c r="F61" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="G61" s="209"/>
-      <c r="H61" s="209"/>
-      <c r="I61" s="202"/>
+      <c r="G61" s="207"/>
+      <c r="H61" s="207"/>
+      <c r="I61" s="200"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="210" t="s">
+      <c r="A62" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="B62" s="211"/>
-      <c r="C62" s="211"/>
-      <c r="D62" s="212"/>
-      <c r="F62" s="210" t="s">
+      <c r="B62" s="209"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="210"/>
+      <c r="F62" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="G62" s="211"/>
-      <c r="H62" s="211"/>
-      <c r="I62" s="212"/>
+      <c r="G62" s="209"/>
+      <c r="H62" s="209"/>
+      <c r="I62" s="210"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="201" t="s">
+      <c r="A63" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="B63" s="209"/>
-      <c r="C63" s="209"/>
-      <c r="D63" s="202"/>
-      <c r="F63" s="201" t="s">
+      <c r="B63" s="207"/>
+      <c r="C63" s="207"/>
+      <c r="D63" s="200"/>
+      <c r="F63" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="G63" s="209"/>
-      <c r="H63" s="209"/>
-      <c r="I63" s="202"/>
+      <c r="G63" s="207"/>
+      <c r="H63" s="207"/>
+      <c r="I63" s="200"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="206" t="s">
+      <c r="A64" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="B64" s="207"/>
-      <c r="C64" s="207"/>
-      <c r="D64" s="208"/>
-      <c r="F64" s="206" t="s">
+      <c r="B64" s="204"/>
+      <c r="C64" s="204"/>
+      <c r="D64" s="205"/>
+      <c r="F64" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="G64" s="207"/>
-      <c r="H64" s="207"/>
-      <c r="I64" s="208"/>
+      <c r="G64" s="204"/>
+      <c r="H64" s="204"/>
+      <c r="I64" s="205"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="167" t="s">
@@ -25959,18 +25993,18 @@
       <c r="I70" s="162"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="206" t="s">
+      <c r="A71" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="B71" s="207"/>
-      <c r="C71" s="207"/>
-      <c r="D71" s="208"/>
-      <c r="F71" s="206" t="s">
+      <c r="B71" s="204"/>
+      <c r="C71" s="204"/>
+      <c r="D71" s="205"/>
+      <c r="F71" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="G71" s="207"/>
-      <c r="H71" s="207"/>
-      <c r="I71" s="208"/>
+      <c r="G71" s="204"/>
+      <c r="H71" s="204"/>
+      <c r="I71" s="205"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="167" t="s">
@@ -26099,18 +26133,18 @@
       <c r="I78" s="162"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="206" t="s">
+      <c r="A79" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="B79" s="207"/>
-      <c r="C79" s="207"/>
-      <c r="D79" s="208"/>
-      <c r="F79" s="206" t="s">
+      <c r="B79" s="204"/>
+      <c r="C79" s="204"/>
+      <c r="D79" s="205"/>
+      <c r="F79" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="G79" s="207"/>
-      <c r="H79" s="207"/>
-      <c r="I79" s="208"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
+      <c r="I79" s="205"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="167" t="s">
@@ -26191,18 +26225,18 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="206" t="s">
+      <c r="A83" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="B83" s="207"/>
-      <c r="C83" s="207"/>
-      <c r="D83" s="208"/>
-      <c r="F83" s="206" t="s">
+      <c r="B83" s="204"/>
+      <c r="C83" s="204"/>
+      <c r="D83" s="205"/>
+      <c r="F83" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="G83" s="207"/>
-      <c r="H83" s="207"/>
-      <c r="I83" s="208"/>
+      <c r="G83" s="204"/>
+      <c r="H83" s="204"/>
+      <c r="I83" s="205"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="167" t="s">
@@ -26310,32 +26344,32 @@
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1"/>
     <row r="90" spans="1:9" ht="18">
-      <c r="A90" s="199" t="s">
+      <c r="A90" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="B90" s="205"/>
-      <c r="C90" s="205"/>
-      <c r="D90" s="200"/>
-      <c r="F90" s="199" t="s">
+      <c r="B90" s="206"/>
+      <c r="C90" s="206"/>
+      <c r="D90" s="202"/>
+      <c r="F90" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="G90" s="205"/>
-      <c r="H90" s="205"/>
-      <c r="I90" s="200"/>
+      <c r="G90" s="206"/>
+      <c r="H90" s="206"/>
+      <c r="I90" s="202"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="201" t="s">
+      <c r="A91" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B91" s="209"/>
-      <c r="C91" s="209"/>
-      <c r="D91" s="202"/>
-      <c r="F91" s="201" t="s">
+      <c r="B91" s="207"/>
+      <c r="C91" s="207"/>
+      <c r="D91" s="200"/>
+      <c r="F91" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="G91" s="209"/>
-      <c r="H91" s="209"/>
-      <c r="I91" s="202"/>
+      <c r="G91" s="207"/>
+      <c r="H91" s="207"/>
+      <c r="I91" s="200"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="161" t="s">
@@ -26410,88 +26444,88 @@
       <c r="I95" s="162"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="201" t="s">
+      <c r="A96" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="B96" s="209"/>
-      <c r="C96" s="209"/>
-      <c r="D96" s="202"/>
-      <c r="F96" s="201" t="s">
+      <c r="B96" s="207"/>
+      <c r="C96" s="207"/>
+      <c r="D96" s="200"/>
+      <c r="F96" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="G96" s="209"/>
-      <c r="H96" s="209"/>
-      <c r="I96" s="202"/>
+      <c r="G96" s="207"/>
+      <c r="H96" s="207"/>
+      <c r="I96" s="200"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="210" t="s">
+      <c r="A97" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="B97" s="211"/>
-      <c r="C97" s="211"/>
-      <c r="D97" s="212"/>
-      <c r="F97" s="210" t="s">
+      <c r="B97" s="209"/>
+      <c r="C97" s="209"/>
+      <c r="D97" s="210"/>
+      <c r="F97" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="G97" s="211"/>
-      <c r="H97" s="211"/>
-      <c r="I97" s="212"/>
+      <c r="G97" s="209"/>
+      <c r="H97" s="209"/>
+      <c r="I97" s="210"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="201" t="s">
+      <c r="A98" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="B98" s="209"/>
-      <c r="C98" s="209"/>
-      <c r="D98" s="202"/>
-      <c r="F98" s="201" t="s">
+      <c r="B98" s="207"/>
+      <c r="C98" s="207"/>
+      <c r="D98" s="200"/>
+      <c r="F98" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="G98" s="209"/>
-      <c r="H98" s="209"/>
-      <c r="I98" s="202"/>
+      <c r="G98" s="207"/>
+      <c r="H98" s="207"/>
+      <c r="I98" s="200"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="210" t="s">
+      <c r="A99" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="B99" s="211"/>
-      <c r="C99" s="211"/>
-      <c r="D99" s="212"/>
-      <c r="F99" s="210" t="s">
+      <c r="B99" s="209"/>
+      <c r="C99" s="209"/>
+      <c r="D99" s="210"/>
+      <c r="F99" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="G99" s="211"/>
-      <c r="H99" s="211"/>
-      <c r="I99" s="212"/>
+      <c r="G99" s="209"/>
+      <c r="H99" s="209"/>
+      <c r="I99" s="210"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="201" t="s">
+      <c r="A100" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="B100" s="209"/>
-      <c r="C100" s="209"/>
-      <c r="D100" s="202"/>
-      <c r="F100" s="201" t="s">
+      <c r="B100" s="207"/>
+      <c r="C100" s="207"/>
+      <c r="D100" s="200"/>
+      <c r="F100" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="G100" s="209"/>
-      <c r="H100" s="209"/>
-      <c r="I100" s="202"/>
+      <c r="G100" s="207"/>
+      <c r="H100" s="207"/>
+      <c r="I100" s="200"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="206" t="s">
+      <c r="A101" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="B101" s="207"/>
-      <c r="C101" s="207"/>
-      <c r="D101" s="208"/>
-      <c r="F101" s="206" t="s">
+      <c r="B101" s="204"/>
+      <c r="C101" s="204"/>
+      <c r="D101" s="205"/>
+      <c r="F101" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="G101" s="207"/>
-      <c r="H101" s="207"/>
-      <c r="I101" s="208"/>
+      <c r="G101" s="204"/>
+      <c r="H101" s="204"/>
+      <c r="I101" s="205"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="167" t="s">
@@ -26626,18 +26660,18 @@
       <c r="I107" s="162"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="206" t="s">
+      <c r="A108" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="B108" s="207"/>
-      <c r="C108" s="207"/>
-      <c r="D108" s="208"/>
-      <c r="F108" s="206" t="s">
+      <c r="B108" s="204"/>
+      <c r="C108" s="204"/>
+      <c r="D108" s="205"/>
+      <c r="F108" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="G108" s="207"/>
-      <c r="H108" s="207"/>
-      <c r="I108" s="208"/>
+      <c r="G108" s="204"/>
+      <c r="H108" s="204"/>
+      <c r="I108" s="205"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="167" t="s">
@@ -26766,18 +26800,18 @@
       <c r="I115" s="162"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="206" t="s">
+      <c r="A116" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="B116" s="207"/>
-      <c r="C116" s="207"/>
-      <c r="D116" s="208"/>
-      <c r="F116" s="206" t="s">
+      <c r="B116" s="204"/>
+      <c r="C116" s="204"/>
+      <c r="D116" s="205"/>
+      <c r="F116" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="G116" s="207"/>
-      <c r="H116" s="207"/>
-      <c r="I116" s="208"/>
+      <c r="G116" s="204"/>
+      <c r="H116" s="204"/>
+      <c r="I116" s="205"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="167" t="s">
@@ -26858,18 +26892,18 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="206" t="s">
+      <c r="A120" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="B120" s="207"/>
-      <c r="C120" s="207"/>
-      <c r="D120" s="208"/>
-      <c r="F120" s="206" t="s">
+      <c r="B120" s="204"/>
+      <c r="C120" s="204"/>
+      <c r="D120" s="205"/>
+      <c r="F120" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="G120" s="207"/>
-      <c r="H120" s="207"/>
-      <c r="I120" s="208"/>
+      <c r="G120" s="204"/>
+      <c r="H120" s="204"/>
+      <c r="I120" s="205"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="167" t="s">
@@ -26977,32 +27011,32 @@
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1"/>
     <row r="127" spans="1:9" ht="18">
-      <c r="A127" s="199" t="s">
+      <c r="A127" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="B127" s="205"/>
-      <c r="C127" s="205"/>
-      <c r="D127" s="200"/>
-      <c r="F127" s="199" t="s">
+      <c r="B127" s="206"/>
+      <c r="C127" s="206"/>
+      <c r="D127" s="202"/>
+      <c r="F127" s="201" t="s">
         <v>1302</v>
       </c>
-      <c r="G127" s="205"/>
-      <c r="H127" s="205"/>
-      <c r="I127" s="200"/>
+      <c r="G127" s="206"/>
+      <c r="H127" s="206"/>
+      <c r="I127" s="202"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="201" t="s">
+      <c r="A128" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B128" s="209"/>
-      <c r="C128" s="209"/>
-      <c r="D128" s="202"/>
-      <c r="F128" s="201" t="s">
+      <c r="B128" s="207"/>
+      <c r="C128" s="207"/>
+      <c r="D128" s="200"/>
+      <c r="F128" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="G128" s="209"/>
-      <c r="H128" s="209"/>
-      <c r="I128" s="202"/>
+      <c r="G128" s="207"/>
+      <c r="H128" s="207"/>
+      <c r="I128" s="200"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="161" t="s">
@@ -27077,88 +27111,88 @@
       <c r="I132" s="162"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="201" t="s">
+      <c r="A133" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="B133" s="209"/>
-      <c r="C133" s="209"/>
-      <c r="D133" s="202"/>
-      <c r="F133" s="201" t="s">
+      <c r="B133" s="207"/>
+      <c r="C133" s="207"/>
+      <c r="D133" s="200"/>
+      <c r="F133" s="199" t="s">
         <v>1310</v>
       </c>
-      <c r="G133" s="209"/>
-      <c r="H133" s="209"/>
-      <c r="I133" s="202"/>
+      <c r="G133" s="207"/>
+      <c r="H133" s="207"/>
+      <c r="I133" s="200"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="210" t="s">
+      <c r="A134" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="B134" s="211"/>
-      <c r="C134" s="211"/>
-      <c r="D134" s="212"/>
-      <c r="F134" s="210" t="s">
+      <c r="B134" s="209"/>
+      <c r="C134" s="209"/>
+      <c r="D134" s="210"/>
+      <c r="F134" s="208" t="s">
         <v>1311</v>
       </c>
-      <c r="G134" s="211"/>
-      <c r="H134" s="211"/>
-      <c r="I134" s="212"/>
+      <c r="G134" s="209"/>
+      <c r="H134" s="209"/>
+      <c r="I134" s="210"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="201" t="s">
+      <c r="A135" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="B135" s="209"/>
-      <c r="C135" s="209"/>
-      <c r="D135" s="202"/>
-      <c r="F135" s="201" t="s">
+      <c r="B135" s="207"/>
+      <c r="C135" s="207"/>
+      <c r="D135" s="200"/>
+      <c r="F135" s="199" t="s">
         <v>1312</v>
       </c>
-      <c r="G135" s="209"/>
-      <c r="H135" s="209"/>
-      <c r="I135" s="202"/>
+      <c r="G135" s="207"/>
+      <c r="H135" s="207"/>
+      <c r="I135" s="200"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="210" t="s">
+      <c r="A136" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="B136" s="211"/>
-      <c r="C136" s="211"/>
-      <c r="D136" s="212"/>
-      <c r="F136" s="210" t="s">
+      <c r="B136" s="209"/>
+      <c r="C136" s="209"/>
+      <c r="D136" s="210"/>
+      <c r="F136" s="208" t="s">
         <v>1313</v>
       </c>
-      <c r="G136" s="211"/>
-      <c r="H136" s="211"/>
-      <c r="I136" s="212"/>
+      <c r="G136" s="209"/>
+      <c r="H136" s="209"/>
+      <c r="I136" s="210"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="201" t="s">
+      <c r="A137" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="B137" s="209"/>
-      <c r="C137" s="209"/>
-      <c r="D137" s="202"/>
-      <c r="F137" s="201" t="s">
+      <c r="B137" s="207"/>
+      <c r="C137" s="207"/>
+      <c r="D137" s="200"/>
+      <c r="F137" s="199" t="s">
         <v>1314</v>
       </c>
-      <c r="G137" s="209"/>
-      <c r="H137" s="209"/>
-      <c r="I137" s="202"/>
+      <c r="G137" s="207"/>
+      <c r="H137" s="207"/>
+      <c r="I137" s="200"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="206" t="s">
+      <c r="A138" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="B138" s="207"/>
-      <c r="C138" s="207"/>
-      <c r="D138" s="208"/>
-      <c r="F138" s="206" t="s">
+      <c r="B138" s="204"/>
+      <c r="C138" s="204"/>
+      <c r="D138" s="205"/>
+      <c r="F138" s="203" t="s">
         <v>1315</v>
       </c>
-      <c r="G138" s="207"/>
-      <c r="H138" s="207"/>
-      <c r="I138" s="208"/>
+      <c r="G138" s="204"/>
+      <c r="H138" s="204"/>
+      <c r="I138" s="205"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="167" t="s">
@@ -27293,18 +27327,18 @@
       <c r="I144" s="162"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="206" t="s">
+      <c r="A145" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="B145" s="207"/>
-      <c r="C145" s="207"/>
-      <c r="D145" s="208"/>
-      <c r="F145" s="206" t="s">
+      <c r="B145" s="204"/>
+      <c r="C145" s="204"/>
+      <c r="D145" s="205"/>
+      <c r="F145" s="203" t="s">
         <v>1323</v>
       </c>
-      <c r="G145" s="207"/>
-      <c r="H145" s="207"/>
-      <c r="I145" s="208"/>
+      <c r="G145" s="204"/>
+      <c r="H145" s="204"/>
+      <c r="I145" s="205"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="167" t="s">
@@ -27433,18 +27467,18 @@
       <c r="I152" s="162"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="206" t="s">
+      <c r="A153" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="B153" s="207"/>
-      <c r="C153" s="207"/>
-      <c r="D153" s="208"/>
-      <c r="F153" s="206" t="s">
+      <c r="B153" s="204"/>
+      <c r="C153" s="204"/>
+      <c r="D153" s="205"/>
+      <c r="F153" s="203" t="s">
         <v>1329</v>
       </c>
-      <c r="G153" s="207"/>
-      <c r="H153" s="207"/>
-      <c r="I153" s="208"/>
+      <c r="G153" s="204"/>
+      <c r="H153" s="204"/>
+      <c r="I153" s="205"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="167" t="s">
@@ -27525,18 +27559,18 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="206" t="s">
+      <c r="A157" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="B157" s="207"/>
-      <c r="C157" s="207"/>
-      <c r="D157" s="208"/>
-      <c r="F157" s="206" t="s">
+      <c r="B157" s="204"/>
+      <c r="C157" s="204"/>
+      <c r="D157" s="205"/>
+      <c r="F157" s="203" t="s">
         <v>1341</v>
       </c>
-      <c r="G157" s="207"/>
-      <c r="H157" s="207"/>
-      <c r="I157" s="208"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
+      <c r="I157" s="205"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="167" t="s">
@@ -27618,24 +27652,24 @@
     </row>
     <row r="164" spans="1:7" ht="15" thickBot="1"/>
     <row r="165" spans="1:7" ht="18">
-      <c r="A165" s="199" t="s">
+      <c r="A165" s="201" t="s">
         <v>1423</v>
       </c>
-      <c r="B165" s="200"/>
-      <c r="F165" s="199" t="s">
+      <c r="B165" s="202"/>
+      <c r="F165" s="201" t="s">
         <v>1423</v>
       </c>
-      <c r="G165" s="200"/>
+      <c r="G165" s="202"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="201" t="s">
+      <c r="A166" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B166" s="202"/>
-      <c r="F166" s="201" t="s">
+      <c r="B166" s="200"/>
+      <c r="F166" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="G166" s="202"/>
+      <c r="G166" s="200"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="161" t="s">
@@ -27666,14 +27700,14 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="201" t="s">
+      <c r="A169" s="199" t="s">
         <v>1287</v>
       </c>
-      <c r="B169" s="202"/>
-      <c r="F169" s="201" t="s">
+      <c r="B169" s="200"/>
+      <c r="F169" s="199" t="s">
         <v>1287</v>
       </c>
-      <c r="G169" s="202"/>
+      <c r="G169" s="200"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="161" t="s">
@@ -27704,14 +27738,14 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="201" t="s">
+      <c r="A172" s="199" t="s">
         <v>1428</v>
       </c>
-      <c r="B172" s="202"/>
-      <c r="F172" s="201" t="s">
+      <c r="B172" s="200"/>
+      <c r="F172" s="199" t="s">
         <v>1428</v>
       </c>
-      <c r="G172" s="202"/>
+      <c r="G172" s="200"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="161" t="s">
@@ -27742,14 +27776,14 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="201" t="s">
+      <c r="A175" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="B175" s="202"/>
-      <c r="F175" s="201" t="s">
+      <c r="B175" s="200"/>
+      <c r="F175" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="G175" s="202"/>
+      <c r="G175" s="200"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="161" t="s">
@@ -27809,16 +27843,16 @@
     </row>
     <row r="181" spans="1:7" ht="15" thickBot="1"/>
     <row r="182" spans="1:7" ht="18">
-      <c r="A182" s="199" t="s">
+      <c r="A182" s="201" t="s">
         <v>1434</v>
       </c>
-      <c r="B182" s="200"/>
+      <c r="B182" s="202"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="201" t="s">
+      <c r="A183" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B183" s="202"/>
+      <c r="B183" s="200"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="161" t="s">
@@ -27837,10 +27871,10 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="201" t="s">
+      <c r="A186" s="199" t="s">
         <v>1436</v>
       </c>
-      <c r="B186" s="202"/>
+      <c r="B186" s="200"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="161" t="s">
@@ -27875,10 +27909,10 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="201" t="s">
+      <c r="A191" s="199" t="s">
         <v>1443</v>
       </c>
-      <c r="B191" s="202"/>
+      <c r="B191" s="200"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="161" t="s">
@@ -27934,24 +27968,24 @@
     </row>
     <row r="199" spans="1:7" ht="15" thickBot="1"/>
     <row r="200" spans="1:7" ht="18">
-      <c r="A200" s="199" t="s">
+      <c r="A200" s="201" t="s">
         <v>1448</v>
       </c>
-      <c r="B200" s="200"/>
-      <c r="F200" s="199" t="s">
+      <c r="B200" s="202"/>
+      <c r="F200" s="201" t="s">
         <v>1448</v>
       </c>
-      <c r="G200" s="200"/>
+      <c r="G200" s="202"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="201" t="s">
+      <c r="A201" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="B201" s="202"/>
-      <c r="F201" s="201" t="s">
+      <c r="B201" s="200"/>
+      <c r="F201" s="199" t="s">
         <v>1281</v>
       </c>
-      <c r="G201" s="202"/>
+      <c r="G201" s="200"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="161" t="s">
@@ -27982,77 +28016,67 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="201" t="s">
+      <c r="A204" s="199" t="s">
         <v>1453</v>
       </c>
-      <c r="B204" s="202"/>
-      <c r="F204" s="201" t="s">
+      <c r="B204" s="200"/>
+      <c r="F204" s="199" t="s">
         <v>1453</v>
       </c>
-      <c r="G204" s="202"/>
+      <c r="G204" s="200"/>
     </row>
     <row r="205" spans="1:7" ht="15" thickBot="1">
-      <c r="A205" s="203" t="s">
+      <c r="A205" s="211" t="s">
         <v>1454</v>
       </c>
-      <c r="B205" s="204"/>
-      <c r="F205" s="203" t="s">
+      <c r="B205" s="212"/>
+      <c r="F205" s="211" t="s">
         <v>1454</v>
       </c>
-      <c r="G205" s="204"/>
+      <c r="G205" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D90"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A157:D157"/>
     <mergeCell ref="F18:I18"/>
@@ -28077,46 +28101,56 @@
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="F145:I145"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A175:B175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40520,6 +40554,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C297A53C74A1D94EA9911408ECAC2CE1" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="29fe4b809f0fa0a45b06b6d73cb8b062">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a6a8143ca2b5c1326281a6d33e5e77d" ns2:_="">
     <xsd:import namespace="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
@@ -40695,15 +40738,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
   <ds:schemaRefs>
@@ -40721,6 +40755,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F8EE32C-953B-475C-B1D1-EEEF2FE07B19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40736,12 +40778,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concat-my.sharepoint.com/personal/oliver_antwerpen_concat_de/Documents/Kunden/ITSG/DiGeN/posh/xls-wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1BD8CD6B-42EA-46EC-B1CC-871CA02FCC18}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03A81E7F-5A43-4C12-B003-898ADA2A2A27}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1095" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="26" r:id="rId1"/>
@@ -30,20 +30,21 @@
     <sheet name="Apollo 4510 Konfig" sheetId="24" r:id="rId15"/>
     <sheet name="Synergy-MGMT" sheetId="21" r:id="rId16"/>
     <sheet name="Synergy-Subnets" sheetId="44" r:id="rId17"/>
-    <sheet name="Synergy Integrationen" sheetId="41" r:id="rId18"/>
-    <sheet name="Synergy-Networks" sheetId="45" r:id="rId19"/>
-    <sheet name="VirtualConnect Konfig" sheetId="22" r:id="rId20"/>
-    <sheet name="Synergy-Hypervisor Template" sheetId="40" r:id="rId21"/>
-    <sheet name="Synergy-Compute Konfig" sheetId="23" r:id="rId22"/>
-    <sheet name="Nimble" sheetId="17" r:id="rId23"/>
-    <sheet name="Nimble_Initiatorgroups" sheetId="31" r:id="rId24"/>
-    <sheet name="Nimble_Hosts anlegen" sheetId="32" r:id="rId25"/>
-    <sheet name="Nimble_Perf Policies" sheetId="33" r:id="rId26"/>
-    <sheet name="Nimble_Folder" sheetId="34" r:id="rId27"/>
-    <sheet name="Nimble_Volumes" sheetId="35" r:id="rId28"/>
+    <sheet name="Synergy-VMware" sheetId="41" r:id="rId18"/>
+    <sheet name="Synergy-Nimble" sheetId="46" r:id="rId19"/>
+    <sheet name="Synergy-Networks" sheetId="45" r:id="rId20"/>
+    <sheet name="VirtualConnect Konfig" sheetId="22" r:id="rId21"/>
+    <sheet name="Synergy-Hypervisor Template" sheetId="40" r:id="rId22"/>
+    <sheet name="Synergy-Compute Konfig" sheetId="23" r:id="rId23"/>
+    <sheet name="Nimble" sheetId="17" r:id="rId24"/>
+    <sheet name="Nimble_Initiatorgroups" sheetId="31" r:id="rId25"/>
+    <sheet name="Nimble_Hosts anlegen" sheetId="32" r:id="rId26"/>
+    <sheet name="Nimble_Perf Policies" sheetId="33" r:id="rId27"/>
+    <sheet name="Nimble_Folder" sheetId="34" r:id="rId28"/>
+    <sheet name="Nimble_Volumes" sheetId="35" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'IP-Adressen'!$A$1:$I$69</definedName>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1789">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -5725,6 +5726,51 @@
   </si>
   <si>
     <t>Standard</t>
+  </si>
+  <si>
+    <t>Hypervisor-Template</t>
+  </si>
+  <si>
+    <t>hvcp -&gt; Hypervisor-Cluster-Profile</t>
+  </si>
+  <si>
+    <t>Allgemeine Parameter</t>
+  </si>
+  <si>
+    <t>hvcp name</t>
+  </si>
+  <si>
+    <t>{{Zone}}-{{Clustername}}</t>
+  </si>
+  <si>
+    <t>{{server_profile_template_name}}aus Step 17</t>
+  </si>
+  <si>
+    <t>OS Deployment Plan</t>
+  </si>
+  <si>
+    <t>{{name}} aus Step 15</t>
+  </si>
+  <si>
+    <t>Hypervisor-Profile Name Prefix</t>
+  </si>
+  <si>
+    <t>Standard vSwitches</t>
+  </si>
+  <si>
+    <t>Uplinks</t>
+  </si>
+  <si>
+    <t>Distributed vSwitches</t>
+  </si>
+  <si>
+    <t>{Zone}}-Prod</t>
+  </si>
+  <si>
+    <t>Network Set</t>
+  </si>
+  <si>
+    <t>Cluster</t>
   </si>
 </sst>
 </file>
@@ -6497,7 +6543,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6971,6 +7017,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Link" xfId="4" builtinId="8"/>
@@ -6981,415 +7028,6 @@
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
   <dxfs count="228">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7410,6 +7048,415 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -11490,13 +11537,13 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle320" displayName="Tabelle320" ref="A6:D21" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle320" displayName="Tabelle320" ref="A6:D21" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A6:D21" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="StoreServe Storage System" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="System 1" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="System 2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Bemerkungen" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="StoreServe Storage System" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="System 1" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="System 2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Bemerkungen" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11527,34 +11574,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabelle28" displayName="Tabelle28" ref="A23:E36" totalsRowShown="0">
   <autoFilter ref="A23:E36" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Subnet Label" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Nimble A iSCSI-A" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Nimble A iSCSI-B" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nimble B iSCSI-A" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{95349553-7808-4F6B-BD41-4FA004C2BE2C}" name="Nimble B iSCSI-B" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Subnet Label" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Nimble A iSCSI-A" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Nimble A iSCSI-B" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nimble B iSCSI-A" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{95349553-7808-4F6B-BD41-4FA004C2BE2C}" name="Nimble B iSCSI-B" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle29" displayName="Tabelle29" ref="A37:C40" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle29" displayName="Tabelle29" ref="A37:C40" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A37:C40" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Mail Notification" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Wert" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0722E1BD-F75E-41A3-87F7-D2EF06094037}" name="Spalte1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Mail Notification" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Wert" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0722E1BD-F75E-41A3-87F7-D2EF06094037}" name="Spalte1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabelle30" displayName="Tabelle30" ref="A42:B46" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabelle30" displayName="Tabelle30" ref="A42:B46" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A42:B46" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Call Home" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Wert" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Call Home" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Wert" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23149,10 +23196,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194:D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -25911,407 +25958,434 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" thickBot="1"/>
-    <row r="165" spans="1:7" ht="18">
-      <c r="A165" s="200" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B165" s="201"/>
-      <c r="F165" s="200" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G165" s="201"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B166" s="203"/>
-      <c r="F166" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G166" s="203"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="161" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B167" s="162" t="s">
-        <v>743</v>
-      </c>
-      <c r="F167" s="161" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G167" s="162" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="161" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B168" s="162" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F168" s="161" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G168" s="162" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="202" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B169" s="203"/>
-      <c r="F169" s="202" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G169" s="203"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="161" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B170" s="162" t="s">
-        <v>202</v>
-      </c>
-      <c r="F170" s="161" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G170" s="162" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="161" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B171" s="162" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F171" s="161" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G171" s="162" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="202" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B172" s="203"/>
-      <c r="F172" s="202" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G172" s="203"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B173" s="162" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F173" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G173" s="162" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="161" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B174" s="164" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F174" s="161" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G174" s="164" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="202" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B175" s="203"/>
-      <c r="F175" s="202" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G175" s="203"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="161" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B176" s="162" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.6">
+      <c r="A165" s="215" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="30" customFormat="1">
+      <c r="A166" s="30" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.6">
+      <c r="A169" s="215" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="30" customFormat="1">
+      <c r="A170" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
         <v>166</v>
       </c>
-      <c r="F176" s="161" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G176" s="162" t="s">
+      <c r="B172" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="161" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B177" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="F177" s="161" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G177" s="162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="161" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B178" s="162" t="s">
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
         <v>170</v>
       </c>
-      <c r="F178" s="161" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G178" s="162" t="s">
+      <c r="B173" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15" thickBot="1">
-      <c r="A179" s="165" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B179" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="F179" s="165" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G179" s="166" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15" thickBot="1"/>
-    <row r="182" spans="1:7" ht="18">
-      <c r="A182" s="200" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B182" s="201"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B183" s="203"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B184" s="162" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="161" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B185" s="162" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="202" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B186" s="203"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="161" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B187" s="162" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="161" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B188" s="162" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="161" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B189" s="162" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="161" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B190" s="162" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="202" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B191" s="203"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="161" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B192" s="162" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="183" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B193" s="184" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="161" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B194" s="162" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="161" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B195" s="162" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="161" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B196" s="162" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="15" thickBot="1">
-      <c r="A197" s="165" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B197" s="166" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="183"/>
-      <c r="B198" s="52"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" thickBot="1"/>
-    <row r="200" spans="1:7" ht="18">
-      <c r="A200" s="200" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B200" s="201"/>
-      <c r="F200" s="200" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G200" s="201"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B201" s="203"/>
-      <c r="F201" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G201" s="203"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B202" s="162" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F202" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G202" s="162" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="161" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B203" s="162" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F203" s="161" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G203" s="162" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="202" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B204" s="203"/>
-      <c r="F204" s="202" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G204" s="203"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" thickBot="1">
-      <c r="A205" s="204" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B205" s="205"/>
-      <c r="F205" s="204" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G205" s="205"/>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15.6">
+      <c r="A177" s="215" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15.6">
+      <c r="A182" s="215" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C184" s="75" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D184" s="52" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C185" s="75" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D185" s="52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C186" s="75" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D186" s="52" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C187" s="75" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D187" s="52" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C188" s="75" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D188" s="52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C189" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D189" s="52" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C190" s="75" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D190" s="52" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C191" s="75" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D191" s="52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C192" s="75" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D192" s="52" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C193" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D193" s="52" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C194" s="75" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D194" s="52" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C195" s="75" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D195" s="52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C196" s="75" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D196" s="52" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C197" s="75" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D197" s="52" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C198" s="75" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D198" s="52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C199" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D199" s="52" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C200" s="75" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D200" s="52" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C201" s="75" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D201" s="52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C202" s="75" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D202" s="52" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C203" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D203" s="52" t="s">
+        <v>1303</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A175:B175"/>
+  <mergeCells count="92">
     <mergeCell ref="F157:I157"/>
     <mergeCell ref="F120:I120"/>
     <mergeCell ref="F127:I127"/>
@@ -26388,14 +26462,6 @@
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="F205:G205"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
@@ -26413,12 +26479,621 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="200" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1" s="201"/>
+      <c r="F1" s="200" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G1" s="201"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="202" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2" s="203"/>
+      <c r="F2" s="202" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G2" s="203"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="161" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>743</v>
+      </c>
+      <c r="F3" s="161" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="161" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F4" s="161" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G4" s="162" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="202" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B5" s="203"/>
+      <c r="F5" s="202" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G5" s="203"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="161" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B6" s="162" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G6" s="162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="161" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F7" s="161" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G7" s="162" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="202" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B8" s="203"/>
+      <c r="F8" s="202" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G8" s="203"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="B9" s="162" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F9" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="G9" s="162" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="161" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B10" s="164" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F10" s="161" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G10" s="164" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="202" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B11" s="203"/>
+      <c r="F11" s="202" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G11" s="203"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="161" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B12" s="162" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="161" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G12" s="162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="161" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B13" s="162" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="161" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="161" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B14" s="162" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="161" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G14" s="162" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="A15" s="165" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B15" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="165" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1"/>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="200" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B18" s="201"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="202" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B19" s="203"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="B20" s="162" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="161" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B21" s="162" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="202" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B22" s="203"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="161" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B23" s="162" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="161" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B24" s="162" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="161" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B25" s="162" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="161" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B26" s="162" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="202" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B27" s="203"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="161" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B28" s="162" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="183" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B29" s="184" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="161" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B30" s="162" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="161" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B31" s="162" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="161" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B32" s="162" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="165" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B33" s="166" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="183"/>
+      <c r="B34" s="52"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1"/>
+    <row r="36" spans="1:7" ht="18">
+      <c r="A36" s="200" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B36" s="201"/>
+      <c r="F36" s="200" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G36" s="201"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="202" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B37" s="203"/>
+      <c r="F37" s="202" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G37" s="203"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="B38" s="162" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F38" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="G38" s="162" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="161" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B39" s="162" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F39" s="161" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G39" s="162" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="202" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B40" s="203"/>
+      <c r="F40" s="202" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G40" s="203"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1">
+      <c r="A41" s="204" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B41" s="205"/>
+      <c r="F41" s="204" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G41" s="205"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Changelog!$B$16</f>
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f>Changelog!$A$8</f>
+        <v>0.00.011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="195" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="195"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="195"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="195"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="195"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="195"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A23:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123FC9F-23EA-4F5F-A4E7-231974F9FE8E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -26959,186 +27634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <f>Changelog!$B$16</f>
-        <v>43698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f>Changelog!$A$8</f>
-        <v>0.00.011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="195" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="195"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="195"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="195"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="195"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="195"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="195" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="195"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="195"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="195"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A23:D24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28179,7 +28675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452F16D-CB95-4A6F-96D2-F66DF3C97A4F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28357,7 +28853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -31122,7 +31618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -31627,17 +32123,17 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B7:C10">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C16">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C40">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31656,7 +32152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -31813,7 +32309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -32284,7 +32780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -32824,7 +33320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -33041,7 +33537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>

--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concat-my.sharepoint.com/personal/oliver_antwerpen_concat_de/Documents/Kunden/ITSG/DiGeN/posh/xls-wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03A81E7F-5A43-4C12-B003-898ADA2A2A27}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAFFAD66-7665-4FF1-BA08-87B2787FE2FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="1778">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -4154,9 +4154,6 @@
     <t>Use distributed vSwitch for</t>
   </si>
   <si>
-    <t>General networks</t>
-  </si>
-  <si>
     <t>Milti-NIC vMotion</t>
   </si>
   <si>
@@ -4265,9 +4262,6 @@
     <t>File System</t>
   </si>
   <si>
-    <t>A-EI-0001</t>
-  </si>
-  <si>
     <t>8TB</t>
   </si>
   <si>
@@ -4277,15 +4271,6 @@
     <t>VMFS</t>
   </si>
   <si>
-    <t>B-EI-0001</t>
-  </si>
-  <si>
-    <t>A-EI-0002</t>
-  </si>
-  <si>
-    <t>B-EI-0002</t>
-  </si>
-  <si>
     <t>Hypervisors</t>
   </si>
   <si>
@@ -4340,18 +4325,6 @@
     <t>B-PROD</t>
   </si>
   <si>
-    <t>A-PROD-0001</t>
-  </si>
-  <si>
-    <t>B-PROD-0001</t>
-  </si>
-  <si>
-    <t>A-PROD-0002</t>
-  </si>
-  <si>
-    <t>B-PROD-0002</t>
-  </si>
-  <si>
     <t>A-Master1, bay 4</t>
   </si>
   <si>
@@ -4410,18 +4383,6 @@
   </si>
   <si>
     <t>B-PRODTEST</t>
-  </si>
-  <si>
-    <t>A-PRODTEST-0001</t>
-  </si>
-  <si>
-    <t>B-PRODTEST-0001</t>
-  </si>
-  <si>
-    <t>A-PRODTEST-0002</t>
-  </si>
-  <si>
-    <t>B-PRODTEST-0002</t>
   </si>
   <si>
     <t>A-Master1, bay 5</t>
@@ -5725,15 +5686,9 @@
     <t>NublarEsxiUpdated_GI.zip</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Hypervisor-Template</t>
   </si>
   <si>
-    <t>hvcp -&gt; Hypervisor-Cluster-Profile</t>
-  </si>
-  <si>
     <t>Allgemeine Parameter</t>
   </si>
   <si>
@@ -5771,6 +5726,18 @@
   </si>
   <si>
     <t>Cluster</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0-&gt;"General Networks", 1-&gt;"All Networks"</t>
+  </si>
+  <si>
+    <t>{{ ethernet_network.name }}</t>
+  </si>
+  <si>
+    <t>aus spt</t>
   </si>
 </sst>
 </file>
@@ -22284,7 +22251,7 @@
         <v>1161</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -22292,22 +22259,22 @@
         <v>1068</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -22517,7 +22484,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>1204</v>
@@ -22532,7 +22499,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1205</v>
@@ -22559,12 +22526,12 @@
         <v>1207</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -22586,19 +22553,19 @@
         <v>1209</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>1209</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -22609,19 +22576,19 @@
         <v>1211</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>1211</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -22635,60 +22602,60 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -22762,10 +22729,10 @@
         <v>1282</v>
       </c>
       <c r="D1" s="188" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="E1" s="188" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="F1" s="188" t="s">
         <v>1073</v>
@@ -22774,24 +22741,24 @@
         <v>1215</v>
       </c>
       <c r="H1" s="188" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="I1" s="188" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="J1" s="188" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="K1" s="188" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="L1" s="188" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B2" s="188" t="s">
         <v>121</v>
@@ -22820,13 +22787,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K3" s="188" t="s">
         <v>1216</v>
@@ -22837,7 +22804,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B4" s="188" t="s">
         <v>121</v>
@@ -22866,24 +22833,24 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B5" s="188" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K5" s="188" t="s">
         <v>1217</v>
       </c>
       <c r="L5" s="188" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="188" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B6" s="188" t="s">
         <v>373</v>
@@ -22912,10 +22879,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="188" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B7" s="188" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C7" s="188" t="s">
         <v>1072</v>
@@ -22929,13 +22896,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B8" s="188" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K8" s="188" t="s">
         <v>1146</v>
@@ -22946,13 +22913,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B9" s="188" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C9" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K9" s="188" t="s">
         <v>1222</v>
@@ -22963,7 +22930,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="188" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B10" s="188" t="s">
         <v>1227</v>
@@ -22980,13 +22947,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B11" s="188" t="s">
         <v>1227</v>
       </c>
       <c r="C11" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K11" s="188" t="s">
         <v>1228</v>
@@ -22997,13 +22964,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B12" s="188" t="s">
         <v>1227</v>
       </c>
       <c r="C12" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K12" s="188" t="s">
         <v>1229</v>
@@ -23014,7 +22981,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="188" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B13" s="188" t="s">
         <v>166</v>
@@ -23031,13 +22998,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B14" s="188" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K14" s="188" t="s">
         <v>1233</v>
@@ -23048,13 +23015,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B15" s="188" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K15" s="188" t="s">
         <v>1234</v>
@@ -23065,7 +23032,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="188" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B16" s="188" t="s">
         <v>170</v>
@@ -23082,13 +23049,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B17" s="188" t="s">
         <v>170</v>
       </c>
       <c r="C17" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K17" s="188" t="s">
         <v>1238</v>
@@ -23099,13 +23066,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B18" s="188" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K18" s="188" t="s">
         <v>1239</v>
@@ -23116,7 +23083,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B19" s="188" t="s">
         <v>1243</v>
@@ -23125,7 +23092,7 @@
         <v>1072</v>
       </c>
       <c r="D19" s="188" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="E19" s="188" t="s">
         <v>374</v>
@@ -23133,16 +23100,16 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="188" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B20" s="188" t="s">
         <v>1243</v>
       </c>
       <c r="C20" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K20" s="188" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="L20" s="188" t="s">
         <v>1245</v>
@@ -23150,7 +23117,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B21" s="188" t="s">
         <v>1243</v>
@@ -23167,13 +23134,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="188" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B22" s="188" t="s">
         <v>1243</v>
       </c>
       <c r="C22" s="188" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="K22" s="188" t="s">
         <v>1244</v>
@@ -23196,10 +23163,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194:D203"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -23214,19 +23181,19 @@
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="200" t="s">
         <v>1280</v>
       </c>
       <c r="B1" s="201"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="202" t="s">
         <v>1281</v>
       </c>
       <c r="B2" s="203"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="161" t="s">
         <v>1282</v>
       </c>
@@ -23234,7 +23201,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="161" t="s">
         <v>1070</v>
       </c>
@@ -23242,7 +23209,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="161" t="s">
         <v>1285</v>
       </c>
@@ -23250,13 +23217,13 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="202" t="s">
         <v>1287</v>
       </c>
       <c r="B6" s="203"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="161" t="s">
         <v>1288</v>
       </c>
@@ -23264,21 +23231,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="161" t="s">
         <v>1289</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="202" t="s">
         <v>1291</v>
       </c>
       <c r="B9" s="203"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="161" t="s">
         <v>1292</v>
       </c>
@@ -23286,7 +23253,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="161" t="s">
         <v>1294</v>
       </c>
@@ -23294,178 +23261,151 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="161" t="s">
         <v>1296</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="163" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="161" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="161" t="s">
+      <c r="B13" s="162" t="s">
         <v>1298</v>
       </c>
-      <c r="B13" s="162" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="161" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="161" t="s">
+      <c r="B14" s="162" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="165" t="s">
         <v>1300</v>
       </c>
-      <c r="B14" s="162" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1">
-      <c r="A15" s="165" t="s">
+      <c r="B15" s="166" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1"/>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="200" t="s">
         <v>1301</v>
       </c>
-      <c r="B15" s="166" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1"/>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="201"/>
-      <c r="F18" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="201"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="202" t="s">
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="201"/>
+      <c r="F20" s="200" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="201"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="202" t="s">
         <v>1281</v>
       </c>
-      <c r="B19" s="210"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="203"/>
-      <c r="F19" s="202" t="s">
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="F21" s="202" t="s">
         <v>1281</v>
       </c>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="203"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="162"/>
-      <c r="F20" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="162"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="162"/>
-      <c r="F21" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="162"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="161" t="s">
-        <v>1307</v>
+        <v>908</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>1308</v>
+        <v>1392</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="162"/>
       <c r="F22" s="161" t="s">
-        <v>1307</v>
+        <v>908</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>1308</v>
+        <v>1393</v>
       </c>
       <c r="H22" s="75"/>
       <c r="I22" s="162"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B23" s="75" t="str">
-        <f>B20</f>
-        <v>A-EI</v>
+        <v>1304</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>1305</v>
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="162"/>
       <c r="F23" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G23" s="75" t="str">
-        <f>G20</f>
-        <v>B-EI</v>
+        <v>1304</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>1305</v>
       </c>
       <c r="H23" s="75"/>
       <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B24" s="210"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="203"/>
-      <c r="F24" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="203"/>
+      <c r="A24" s="161" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="162"/>
+      <c r="F24" s="161" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H24" s="75"/>
+      <c r="I24" s="162"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B25" s="212"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="213"/>
-      <c r="F25" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="213"/>
+      <c r="A25" s="161" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="162"/>
+      <c r="F25" s="161" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="202" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B26" s="210"/>
       <c r="C26" s="210"/>
       <c r="D26" s="203"/>
       <c r="F26" s="202" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="G26" s="210"/>
       <c r="H26" s="210"/>
@@ -23473,13 +23413,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="211" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B27" s="212"/>
       <c r="C27" s="212"/>
       <c r="D27" s="213"/>
       <c r="F27" s="211" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="G27" s="212"/>
       <c r="H27" s="212"/>
@@ -23487,2997 +23427,936 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="202" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B28" s="210"/>
       <c r="C28" s="210"/>
       <c r="D28" s="203"/>
       <c r="F28" s="202" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="G28" s="210"/>
       <c r="H28" s="210"/>
       <c r="I28" s="203"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="211" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B29" s="212"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="213"/>
+      <c r="F29" s="211" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G29" s="212"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="213"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="202" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="203"/>
+      <c r="F30" s="202" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="203"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="207" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="209"/>
+      <c r="F31" s="207" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="209"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="167" t="s">
         <v>1315</v>
       </c>
-      <c r="B29" s="208"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="F29" s="207" t="s">
+      <c r="B32" s="168" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C32" s="168" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D32" s="162"/>
+      <c r="F32" s="167" t="s">
         <v>1315</v>
       </c>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="209"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="167" t="s">
+      <c r="G32" s="168" t="s">
         <v>1316</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="H32" s="168" t="s">
         <v>1317</v>
-      </c>
-      <c r="C30" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D30" s="162"/>
-      <c r="F30" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G30" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H30" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I30" s="162"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D31" s="162"/>
-      <c r="F31" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H31" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I31" s="162"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D32" s="162"/>
-      <c r="F32" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H32" s="75" t="s">
-        <v>1320</v>
       </c>
       <c r="I32" s="162"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="161" t="s">
-        <v>1227</v>
+        <v>166</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>148</v>
+        <v>1318</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D33" s="162"/>
       <c r="F33" s="161" t="s">
-        <v>1227</v>
+        <v>166</v>
       </c>
       <c r="G33" s="75" t="s">
-        <v>148</v>
+        <v>1318</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I33" s="162"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="161" t="s">
-        <v>1321</v>
+        <v>170</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D34" s="162"/>
       <c r="F34" s="161" t="s">
-        <v>1321</v>
+        <v>170</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="H34" s="75" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I34" s="162"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="161" t="s">
-        <v>1321</v>
+        <v>1227</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>1322</v>
+        <v>148</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D35" s="162"/>
       <c r="F35" s="161" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I35" s="162"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="161" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B36" s="75" t="s">
         <v>1321</v>
       </c>
-      <c r="G35" s="75" t="s">
+      <c r="C36" s="75" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D36" s="162"/>
+      <c r="F36" s="161" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I36" s="162"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="161" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D37" s="162"/>
+      <c r="F37" s="161" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I37" s="162"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="207" t="s">
         <v>1322</v>
       </c>
-      <c r="H35" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I35" s="162"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="207" t="s">
+      <c r="B38" s="208"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="209"/>
+      <c r="F38" s="207" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="209"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="167" t="s">
         <v>1323</v>
       </c>
-      <c r="B36" s="208"/>
-      <c r="C36" s="208"/>
-      <c r="D36" s="209"/>
-      <c r="F36" s="207" t="s">
+      <c r="B39" s="168" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C39" s="75"/>
+      <c r="D39" s="162"/>
+      <c r="F39" s="167" t="s">
         <v>1323</v>
       </c>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="209"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="167" t="s">
+      <c r="G39" s="168" t="s">
         <v>1324</v>
-      </c>
-      <c r="B37" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D37" s="162"/>
-      <c r="F37" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G37" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H37" s="75"/>
-      <c r="I37" s="162"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D38" s="162"/>
-      <c r="F38" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G38" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H38" s="75"/>
-      <c r="I38" s="162"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="B39" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D39" s="162"/>
-      <c r="F39" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="G39" s="75" t="s">
-        <v>373</v>
       </c>
       <c r="H39" s="75"/>
       <c r="I39" s="162"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="161" t="s">
-        <v>166</v>
+        <v>1325</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>1773</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="C40" s="75"/>
       <c r="D40" s="162"/>
       <c r="F40" s="161" t="s">
-        <v>166</v>
+        <v>1325</v>
       </c>
       <c r="G40" s="75" t="s">
-        <v>166</v>
+        <v>1326</v>
       </c>
       <c r="H40" s="75"/>
       <c r="I40" s="162"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="161" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>1773</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C41" s="75"/>
       <c r="D41" s="162"/>
       <c r="F41" s="161" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="G41" s="75" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="H41" s="75"/>
       <c r="I41" s="162"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="161" t="s">
-        <v>1227</v>
+        <v>166</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>1773</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C42" s="75"/>
       <c r="D42" s="162"/>
       <c r="F42" s="161" t="s">
-        <v>1227</v>
+        <v>166</v>
       </c>
       <c r="G42" s="75" t="s">
-        <v>1227</v>
+        <v>166</v>
       </c>
       <c r="H42" s="75"/>
       <c r="I42" s="162"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="161" t="s">
-        <v>1328</v>
+        <v>170</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>1773</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C43" s="75"/>
       <c r="D43" s="162"/>
       <c r="F43" s="161" t="s">
-        <v>1328</v>
+        <v>170</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>1321</v>
+        <v>170</v>
       </c>
       <c r="H43" s="75"/>
       <c r="I43" s="162"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="161" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="162"/>
+      <c r="F44" s="161" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H44" s="75"/>
+      <c r="I44" s="162"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="161" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="162"/>
+      <c r="F45" s="161" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="162"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="207" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B46" s="208"/>
+      <c r="C46" s="208"/>
+      <c r="D46" s="209"/>
+      <c r="F46" s="207" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G46" s="208"/>
+      <c r="H46" s="208"/>
+      <c r="I46" s="209"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="167" t="s">
         <v>1329</v>
       </c>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="209"/>
-      <c r="F44" s="207" t="s">
+      <c r="B47" s="168" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C47" s="168" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D47" s="170" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F47" s="167" t="s">
         <v>1329</v>
       </c>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="209"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="167" t="s">
+      <c r="G47" s="168" t="s">
         <v>1330</v>
       </c>
-      <c r="B45" s="168" t="s">
+      <c r="H47" s="168" t="s">
         <v>1331</v>
       </c>
-      <c r="C45" s="168" t="s">
+      <c r="I47" s="170" t="s">
         <v>1332</v>
       </c>
-      <c r="D45" s="170" t="s">
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="161" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B48" s="75" t="s">
         <v>1333</v>
       </c>
-      <c r="F45" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G45" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H45" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I45" s="170" t="s">
+      <c r="C48" s="75" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D48" s="162" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F48" s="161" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G48" s="75" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="161" t="s">
+      <c r="H48" s="75" t="s">
         <v>1334</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="I48" s="162" t="s">
         <v>1335</v>
       </c>
-      <c r="C46" s="75" t="s">
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="161" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D49" s="162" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F49" s="161" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I49" s="162" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="207" t="s">
         <v>1336</v>
       </c>
-      <c r="D46" s="162" t="s">
+      <c r="B50" s="208"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="209"/>
+      <c r="F50" s="207" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G50" s="208"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="209"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="167" t="s">
+        <v>908</v>
+      </c>
+      <c r="B51" s="168" t="s">
         <v>1337</v>
       </c>
-      <c r="F46" s="161" t="s">
+      <c r="C51" s="168" t="s">
         <v>1338</v>
       </c>
-      <c r="G46" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H46" s="75" t="s">
+      <c r="D51" s="170" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F51" s="167" t="s">
+        <v>908</v>
+      </c>
+      <c r="G51" s="168" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H51" s="168" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I51" s="170" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="161" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D52" s="162" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="161" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I52" s="162" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1">
+      <c r="A53" s="165" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B53" s="169" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C53" s="169" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D53" s="166" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F53" s="165" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G53" s="169" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H53" s="169" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I53" s="166" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6">
+      <c r="A58" s="215" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="30" customFormat="1">
+      <c r="A59" s="30" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.6">
+      <c r="A62" s="215" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="30" customFormat="1">
+      <c r="A63" s="30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.6">
+      <c r="A66" s="215" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.6">
+      <c r="A71" s="215" t="s">
         <v>1336</v>
       </c>
-      <c r="I46" s="162" t="s">
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="161" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B47" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D47" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F47" s="161" t="s">
+      <c r="D72" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C78" s="75" t="s">
         <v>1340</v>
       </c>
-      <c r="G47" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H47" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I47" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B48" s="208"/>
-      <c r="C48" s="208"/>
-      <c r="D48" s="209"/>
-      <c r="F48" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G48" s="208"/>
-      <c r="H48" s="208"/>
-      <c r="I48" s="209"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="B49" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C49" s="168" t="s">
+      <c r="D78" s="52" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C84" s="75" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C85" s="75" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C86" s="75" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C88" s="75" t="s">
         <v>1343</v>
       </c>
-      <c r="D49" s="170" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F49" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="G49" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H49" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I49" s="170" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B50" s="75" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D50" s="162" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F50" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G50" s="75" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H50" s="75" t="s">
+      <c r="D88" s="52" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C89" s="75" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C90" s="75" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C91" s="75" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C92" s="75" t="s">
         <v>1349</v>
       </c>
-      <c r="I50" s="162" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1">
-      <c r="A51" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B51" s="169" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C51" s="169" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D51" s="166" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F51" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G51" s="169" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H51" s="169" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I51" s="166" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1"/>
-    <row r="53" spans="1:9" ht="18">
-      <c r="A53" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B53" s="206"/>
-      <c r="C53" s="206"/>
-      <c r="D53" s="201"/>
-      <c r="F53" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G53" s="206"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="201"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B54" s="210"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="203"/>
-      <c r="F54" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G54" s="210"/>
-      <c r="H54" s="210"/>
-      <c r="I54" s="203"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B55" s="75" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="162"/>
-      <c r="F55" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G55" s="75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H55" s="75"/>
-      <c r="I55" s="162"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B56" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="162"/>
-      <c r="F56" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G56" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H56" s="75"/>
-      <c r="I56" s="162"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B57" s="75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="162"/>
-      <c r="F57" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G57" s="75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H57" s="75"/>
-      <c r="I57" s="162"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B58" s="75" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="162"/>
-      <c r="F58" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G58" s="75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H58" s="75"/>
-      <c r="I58" s="162"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B59" s="210"/>
-      <c r="C59" s="210"/>
-      <c r="D59" s="203"/>
-      <c r="F59" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G59" s="210"/>
-      <c r="H59" s="210"/>
-      <c r="I59" s="203"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B60" s="212"/>
-      <c r="C60" s="212"/>
-      <c r="D60" s="213"/>
-      <c r="F60" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G60" s="212"/>
-      <c r="H60" s="212"/>
-      <c r="I60" s="213"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="202" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B61" s="210"/>
-      <c r="C61" s="210"/>
-      <c r="D61" s="203"/>
-      <c r="F61" s="202" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G61" s="210"/>
-      <c r="H61" s="210"/>
-      <c r="I61" s="203"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="211" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B62" s="212"/>
-      <c r="C62" s="212"/>
-      <c r="D62" s="213"/>
-      <c r="F62" s="211" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G62" s="212"/>
-      <c r="H62" s="212"/>
-      <c r="I62" s="213"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="202" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B63" s="210"/>
-      <c r="C63" s="210"/>
-      <c r="D63" s="203"/>
-      <c r="F63" s="202" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G63" s="210"/>
-      <c r="H63" s="210"/>
-      <c r="I63" s="203"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B64" s="208"/>
-      <c r="C64" s="208"/>
-      <c r="D64" s="209"/>
-      <c r="F64" s="207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G64" s="208"/>
-      <c r="H64" s="208"/>
-      <c r="I64" s="209"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B65" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C65" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D65" s="162"/>
-      <c r="F65" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G65" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H65" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I65" s="162"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D66" s="162"/>
-      <c r="F66" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H66" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I66" s="162"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C67" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D67" s="162"/>
-      <c r="F67" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H67" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I67" s="162"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B68" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D68" s="162"/>
-      <c r="F68" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G68" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I68" s="162"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B69" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D69" s="162"/>
-      <c r="F69" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G69" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H69" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I69" s="162"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B70" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C70" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D70" s="162"/>
-      <c r="F70" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G70" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H70" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I70" s="162"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B71" s="208"/>
-      <c r="C71" s="208"/>
-      <c r="D71" s="209"/>
-      <c r="F71" s="207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G71" s="208"/>
-      <c r="H71" s="208"/>
-      <c r="I71" s="209"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B72" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="162"/>
-      <c r="F72" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G72" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H72" s="75"/>
-      <c r="I72" s="162"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B73" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="162"/>
-      <c r="F73" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G73" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H73" s="75"/>
-      <c r="I73" s="162"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="B74" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C74" s="75"/>
-      <c r="D74" s="162"/>
-      <c r="F74" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="G74" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="162"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="75"/>
-      <c r="D75" s="162"/>
-      <c r="F75" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" s="75"/>
-      <c r="I75" s="162"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="75"/>
-      <c r="D76" s="162"/>
-      <c r="F76" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H76" s="75"/>
-      <c r="I76" s="162"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B77" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C77" s="75"/>
-      <c r="D77" s="162"/>
-      <c r="F77" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G77" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H77" s="75"/>
-      <c r="I77" s="162"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="161" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B78" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C78" s="75"/>
-      <c r="D78" s="162"/>
-      <c r="F78" s="161" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G78" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H78" s="75"/>
-      <c r="I78" s="162"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="207" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B79" s="208"/>
-      <c r="C79" s="208"/>
-      <c r="D79" s="209"/>
-      <c r="F79" s="207" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G79" s="208"/>
-      <c r="H79" s="208"/>
-      <c r="I79" s="209"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B80" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C80" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D80" s="170" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F80" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G80" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H80" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I80" s="170" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="161" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B81" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C81" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D81" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F81" s="161" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G81" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H81" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I81" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="161" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B82" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C82" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D82" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F82" s="161" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G82" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H82" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I82" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B83" s="208"/>
-      <c r="C83" s="208"/>
-      <c r="D83" s="209"/>
-      <c r="F83" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G83" s="208"/>
-      <c r="H83" s="208"/>
-      <c r="I83" s="209"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="B84" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C84" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D84" s="170" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F84" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="G84" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H84" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I84" s="170" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B85" s="75" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C85" s="75" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D85" s="162" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F85" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G85" s="75" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H85" s="75" t="s">
-        <v>1367</v>
-      </c>
-      <c r="I85" s="162" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B86" s="75" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C86" s="75" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D86" s="162" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F86" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G86" s="75" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H86" s="75" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I86" s="162" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1">
-      <c r="A87" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B87" s="169" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C87" s="169" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D87" s="166" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F87" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G87" s="169" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H87" s="169" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I87" s="166" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1"/>
-    <row r="90" spans="1:9" ht="18">
-      <c r="A90" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B90" s="206"/>
-      <c r="C90" s="206"/>
-      <c r="D90" s="201"/>
-      <c r="F90" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G90" s="206"/>
-      <c r="H90" s="206"/>
-      <c r="I90" s="201"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B91" s="210"/>
-      <c r="C91" s="210"/>
-      <c r="D91" s="203"/>
-      <c r="F91" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G91" s="210"/>
-      <c r="H91" s="210"/>
-      <c r="I91" s="203"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B92" s="75" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C92" s="75"/>
-      <c r="D92" s="162"/>
-      <c r="F92" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G92" s="75" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H92" s="75"/>
-      <c r="I92" s="162"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C93" s="75"/>
-      <c r="D93" s="162"/>
-      <c r="F93" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G93" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H93" s="75"/>
-      <c r="I93" s="162"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B94" s="75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C94" s="75"/>
-      <c r="D94" s="162"/>
-      <c r="F94" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G94" s="75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H94" s="75"/>
-      <c r="I94" s="162"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B95" s="75" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C95" s="75"/>
-      <c r="D95" s="162"/>
-      <c r="F95" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G95" s="75" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H95" s="75"/>
-      <c r="I95" s="162"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B96" s="210"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="203"/>
-      <c r="F96" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G96" s="210"/>
-      <c r="H96" s="210"/>
-      <c r="I96" s="203"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B97" s="212"/>
-      <c r="C97" s="212"/>
-      <c r="D97" s="213"/>
-      <c r="F97" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G97" s="212"/>
-      <c r="H97" s="212"/>
-      <c r="I97" s="213"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="202" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B98" s="210"/>
-      <c r="C98" s="210"/>
-      <c r="D98" s="203"/>
-      <c r="F98" s="202" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G98" s="210"/>
-      <c r="H98" s="210"/>
-      <c r="I98" s="203"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="211" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B99" s="212"/>
-      <c r="C99" s="212"/>
-      <c r="D99" s="213"/>
-      <c r="F99" s="211" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G99" s="212"/>
-      <c r="H99" s="212"/>
-      <c r="I99" s="213"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="202" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B100" s="210"/>
-      <c r="C100" s="210"/>
-      <c r="D100" s="203"/>
-      <c r="F100" s="202" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G100" s="210"/>
-      <c r="H100" s="210"/>
-      <c r="I100" s="203"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B101" s="208"/>
-      <c r="C101" s="208"/>
-      <c r="D101" s="209"/>
-      <c r="F101" s="207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G101" s="208"/>
-      <c r="H101" s="208"/>
-      <c r="I101" s="209"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B102" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C102" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D102" s="162"/>
-      <c r="F102" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G102" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H102" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I102" s="162"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C103" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D103" s="162"/>
-      <c r="F103" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G103" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H103" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I103" s="162"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C104" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D104" s="162"/>
-      <c r="F104" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G104" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H104" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I104" s="162"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B105" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D105" s="162"/>
-      <c r="F105" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G105" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="H105" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I105" s="162"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B106" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C106" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D106" s="162"/>
-      <c r="F106" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G106" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H106" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I106" s="162"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B107" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C107" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D107" s="162"/>
-      <c r="F107" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G107" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H107" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I107" s="162"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B108" s="208"/>
-      <c r="C108" s="208"/>
-      <c r="D108" s="209"/>
-      <c r="F108" s="207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G108" s="208"/>
-      <c r="H108" s="208"/>
-      <c r="I108" s="209"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B109" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C109" s="75"/>
-      <c r="D109" s="162"/>
-      <c r="F109" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G109" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H109" s="75"/>
-      <c r="I109" s="162"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B110" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C110" s="75"/>
-      <c r="D110" s="162"/>
-      <c r="F110" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G110" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H110" s="75"/>
-      <c r="I110" s="162"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C111" s="75"/>
-      <c r="D111" s="162"/>
-      <c r="F111" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="G111" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="H111" s="75"/>
-      <c r="I111" s="162"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="75"/>
-      <c r="D112" s="162"/>
-      <c r="F112" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G112" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="H112" s="75"/>
-      <c r="I112" s="162"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B113" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="75"/>
-      <c r="D113" s="162"/>
-      <c r="F113" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G113" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H113" s="75"/>
-      <c r="I113" s="162"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B114" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C114" s="75"/>
-      <c r="D114" s="162"/>
-      <c r="F114" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G114" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H114" s="75"/>
-      <c r="I114" s="162"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="161" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C115" s="75"/>
-      <c r="D115" s="162"/>
-      <c r="F115" s="161" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G115" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H115" s="75"/>
-      <c r="I115" s="162"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="207" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B116" s="208"/>
-      <c r="C116" s="208"/>
-      <c r="D116" s="209"/>
-      <c r="F116" s="207" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G116" s="208"/>
-      <c r="H116" s="208"/>
-      <c r="I116" s="209"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B117" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C117" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D117" s="170" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F117" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G117" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H117" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I117" s="170" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="161" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B118" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C118" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D118" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F118" s="161" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G118" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H118" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I118" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="161" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B119" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C119" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D119" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F119" s="161" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G119" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H119" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I119" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B120" s="208"/>
-      <c r="C120" s="208"/>
-      <c r="D120" s="209"/>
-      <c r="F120" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G120" s="208"/>
-      <c r="H120" s="208"/>
-      <c r="I120" s="209"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="B121" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C121" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D121" s="170" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F121" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="G121" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H121" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I121" s="170" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B122" s="75" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C122" s="75" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D122" s="162" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F122" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G122" s="75" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H122" s="75" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I122" s="162" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B123" s="75" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C123" s="75" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D123" s="162" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F123" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G123" s="75" t="s">
-        <v>1396</v>
-      </c>
-      <c r="H123" s="75" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I123" s="162" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15" thickBot="1">
-      <c r="A124" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B124" s="169" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C124" s="169" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D124" s="166" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F124" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G124" s="169" t="s">
-        <v>1402</v>
-      </c>
-      <c r="H124" s="169" t="s">
-        <v>1403</v>
-      </c>
-      <c r="I124" s="166" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15" thickBot="1"/>
-    <row r="127" spans="1:9" ht="18">
-      <c r="A127" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B127" s="206"/>
-      <c r="C127" s="206"/>
-      <c r="D127" s="201"/>
-      <c r="F127" s="200" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G127" s="206"/>
-      <c r="H127" s="206"/>
-      <c r="I127" s="201"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B128" s="210"/>
-      <c r="C128" s="210"/>
-      <c r="D128" s="203"/>
-      <c r="F128" s="202" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G128" s="210"/>
-      <c r="H128" s="210"/>
-      <c r="I128" s="203"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B129" s="75" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C129" s="75"/>
-      <c r="D129" s="162"/>
-      <c r="F129" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G129" s="75" t="s">
-        <v>1406</v>
-      </c>
-      <c r="H129" s="75"/>
-      <c r="I129" s="162"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B130" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C130" s="75"/>
-      <c r="D130" s="162"/>
-      <c r="F130" s="161" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G130" s="75" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H130" s="75"/>
-      <c r="I130" s="162"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B131" s="75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C131" s="75"/>
-      <c r="D131" s="162"/>
-      <c r="F131" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G131" s="75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H131" s="75"/>
-      <c r="I131" s="162"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B132" s="75" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C132" s="75"/>
-      <c r="D132" s="162"/>
-      <c r="F132" s="161" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G132" s="75" t="s">
-        <v>1406</v>
-      </c>
-      <c r="H132" s="75"/>
-      <c r="I132" s="162"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B133" s="210"/>
-      <c r="C133" s="210"/>
-      <c r="D133" s="203"/>
-      <c r="F133" s="202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G133" s="210"/>
-      <c r="H133" s="210"/>
-      <c r="I133" s="203"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B134" s="212"/>
-      <c r="C134" s="212"/>
-      <c r="D134" s="213"/>
-      <c r="F134" s="211" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G134" s="212"/>
-      <c r="H134" s="212"/>
-      <c r="I134" s="213"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="202" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B135" s="210"/>
-      <c r="C135" s="210"/>
-      <c r="D135" s="203"/>
-      <c r="F135" s="202" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G135" s="210"/>
-      <c r="H135" s="210"/>
-      <c r="I135" s="203"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="211" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B136" s="212"/>
-      <c r="C136" s="212"/>
-      <c r="D136" s="213"/>
-      <c r="F136" s="211" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G136" s="212"/>
-      <c r="H136" s="212"/>
-      <c r="I136" s="213"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="202" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B137" s="210"/>
-      <c r="C137" s="210"/>
-      <c r="D137" s="203"/>
-      <c r="F137" s="202" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G137" s="210"/>
-      <c r="H137" s="210"/>
-      <c r="I137" s="203"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B138" s="208"/>
-      <c r="C138" s="208"/>
-      <c r="D138" s="209"/>
-      <c r="F138" s="207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G138" s="208"/>
-      <c r="H138" s="208"/>
-      <c r="I138" s="209"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B139" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C139" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D139" s="162"/>
-      <c r="F139" s="167" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G139" s="168" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H139" s="168" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I139" s="162"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C140" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D140" s="162"/>
-      <c r="F140" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G140" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H140" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I140" s="162"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B141" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C141" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D141" s="162"/>
-      <c r="F141" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G141" s="75" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H141" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I141" s="162"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B142" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C142" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D142" s="162"/>
-      <c r="F142" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G142" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="H142" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I142" s="162"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B143" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C143" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D143" s="162"/>
-      <c r="F143" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G143" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H143" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I143" s="162"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B144" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C144" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D144" s="162"/>
-      <c r="F144" s="161" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G144" s="75" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H144" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I144" s="162"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B145" s="208"/>
-      <c r="C145" s="208"/>
-      <c r="D145" s="209"/>
-      <c r="F145" s="207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G145" s="208"/>
-      <c r="H145" s="208"/>
-      <c r="I145" s="209"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B146" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C146" s="75"/>
-      <c r="D146" s="162"/>
-      <c r="F146" s="167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G146" s="168" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H146" s="75"/>
-      <c r="I146" s="162"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B147" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C147" s="75"/>
-      <c r="D147" s="162"/>
-      <c r="F147" s="161" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G147" s="75" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H147" s="75"/>
-      <c r="I147" s="162"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="B148" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C148" s="75"/>
-      <c r="D148" s="162"/>
-      <c r="F148" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="G148" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="H148" s="75"/>
-      <c r="I148" s="162"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C149" s="75"/>
-      <c r="D149" s="162"/>
-      <c r="F149" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G149" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="H149" s="75"/>
-      <c r="I149" s="162"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B150" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C150" s="75"/>
-      <c r="D150" s="162"/>
-      <c r="F150" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H150" s="75"/>
-      <c r="I150" s="162"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B151" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C151" s="75"/>
-      <c r="D151" s="162"/>
-      <c r="F151" s="161" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G151" s="75" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H151" s="75"/>
-      <c r="I151" s="162"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="161" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B152" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C152" s="75"/>
-      <c r="D152" s="162"/>
-      <c r="F152" s="161" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G152" s="75" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H152" s="75"/>
-      <c r="I152" s="162"/>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="207" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B153" s="208"/>
-      <c r="C153" s="208"/>
-      <c r="D153" s="209"/>
-      <c r="F153" s="207" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G153" s="208"/>
-      <c r="H153" s="208"/>
-      <c r="I153" s="209"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B154" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C154" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D154" s="170" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F154" s="167" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G154" s="168" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H154" s="168" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I154" s="170" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="161" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B155" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C155" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D155" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F155" s="161" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G155" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H155" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I155" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="161" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B156" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C156" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D156" s="162" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F156" s="161" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G156" s="75" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H156" s="75" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I156" s="162" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B157" s="208"/>
-      <c r="C157" s="208"/>
-      <c r="D157" s="209"/>
-      <c r="F157" s="207" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G157" s="208"/>
-      <c r="H157" s="208"/>
-      <c r="I157" s="209"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="B158" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C158" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D158" s="170" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F158" s="167" t="s">
-        <v>908</v>
-      </c>
-      <c r="G158" s="168" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H158" s="168" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I158" s="170" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B159" s="75" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C159" s="75" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D159" s="162" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F159" s="161" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G159" s="75" t="s">
-        <v>1414</v>
-      </c>
-      <c r="H159" s="75" t="s">
-        <v>1415</v>
-      </c>
-      <c r="I159" s="162" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15" thickBot="1">
-      <c r="A160" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B160" s="169" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C160" s="169" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D160" s="166" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F160" s="165" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G160" s="169" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H160" s="169" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I160" s="166" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.6">
-      <c r="A165" s="215" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="30" customFormat="1">
-      <c r="A166" s="30" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B166" s="30" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.6">
-      <c r="A169" s="215" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="30" customFormat="1">
-      <c r="A170" s="30" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B170" s="30" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C170" s="30" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>373</v>
-      </c>
-      <c r="B171" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>166</v>
-      </c>
-      <c r="B172" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>170</v>
-      </c>
-      <c r="B173" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="15.6">
-      <c r="A177" s="215" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="30" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B178" s="30" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C178" s="30" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="30"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="15.6">
-      <c r="A182" s="215" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="30" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B183" s="30" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C183" s="30" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>1788</v>
-      </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="30"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C184" s="75" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D184" s="52" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C185" s="75" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D185" s="52" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C186" s="75" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D186" s="52" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C187" s="75" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D187" s="52" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C188" s="75" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D188" s="52" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C189" s="75" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D189" s="52" t="s">
+      <c r="D92" s="52" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C190" s="75" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D190" s="52" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C191" s="75" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D191" s="52" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C192" s="75" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D192" s="52" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C193" s="75" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D193" s="52" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C194" s="75" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D194" s="52" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C195" s="75" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D195" s="52" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C196" s="75" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D196" s="52" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C197" s="75" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D197" s="52" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C198" s="75" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D198" s="52" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C199" s="75" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D199" s="52" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C200" s="75" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D200" s="52" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C201" s="75" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D201" s="52" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C202" s="75" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D202" s="52" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C203" s="75" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D203" s="52" t="s">
-        <v>1303</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
+  <mergeCells count="26">
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -26503,11 +24382,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="200" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="B1" s="201"/>
       <c r="F1" s="200" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="G1" s="201"/>
     </row>
@@ -26523,13 +24402,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="161" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="B3" s="162" t="s">
         <v>743</v>
       </c>
       <c r="F3" s="161" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="G3" s="162" t="s">
         <v>743</v>
@@ -26537,16 +24416,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="161" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="B4" s="162" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="F4" s="161" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="G4" s="162" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -26589,11 +24468,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="202" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="B8" s="203"/>
       <c r="F8" s="202" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="G8" s="203"/>
     </row>
@@ -26602,48 +24481,48 @@
         <v>908</v>
       </c>
       <c r="B9" s="162" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="F9" s="161" t="s">
         <v>908</v>
       </c>
       <c r="G9" s="162" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="161" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="F10" s="161" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="G10" s="164" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="202" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="B11" s="203"/>
       <c r="F11" s="202" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="G11" s="203"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="161" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="B12" s="162" t="s">
         <v>166</v>
       </c>
       <c r="F12" s="161" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="G12" s="162" t="s">
         <v>166</v>
@@ -26651,13 +24530,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="161" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B13" s="162" t="s">
         <v>166</v>
       </c>
       <c r="F13" s="161" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G13" s="162" t="s">
         <v>166</v>
@@ -26665,13 +24544,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="161" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="B14" s="162" t="s">
         <v>170</v>
       </c>
       <c r="F14" s="161" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="G14" s="162" t="s">
         <v>170</v>
@@ -26679,13 +24558,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="165" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B15" s="166" t="s">
         <v>170</v>
       </c>
       <c r="F15" s="165" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G15" s="166" t="s">
         <v>170</v>
@@ -26694,7 +24573,7 @@
     <row r="17" spans="1:2" ht="15" thickBot="1"/>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="200" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="B18" s="201"/>
     </row>
@@ -26709,107 +24588,107 @@
         <v>908</v>
       </c>
       <c r="B20" s="162" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="161" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="B21" s="162" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="202" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="B22" s="203"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="161" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="B23" s="162" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="161" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B24" s="162" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="161" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="B25" s="162" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="161" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B26" s="162" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="202" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="B27" s="203"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="161" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B28" s="162" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="183" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B29" s="184" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="161" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="B30" s="162" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="161" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B31" s="162" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="161" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="B32" s="162" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" s="165" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B33" s="166" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -26819,11 +24698,11 @@
     <row r="35" spans="1:7" ht="15" thickBot="1"/>
     <row r="36" spans="1:7" ht="18">
       <c r="A36" s="200" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="B36" s="201"/>
       <c r="F36" s="200" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="G36" s="201"/>
     </row>
@@ -26842,46 +24721,46 @@
         <v>908</v>
       </c>
       <c r="B38" s="162" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="F38" s="161" t="s">
         <v>908</v>
       </c>
       <c r="G38" s="162" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="161" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="B39" s="162" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="F39" s="161" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="G39" s="162" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="202" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="B40" s="203"/>
       <c r="F40" s="202" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="G40" s="203"/>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1">
       <c r="A41" s="204" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="B41" s="205"/>
       <c r="F41" s="204" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="G41" s="205"/>
     </row>
@@ -27123,39 +25002,39 @@
         <v>908</v>
       </c>
       <c r="C1" s="188" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D1" s="188" t="s">
         <v>1282</v>
       </c>
       <c r="E1" s="188" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="F1" s="188" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="G1" s="188" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="H1" s="188" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I1" s="188" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J1" s="188" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K1" s="188" t="s">
         <v>1732</v>
       </c>
-      <c r="I1" s="188" t="s">
-        <v>1733</v>
-      </c>
-      <c r="J1" s="188" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K1" s="188" t="s">
-        <v>1745</v>
-      </c>
       <c r="L1" s="188" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="191" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B2" s="188" t="s">
         <v>121</v>
@@ -27164,7 +25043,7 @@
         <v>1281</v>
       </c>
       <c r="D2" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E2" s="188">
         <v>2100</v>
@@ -27173,10 +25052,10 @@
         <v>1213</v>
       </c>
       <c r="G2" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H2" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I2" s="188">
         <v>2500</v>
@@ -27189,7 +25068,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="192" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B3" s="188" t="s">
         <v>606</v>
@@ -27198,19 +25077,19 @@
         <v>1281</v>
       </c>
       <c r="D3" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E3" s="188">
         <v>1300</v>
       </c>
       <c r="F3" s="188" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="G3" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H3" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I3" s="188">
         <v>2500</v>
@@ -27222,21 +25101,21 @@
         <v>1261</v>
       </c>
       <c r="L3" s="188" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="191" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B4" s="188" t="s">
         <v>373</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="D4" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E4" s="188">
         <v>2101</v>
@@ -27245,10 +25124,10 @@
         <v>1219</v>
       </c>
       <c r="G4" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H4" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I4" s="188">
         <v>2500</v>
@@ -27263,16 +25142,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="192" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B5" s="188" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D5" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E5" s="188">
         <v>2110</v>
@@ -27281,10 +25160,10 @@
         <v>1232</v>
       </c>
       <c r="G5" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H5" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I5" s="188">
         <v>2500</v>
@@ -27299,16 +25178,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="191" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B6" s="188" t="s">
         <v>170</v>
       </c>
       <c r="C6" s="188" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D6" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E6" s="188">
         <v>2111</v>
@@ -27317,10 +25196,10 @@
         <v>1237</v>
       </c>
       <c r="G6" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H6" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I6" s="188">
         <v>2500</v>
@@ -27335,7 +25214,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="192" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B7" s="188" t="s">
         <v>1243</v>
@@ -27344,19 +25223,19 @@
         <v>1281</v>
       </c>
       <c r="D7" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E7" s="188">
         <v>2112</v>
       </c>
       <c r="F7" s="188" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="G7" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H7" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I7" s="188">
         <v>2500</v>
@@ -27371,7 +25250,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="191" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="B8" s="188" t="s">
         <v>1243</v>
@@ -27380,7 +25259,7 @@
         <v>1281</v>
       </c>
       <c r="D8" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E8" s="188">
         <v>2113</v>
@@ -27389,10 +25268,10 @@
         <v>1242</v>
       </c>
       <c r="G8" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H8" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I8" s="188">
         <v>2500</v>
@@ -27407,7 +25286,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="192" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B9" s="188" t="s">
         <v>589</v>
@@ -27416,19 +25295,19 @@
         <v>1281</v>
       </c>
       <c r="D9" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E9" s="188">
         <v>1000</v>
       </c>
       <c r="F9" s="188" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="G9" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H9" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I9" s="188">
         <v>2500</v>
@@ -27440,12 +25319,12 @@
         <v>1261</v>
       </c>
       <c r="L9" s="188" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="191" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B10" s="188" t="s">
         <v>595</v>
@@ -27454,19 +25333,19 @@
         <v>1281</v>
       </c>
       <c r="D10" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E10" s="188">
         <v>1100</v>
       </c>
       <c r="F10" s="188" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="G10" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H10" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I10" s="188">
         <v>2500</v>
@@ -27478,12 +25357,12 @@
         <v>1261</v>
       </c>
       <c r="L10" s="188" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="192" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B11" s="188" t="s">
         <v>600</v>
@@ -27492,19 +25371,19 @@
         <v>1281</v>
       </c>
       <c r="D11" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E11" s="188">
         <v>1200</v>
       </c>
       <c r="F11" s="188" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="G11" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H11" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I11" s="188">
         <v>2500</v>
@@ -27516,21 +25395,21 @@
         <v>1261</v>
       </c>
       <c r="L11" s="188" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="191" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B12" s="188" t="s">
         <v>1227</v>
       </c>
       <c r="C12" s="188" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="D12" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E12" s="188">
         <v>2106</v>
@@ -27539,10 +25418,10 @@
         <v>1226</v>
       </c>
       <c r="G12" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H12" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I12" s="188">
         <v>2500</v>
@@ -27551,22 +25430,22 @@
         <v>20000</v>
       </c>
       <c r="K12" s="188" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="L12" s="188"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="192" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="B13" s="188" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C13" s="188" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="D13" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E13" s="188">
         <v>2102</v>
@@ -27575,10 +25454,10 @@
         <v>1220</v>
       </c>
       <c r="G13" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H13" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I13" s="188">
         <v>2500</v>
@@ -27593,7 +25472,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="191" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="B14" s="188" t="s">
         <v>121</v>
@@ -27602,7 +25481,7 @@
         <v>1281</v>
       </c>
       <c r="D14" s="188" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E14" s="188">
         <v>2116</v>
@@ -27611,10 +25490,10 @@
         <v>1212</v>
       </c>
       <c r="G14" s="188" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H14" s="188" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="I14" s="188">
         <v>2500</v>
@@ -28694,17 +26573,17 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="75" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="75" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="408.9" customHeight="1">
       <c r="A4" s="214" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="B4" s="214"/>
       <c r="C4" s="214"/>
@@ -28945,17 +26824,17 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -28963,173 +26842,173 @@
         <v>1068</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O14" s="25" t="s">
         <v>1461</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="P14" s="25" t="s">
         <v>1462</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="Q14" s="25" t="s">
         <v>1463</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="R14" s="25" t="s">
         <v>1464</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="S14" s="25" t="s">
         <v>1465</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="T14" s="25" t="s">
         <v>1466</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="U14" s="25" t="s">
         <v>1467</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="V14" s="25" t="s">
         <v>1468</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="W14" s="25" t="s">
         <v>1469</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="X14" s="25" t="s">
         <v>1470</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="Y14" s="25" t="s">
         <v>1471</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="Z14" s="25" t="s">
         <v>1472</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="AA14" s="25" t="s">
         <v>1473</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>1474</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>1475</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>1476</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>1477</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>1478</v>
-      </c>
-      <c r="T14" s="25" t="s">
-        <v>1479</v>
-      </c>
-      <c r="U14" s="25" t="s">
-        <v>1480</v>
-      </c>
-      <c r="V14" s="25" t="s">
-        <v>1481</v>
-      </c>
-      <c r="W14" s="25" t="s">
-        <v>1482</v>
-      </c>
-      <c r="X14" s="25" t="s">
-        <v>1483</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>1484</v>
-      </c>
-      <c r="Z14" s="25" t="s">
-        <v>1485</v>
-      </c>
-      <c r="AA14" s="25" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="6" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="6" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -29159,7 +27038,7 @@
     </row>
     <row r="17" spans="1:27" ht="42" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -29190,7 +27069,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="6" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1243</v>
@@ -29223,7 +27102,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -29254,10 +27133,10 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="6" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -29287,7 +27166,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -29318,7 +27197,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="6" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>166</v>
@@ -29351,7 +27230,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -29382,7 +27261,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="6" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>373</v>
@@ -29415,7 +27294,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -29446,10 +27325,10 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="6" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -29479,7 +27358,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -29510,7 +27389,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="6" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>1225</v>
@@ -29543,7 +27422,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -29574,7 +27453,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="6" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -29605,7 +27484,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -29636,7 +27515,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="6" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -29667,7 +27546,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -29698,7 +27577,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="6" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1243</v>
@@ -29731,7 +27610,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -29762,10 +27641,10 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="6" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -29795,7 +27674,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -29826,7 +27705,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="6" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>170</v>
@@ -29859,7 +27738,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -29890,7 +27769,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="6" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>373</v>
@@ -29923,7 +27802,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -29954,10 +27833,10 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="6" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -29987,7 +27866,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -30018,7 +27897,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="6" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>1225</v>
@@ -30051,7 +27930,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -30082,7 +27961,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="6" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -30113,7 +27992,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -30144,7 +28023,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="6" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -30175,7 +28054,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="6" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -30235,10 +28114,10 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="6" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -30268,7 +28147,7 @@
     </row>
     <row r="52" spans="1:27" ht="40.5" customHeight="1">
       <c r="A52" s="39" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -30302,7 +28181,7 @@
         <v>1180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -30364,82 +28243,82 @@
         <v>1070</v>
       </c>
       <c r="B55" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F55" s="13" t="s">
+      <c r="T55" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="W55" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>1516</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>1377</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>1419</v>
-      </c>
-      <c r="M55" s="13" t="s">
-        <v>1517</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>1380</v>
-      </c>
       <c r="X55" s="1" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -30447,70 +28326,70 @@
         <v>1164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -30518,7 +28397,7 @@
         <v>1072</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
@@ -30551,7 +28430,7 @@
         <v>1073</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -30584,7 +28463,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -30617,7 +28496,7 @@
         <v>1074</v>
       </c>
       <c r="B60" s="84" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C60" s="84"/>
       <c r="D60" s="84"/>
@@ -30801,82 +28680,82 @@
         <v>1099</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="P66" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="Q66" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="R66" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="S66" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="T66" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="U66" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="V66" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="W66" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="X66" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="Y66" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="Z66" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="N66" s="13" t="s">
+      <c r="AA66" s="1" t="s">
         <v>1534</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -31003,7 +28882,7 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="6" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="B71" s="84"/>
       <c r="C71" s="84"/>
@@ -31034,7 +28913,7 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="6" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="B72" s="84"/>
       <c r="C72" s="84"/>
@@ -31065,7 +28944,7 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="6" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="B73" s="84"/>
       <c r="C73" s="84"/>
@@ -31128,71 +29007,71 @@
         <v>1145</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="1" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="6" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>374</v>
@@ -31275,7 +29154,7 @@
     </row>
     <row r="77" spans="1:27" ht="63" customHeight="1">
       <c r="A77" s="42" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -31306,7 +29185,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="121" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>59</v>
@@ -31318,73 +29197,73 @@
         <v>98</v>
       </c>
       <c r="E79" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O79" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="R79" s="13" t="s">
         <v>1572</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="S79" s="13" t="s">
         <v>1573</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="T79" s="13" t="s">
         <v>1574</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="U79" s="13" t="s">
         <v>1575</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="V79" s="13" t="s">
         <v>1576</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="W79" s="13" t="s">
         <v>1577</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="X79" s="13" t="s">
         <v>1578</v>
       </c>
-      <c r="L79" s="13" t="s">
+      <c r="Y79" s="13" t="s">
         <v>1579</v>
       </c>
-      <c r="M79" s="13" t="s">
+      <c r="Z79" s="13" t="s">
         <v>1580</v>
       </c>
-      <c r="N79" s="13" t="s">
+      <c r="AA79" s="11" t="s">
         <v>1581</v>
-      </c>
-      <c r="O79" s="13" t="s">
-        <v>1582</v>
-      </c>
-      <c r="P79" s="13" t="s">
-        <v>1583</v>
-      </c>
-      <c r="Q79" s="13" t="s">
-        <v>1584</v>
-      </c>
-      <c r="R79" s="13" t="s">
-        <v>1585</v>
-      </c>
-      <c r="S79" s="13" t="s">
-        <v>1586</v>
-      </c>
-      <c r="T79" s="13" t="s">
-        <v>1587</v>
-      </c>
-      <c r="U79" s="13" t="s">
-        <v>1588</v>
-      </c>
-      <c r="V79" s="13" t="s">
-        <v>1589</v>
-      </c>
-      <c r="W79" s="13" t="s">
-        <v>1590</v>
-      </c>
-      <c r="X79" s="13" t="s">
-        <v>1591</v>
-      </c>
-      <c r="Y79" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="Z79" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="AA79" s="11" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -31418,10 +29297,10 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="6" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -31542,10 +29421,10 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="6" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -31676,33 +29555,33 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -31710,33 +29589,33 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>1613</v>
+        <v>1600</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
@@ -31744,7 +29623,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>364</v>
@@ -31756,7 +29635,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
@@ -31764,7 +29643,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
@@ -31772,30 +29651,30 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -31812,7 +29691,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="7"/>
@@ -31820,7 +29699,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="7"/>
@@ -31828,7 +29707,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="7"/>
@@ -31842,24 +29721,24 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="B23" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="C23" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
       <c r="D23" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="E23" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>1232</v>
@@ -31893,41 +29772,41 @@
     </row>
     <row r="26" spans="1:5" ht="57.6">
       <c r="A26" s="22" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="57.6">
       <c r="A27" s="22" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="15" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -31936,41 +29815,41 @@
     </row>
     <row r="29" spans="1:5" ht="57.6">
       <c r="A29" s="22" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6">
       <c r="A30" s="22" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -31979,70 +29858,70 @@
     </row>
     <row r="32" spans="1:5" ht="115.2">
       <c r="A32" s="22" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="57.6">
       <c r="A33" s="22" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8">
       <c r="A34" s="23" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="D34" s="127" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="E34" s="127" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8">
       <c r="A35" s="22" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -32054,7 +29933,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>57</v>
@@ -32065,32 +29944,32 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>57</v>
@@ -32098,25 +29977,25 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="B46" s="9"/>
     </row>
@@ -32171,18 +30050,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
       <c r="E1" s="100" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" t="str">
@@ -32192,7 +30071,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E20" si="0">"initiatorgrp --create "&amp;$A3</f>
@@ -32201,7 +30080,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -32332,27 +30211,27 @@
         <v>1070</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="101" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="B2" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="E2" t="str">
         <f>"initiatorgrp --add_initiators "&amp;$D2&amp;" --label "&amp;$A2&amp;" --initiator_name "&amp;$B2</f>
@@ -32799,445 +30678,445 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="B2" s="61">
         <v>4096</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="B3" s="61">
         <v>4096</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="B4" s="61">
         <v>4096</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="B5" s="61">
         <v>8192</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="B6" s="61">
         <v>32768</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="B7" s="61">
         <v>16384</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="B8" s="61">
         <v>4096</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="B9" s="61">
         <v>4096</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="B10" s="61">
         <v>4096</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="B11" s="61">
         <v>4096</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="B12" s="61">
         <v>8192</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
       <c r="B13" s="61">
         <v>4096</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
       <c r="B14" s="61">
         <v>8192</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
       <c r="B15" s="61">
         <v>8192</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
       <c r="B16" s="61">
         <v>8192</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="B17" s="61">
         <v>4096</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="B18" s="61">
         <v>4096</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="B19" s="61">
         <v>4096</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="B20" s="61">
         <v>4096</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="B21" s="61">
         <v>4096</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="B22" s="61">
         <v>4096</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="B23" s="61">
         <v>4096</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="B24" s="61">
         <v>4096</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="B25" s="61">
         <v>4096</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="B26" s="61">
         <v>4096</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -33341,23 +31220,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
       <c r="E1" s="100" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="B2" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" t="str">
@@ -33367,7 +31246,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E20" si="0">"folder --create "&amp;$A3&amp;" --pool "&amp;B3</f>
@@ -33376,7 +31255,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -33385,7 +31264,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -33394,7 +31273,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -33403,7 +31282,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -33412,7 +31291,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -33421,7 +31300,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -33430,7 +31309,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -33439,7 +31318,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -33448,7 +31327,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -33457,7 +31336,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -33466,7 +31345,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -33475,7 +31354,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -33484,7 +31363,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -33493,7 +31372,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -33502,7 +31381,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -33511,7 +31390,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -33520,7 +31399,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -33566,43 +31445,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="100" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="F1" s="100" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="H1" s="101"/>
       <c r="J1" s="100" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="K1" s="100" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="C2">
         <v>10240</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="F2" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="J2" t="str">
         <f>"vol --create "&amp;A2&amp;" --size "&amp;C2&amp;" --perfpolicy """&amp;B2&amp;""""&amp;" --multi_initiator "&amp;F2</f>
@@ -33613,7 +31492,7 @@
         <v>vol --addacl foo --initiatorgrp ESXi</v>
       </c>
       <c r="M2" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -33628,7 +31507,7 @@
         <v xml:space="preserve">vol --addacl  --initiatorgrp </v>
       </c>
       <c r="M3" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="4" spans="1:13">

--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22223"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3606\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39a9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B5FB8C2-D187-4E8D-9806-1AD962A403AB}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5D828059-479F-45F9-8892-947574E64309}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="1778">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -4133,9 +4133,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>In Keepass</t>
-  </si>
-  <si>
     <t>Preferences</t>
   </si>
   <si>
@@ -4566,12 +4563,6 @@
   </si>
   <si>
     <t>Storage volumes</t>
-  </si>
-  <si>
-    <t>A-[EI|PROD|PRODTEST|TEST]-[0001|0002]</t>
-  </si>
-  <si>
-    <t>B-[EI|PROD|PRODTEST|TEST]-[0001|0002]</t>
   </si>
   <si>
     <t>Volume template</t>
@@ -5741,6 +5732,12 @@
   </si>
   <si>
     <t>Multi-NIC vMotion</t>
+  </si>
+  <si>
+    <t>A-EI-0001,A-EI-0002,A-PROD-0001,A-PROD-0002,A-PRODTEST-0001,A-PTODTEST-0002,A-TEST-0001,A-TEST-0002</t>
+  </si>
+  <si>
+    <t>B-EI-0001,B-EI-0002,B-PROD-0001,B-PROD-0002,B-PRODTEST-0001,B-PTODTEST-0002,B-TEST-0001,B-TEST-0002</t>
   </si>
 </sst>
 </file>
@@ -6176,7 +6173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -6504,6 +6501,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6513,7 +6519,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6912,7 +6918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyAlignment="1">
@@ -6925,6 +6930,21 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6943,13 +6963,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6961,13 +6981,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6979,14 +6999,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6998,415 +7028,6 @@
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
   <dxfs count="228">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7427,6 +7048,415 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -11507,13 +11537,13 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle320" displayName="Tabelle320" ref="A6:D21" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle320" displayName="Tabelle320" ref="A6:D21" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A6:D21" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="StoreServe Storage System" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="System 1" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="System 2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Bemerkungen" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="StoreServe Storage System" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="System 1" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="System 2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Bemerkungen" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11544,34 +11574,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabelle28" displayName="Tabelle28" ref="A23:E36" totalsRowShown="0">
   <autoFilter ref="A23:E36" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Subnet Label" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Nimble A iSCSI-A" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Nimble A iSCSI-B" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nimble B iSCSI-A" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{95349553-7808-4F6B-BD41-4FA004C2BE2C}" name="Nimble B iSCSI-B" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Subnet Label" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Nimble A iSCSI-A" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Nimble A iSCSI-B" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nimble B iSCSI-A" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{95349553-7808-4F6B-BD41-4FA004C2BE2C}" name="Nimble B iSCSI-B" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle29" displayName="Tabelle29" ref="A37:C40" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle29" displayName="Tabelle29" ref="A37:C40" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A37:C40" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Mail Notification" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Wert" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0722E1BD-F75E-41A3-87F7-D2EF06094037}" name="Spalte1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Mail Notification" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Wert" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0722E1BD-F75E-41A3-87F7-D2EF06094037}" name="Spalte1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabelle30" displayName="Tabelle30" ref="A42:B46" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabelle30" displayName="Tabelle30" ref="A42:B46" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A42:B46" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Call Home" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Wert" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Call Home" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Wert" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12011,16 +12041,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="C1" s="195" t="s">
+      <c r="C1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
@@ -21128,7 +21158,7 @@
       <c r="F6" t="s">
         <v>1087</v>
       </c>
-      <c r="H6" s="200" t="s">
+      <c r="H6" s="204" t="s">
         <v>1088</v>
       </c>
       <c r="I6" s="54"/>
@@ -21154,7 +21184,7 @@
       <c r="F7" t="s">
         <v>1093</v>
       </c>
-      <c r="H7" s="200"/>
+      <c r="H7" s="204"/>
       <c r="I7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -21178,7 +21208,7 @@
       <c r="F8" t="s">
         <v>1098</v>
       </c>
-      <c r="H8" s="200"/>
+      <c r="H8" s="204"/>
       <c r="I8" s="53"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
@@ -21202,7 +21232,7 @@
       <c r="F9" t="s">
         <v>364</v>
       </c>
-      <c r="H9" s="200"/>
+      <c r="H9" s="204"/>
       <c r="I9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
@@ -21226,7 +21256,7 @@
       <c r="F10" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="200"/>
+      <c r="H10" s="204"/>
       <c r="I10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
@@ -21235,7 +21265,7 @@
       <c r="A11" t="s">
         <v>1074</v>
       </c>
-      <c r="H11" s="200"/>
+      <c r="H11" s="204"/>
       <c r="I11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -21244,7 +21274,7 @@
       <c r="A12" t="s">
         <v>1075</v>
       </c>
-      <c r="H12" s="200"/>
+      <c r="H12" s="204"/>
       <c r="I12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
@@ -21253,52 +21283,52 @@
       <c r="A13" t="s">
         <v>1076</v>
       </c>
-      <c r="H13" s="200"/>
+      <c r="H13" s="204"/>
       <c r="I13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" ht="15">
-      <c r="H14" s="200"/>
+      <c r="H14" s="204"/>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" t="s">
         <v>1077</v>
       </c>
-      <c r="H15" s="200"/>
+      <c r="H15" s="204"/>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" t="s">
         <v>1072</v>
       </c>
-      <c r="H16" s="200"/>
+      <c r="H16" s="204"/>
     </row>
     <row r="17" spans="1:15" ht="15">
       <c r="A17" t="s">
         <v>1073</v>
       </c>
-      <c r="H17" s="200"/>
+      <c r="H17" s="204"/>
     </row>
     <row r="18" spans="1:15" ht="15">
       <c r="A18" t="s">
         <v>1074</v>
       </c>
-      <c r="H18" s="200"/>
+      <c r="H18" s="204"/>
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="A19" t="s">
         <v>1075</v>
       </c>
-      <c r="H19" s="200"/>
+      <c r="H19" s="204"/>
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" t="s">
         <v>1076</v>
       </c>
-      <c r="H20" s="200"/>
+      <c r="H20" s="204"/>
     </row>
     <row r="21" spans="1:15" ht="15">
-      <c r="H21" s="200"/>
+      <c r="H21" s="204"/>
     </row>
     <row r="22" spans="1:15" ht="15">
       <c r="A22" t="s">
@@ -21319,7 +21349,7 @@
       <c r="F22" t="s">
         <v>1104</v>
       </c>
-      <c r="H22" s="200"/>
+      <c r="H22" s="204"/>
     </row>
     <row r="23" spans="1:15" ht="15">
       <c r="A23" t="s">
@@ -21340,7 +21370,7 @@
       <c r="F23" t="s">
         <v>1110</v>
       </c>
-      <c r="H23" s="200"/>
+      <c r="H23" s="204"/>
     </row>
     <row r="24" spans="1:15" ht="15">
       <c r="A24" t="s">
@@ -21361,7 +21391,7 @@
       <c r="F24" t="s">
         <v>364</v>
       </c>
-      <c r="H24" s="200"/>
+      <c r="H24" s="204"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
@@ -21387,7 +21417,7 @@
       <c r="F25" t="s">
         <v>1113</v>
       </c>
-      <c r="H25" s="200"/>
+      <c r="H25" s="204"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
@@ -21395,7 +21425,7 @@
       <c r="O25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="15">
-      <c r="H26" s="200"/>
+      <c r="H26" s="204"/>
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
@@ -21406,7 +21436,7 @@
       <c r="A27" t="s">
         <v>1114</v>
       </c>
-      <c r="H27" s="200"/>
+      <c r="H27" s="204"/>
       <c r="K27" s="54"/>
       <c r="L27" s="54"/>
       <c r="M27" s="52"/>
@@ -21417,7 +21447,7 @@
       <c r="A28" t="s">
         <v>1111</v>
       </c>
-      <c r="H28" s="200"/>
+      <c r="H28" s="204"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="52"/>
@@ -21428,7 +21458,7 @@
       <c r="A29" t="s">
         <v>1112</v>
       </c>
-      <c r="H29" s="200"/>
+      <c r="H29" s="204"/>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="52"/>
@@ -21436,7 +21466,7 @@
       <c r="O29" s="52"/>
     </row>
     <row r="30" spans="1:15" ht="15">
-      <c r="H30" s="200"/>
+      <c r="H30" s="204"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="52"/>
@@ -21444,7 +21474,7 @@
       <c r="O30" s="52"/>
     </row>
     <row r="31" spans="1:15" ht="15">
-      <c r="H31" s="200"/>
+      <c r="H31" s="204"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="52"/>
@@ -21470,7 +21500,7 @@
       <c r="F32" t="s">
         <v>1118</v>
       </c>
-      <c r="H32" s="200"/>
+      <c r="H32" s="204"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="52"/>
@@ -21496,7 +21526,7 @@
       <c r="F33" t="s">
         <v>1124</v>
       </c>
-      <c r="H33" s="200"/>
+      <c r="H33" s="204"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="52"/>
@@ -21507,7 +21537,7 @@
       <c r="A34" t="s">
         <v>1125</v>
       </c>
-      <c r="H34" s="200"/>
+      <c r="H34" s="204"/>
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="52"/>
@@ -21533,7 +21563,7 @@
       <c r="F35" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="200"/>
+      <c r="H35" s="204"/>
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="52"/>
@@ -21559,7 +21589,7 @@
       <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="200"/>
+      <c r="H36" s="204"/>
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="52"/>
@@ -21567,7 +21597,7 @@
       <c r="O36" s="52"/>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="H37" s="200"/>
+      <c r="H37" s="204"/>
       <c r="K37" s="52"/>
       <c r="L37" s="53"/>
       <c r="M37" s="52"/>
@@ -21578,7 +21608,7 @@
       <c r="A38" t="s">
         <v>1126</v>
       </c>
-      <c r="H38" s="200"/>
+      <c r="H38" s="204"/>
       <c r="K38" s="53"/>
       <c r="L38" s="52"/>
       <c r="M38" s="52"/>
@@ -21589,7 +21619,7 @@
       <c r="A39" t="s">
         <v>1125</v>
       </c>
-      <c r="H39" s="200"/>
+      <c r="H39" s="204"/>
       <c r="K39" s="53"/>
       <c r="L39" s="52"/>
       <c r="M39" s="52"/>
@@ -21597,7 +21627,7 @@
       <c r="O39" s="52"/>
     </row>
     <row r="40" spans="1:15" ht="15">
-      <c r="H40" s="200"/>
+      <c r="H40" s="204"/>
       <c r="K40" s="53"/>
       <c r="L40" s="52"/>
       <c r="M40" s="52"/>
@@ -21608,7 +21638,7 @@
       <c r="A41" t="s">
         <v>1073</v>
       </c>
-      <c r="H41" s="200"/>
+      <c r="H41" s="204"/>
       <c r="K41" s="53"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
@@ -21616,7 +21646,7 @@
       <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:15" ht="15">
-      <c r="H42" s="200"/>
+      <c r="H42" s="204"/>
       <c r="K42" s="53"/>
       <c r="L42" s="52"/>
       <c r="M42" s="52"/>
@@ -21624,7 +21654,7 @@
       <c r="O42" s="52"/>
     </row>
     <row r="43" spans="1:15" ht="15">
-      <c r="H43" s="200"/>
+      <c r="H43" s="204"/>
       <c r="K43" s="53"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
@@ -21650,7 +21680,7 @@
       <c r="F44" t="s">
         <v>1132</v>
       </c>
-      <c r="H44" s="200"/>
+      <c r="H44" s="204"/>
       <c r="K44" s="53"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
@@ -22254,7 +22284,7 @@
         <v>1161</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -22262,22 +22292,22 @@
         <v>1068</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>1736</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="F8" s="25" t="s">
         <v>1737</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="G8" s="25" t="s">
         <v>1738</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -22487,7 +22517,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="6" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>1204</v>
@@ -22502,7 +22532,7 @@
     </row>
     <row r="23" spans="1:7" ht="15">
       <c r="A23" s="6" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1205</v>
@@ -22529,12 +22559,12 @@
         <v>1207</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -22556,19 +22586,19 @@
         <v>1209</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>1209</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>1747</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
@@ -22579,19 +22609,19 @@
         <v>1211</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>1211</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
@@ -22605,60 +22635,60 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15">
       <c r="A31" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="15">
       <c r="A32" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="15">
       <c r="A33" s="1" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -22682,13 +22712,13 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="189"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -22710,445 +22740,445 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="188" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="188" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="188"/>
-    <col min="4" max="4" width="12.42578125" style="188" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="188" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="188" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="188" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="188" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="188" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="187" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="187"/>
+    <col min="4" max="4" width="12.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="187" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="187" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="187" t="s">
         <v>908</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="187" t="s">
         <v>1282</v>
       </c>
-      <c r="D1" s="188" t="s">
+      <c r="D1" s="187" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E1" s="187" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F1" s="187" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G1" s="187" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H1" s="187" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I1" s="187" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J1" s="187" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K1" s="187" t="s">
+        <v>1703</v>
+      </c>
+      <c r="L1" s="187" t="s">
         <v>1704</v>
       </c>
-      <c r="E1" s="188" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="187" t="s">
         <v>1705</v>
       </c>
-      <c r="F1" s="188" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G1" s="188" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H1" s="188" t="s">
-        <v>1728</v>
-      </c>
-      <c r="I1" s="188" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J1" s="188" t="s">
-        <v>1730</v>
-      </c>
-      <c r="K1" s="188" t="s">
+      <c r="B2" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2" s="187" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E2" s="187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="187" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="187" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="187" t="s">
+        <v>774</v>
+      </c>
+      <c r="I2" s="187" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B3" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="187" t="s">
         <v>1706</v>
       </c>
-      <c r="L1" s="188" t="s">
+      <c r="K3" s="187" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L3" s="187" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="187" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="188" t="s">
+      <c r="B4" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D4" s="187" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E4" s="187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="187" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="187" t="s">
+        <v>774</v>
+      </c>
+      <c r="I4" s="187" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B5" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K5" s="187" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L5" s="187" t="s">
         <v>1708</v>
       </c>
-      <c r="B2" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="188" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="187" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B6" s="187" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="187" t="s">
         <v>1072</v>
       </c>
-      <c r="D2" s="188" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E2" s="188" t="s">
+      <c r="D6" s="187" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E6" s="187" t="s">
         <v>364</v>
       </c>
-      <c r="F2" s="188" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" s="188" t="s">
+      <c r="F6" s="187" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="188" t="s">
+      <c r="H6" s="187" t="s">
         <v>774</v>
       </c>
-      <c r="I2" s="188" t="s">
+      <c r="I6" s="187" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B3" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="188" t="s">
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="187" t="s">
         <v>1709</v>
       </c>
-      <c r="K3" s="188" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L3" s="188" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="188" t="s">
+      <c r="B7" s="187" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C7" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D7" s="187" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E7" s="187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B8" s="187" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C8" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K8" s="187" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L8" s="187" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B9" s="187" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C9" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K9" s="187" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L9" s="187" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="187" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B10" s="187" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C10" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D10" s="187" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E10" s="187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B11" s="187" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K11" s="187" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L11" s="187" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B12" s="187" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C12" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K12" s="187" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L12" s="187" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="187" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B13" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D13" s="187" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E13" s="187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B14" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K14" s="187" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L14" s="187" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B15" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K15" s="187" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L15" s="187" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="187" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B16" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D16" s="187" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E16" s="187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B17" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K17" s="187" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L17" s="187" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B18" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K18" s="187" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L18" s="187" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B19" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D19" s="187" t="s">
         <v>1710</v>
       </c>
-      <c r="B4" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="188" t="s">
+      <c r="E19" s="187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="187" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B20" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C20" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K20" s="187" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L20" s="187" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
+      <c r="A21" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B21" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C21" s="187" t="s">
         <v>1072</v>
       </c>
-      <c r="D4" s="188" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E4" s="188" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" s="188" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="188" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="188" t="s">
-        <v>774</v>
-      </c>
-      <c r="I4" s="188" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B5" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K5" s="188" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L5" s="188" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="188" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B6" s="188" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D6" s="188" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E6" s="188" t="s">
-        <v>364</v>
-      </c>
-      <c r="F6" s="188" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="188" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="188" t="s">
-        <v>774</v>
-      </c>
-      <c r="I6" s="188" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="188" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B7" s="188" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C7" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D7" s="188" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E7" s="188" t="s">
+      <c r="D21" s="187" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E21" s="187" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B8" s="188" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C8" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K8" s="188" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L8" s="188" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B9" s="188" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C9" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K9" s="188" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L9" s="188" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="188" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B10" s="188" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C10" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D10" s="188" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E10" s="188" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B11" s="188" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C11" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K11" s="188" t="s">
-        <v>1228</v>
-      </c>
-      <c r="L11" s="188" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B12" s="188" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C12" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K12" s="188" t="s">
-        <v>1229</v>
-      </c>
-      <c r="L12" s="188" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="188" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B13" s="188" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D13" s="188" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E13" s="188" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B14" s="188" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K14" s="188" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L14" s="188" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B15" s="188" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K15" s="188" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L15" s="188" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="188" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B16" s="188" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D16" s="188" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E16" s="188" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B17" s="188" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K17" s="188" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L17" s="188" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B18" s="188" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K18" s="188" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L18" s="188" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B19" s="188" t="s">
+    <row r="22" spans="1:12" ht="15">
+      <c r="A22" s="187" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B22" s="187" t="s">
         <v>1243</v>
       </c>
-      <c r="C19" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D19" s="188" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E19" s="188" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="188" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B20" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C20" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K20" s="188" t="s">
-        <v>1714</v>
-      </c>
-      <c r="L20" s="188" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
-      <c r="A21" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B21" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C21" s="188" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D21" s="188" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E21" s="188" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15">
-      <c r="A22" s="188" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B22" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C22" s="188" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K22" s="188" t="s">
+      <c r="C22" s="187" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K22" s="187" t="s">
         <v>1244</v>
       </c>
-      <c r="L22" s="188" t="s">
+      <c r="L22" s="187" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -23185,16 +23215,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="208" t="s">
         <v>1280</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="210"/>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="205" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="207"/>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="161" t="s">
@@ -23221,10 +23251,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="205" t="s">
         <v>1287</v>
       </c>
-      <c r="B6" s="209"/>
+      <c r="B6" s="207"/>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="161" t="s">
@@ -23239,101 +23269,101 @@
         <v>1289</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="207" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B9" s="209"/>
+      <c r="A9" s="205" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B9" s="207"/>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="161" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B10" s="162" t="s">
         <v>1292</v>
-      </c>
-      <c r="B10" s="162" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="161" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B11" s="164" t="s">
         <v>1294</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="161" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B12" s="163" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C12" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="161" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="B13" s="162" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="161" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B14" s="162" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="165" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B15" s="166" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:9" ht="18.75">
-      <c r="A20" s="204" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="F20" s="204" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
+      <c r="A20" s="208" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="210"/>
+      <c r="F20" s="208" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="210"/>
     </row>
     <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="205" t="s">
         <v>1281</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="F21" s="207" t="s">
+      <c r="B21" s="206"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="F21" s="205" t="s">
         <v>1281</v>
       </c>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="209"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="207"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="161" t="s">
         <v>908</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="162"/>
@@ -23341,168 +23371,168 @@
         <v>908</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H22" s="75"/>
       <c r="I22" s="162"/>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="161" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B23" s="75" t="s">
         <v>1303</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>1304</v>
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="162"/>
       <c r="F23" s="161" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G23" s="75" t="s">
         <v>1303</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>1304</v>
       </c>
       <c r="H23" s="75"/>
       <c r="I23" s="162"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="161" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B24" s="75" t="s">
         <v>1305</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>1306</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="162"/>
       <c r="F24" s="161" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G24" s="75" t="s">
         <v>1305</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>1306</v>
       </c>
       <c r="H24" s="75"/>
       <c r="I24" s="162"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="161" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="162"/>
       <c r="F25" s="161" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H25" s="75"/>
       <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="205" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B26" s="206"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="207"/>
+      <c r="F26" s="205" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" s="214" t="s">
         <v>1308</v>
       </c>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="209"/>
-      <c r="F26" s="207" t="s">
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="216"/>
+      <c r="F27" s="214" t="s">
         <v>1308</v>
       </c>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="209"/>
-    </row>
-    <row r="27" spans="1:9" ht="15">
-      <c r="A27" s="210" t="s">
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="216"/>
+    </row>
+    <row r="28" spans="1:9" ht="15">
+      <c r="A28" s="205" t="s">
         <v>1309</v>
       </c>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="212"/>
-      <c r="F27" s="210" t="s">
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
+      <c r="F28" s="205" t="s">
         <v>1309</v>
       </c>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="212"/>
-    </row>
-    <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="207" t="s">
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="207"/>
+    </row>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" s="214" t="s">
         <v>1310</v>
       </c>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="F28" s="207" t="s">
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+      <c r="F29" s="214" t="s">
         <v>1310</v>
       </c>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-    </row>
-    <row r="29" spans="1:9" ht="15">
-      <c r="A29" s="210" t="s">
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="216"/>
+    </row>
+    <row r="30" spans="1:9" ht="15">
+      <c r="A30" s="205" t="s">
         <v>1311</v>
       </c>
-      <c r="B29" s="211"/>
-      <c r="C29" s="211"/>
-      <c r="D29" s="212"/>
-      <c r="F29" s="210" t="s">
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="F30" s="205" t="s">
         <v>1311</v>
       </c>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="212"/>
-    </row>
-    <row r="30" spans="1:9" ht="15">
-      <c r="A30" s="207" t="s">
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="207"/>
+    </row>
+    <row r="31" spans="1:9" ht="15">
+      <c r="A31" s="211" t="s">
         <v>1312</v>
       </c>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
-      <c r="F30" s="207" t="s">
+      <c r="B31" s="212"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="213"/>
+      <c r="F31" s="211" t="s">
         <v>1312</v>
       </c>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
-    </row>
-    <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="201" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="F31" s="201" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="203"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="213"/>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="167" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B32" s="168" t="s">
         <v>1314</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="C32" s="168" t="s">
         <v>1315</v>
-      </c>
-      <c r="C32" s="168" t="s">
-        <v>1316</v>
       </c>
       <c r="D32" s="162"/>
       <c r="F32" s="167" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G32" s="168" t="s">
         <v>1314</v>
       </c>
-      <c r="G32" s="168" t="s">
+      <c r="H32" s="168" t="s">
         <v>1315</v>
-      </c>
-      <c r="H32" s="168" t="s">
-        <v>1316</v>
       </c>
       <c r="I32" s="162"/>
     </row>
@@ -23511,20 +23541,20 @@
         <v>166</v>
       </c>
       <c r="B33" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C33" s="75" t="s">
         <v>1317</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>1318</v>
       </c>
       <c r="D33" s="162"/>
       <c r="F33" s="161" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H33" s="75" t="s">
         <v>1317</v>
-      </c>
-      <c r="H33" s="75" t="s">
-        <v>1318</v>
       </c>
       <c r="I33" s="162"/>
     </row>
@@ -23533,20 +23563,20 @@
         <v>170</v>
       </c>
       <c r="B34" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C34" s="75" t="s">
         <v>1317</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>1318</v>
       </c>
       <c r="D34" s="162"/>
       <c r="F34" s="161" t="s">
         <v>170</v>
       </c>
       <c r="G34" s="75" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H34" s="75" t="s">
         <v>1317</v>
-      </c>
-      <c r="H34" s="75" t="s">
-        <v>1318</v>
       </c>
       <c r="I34" s="162"/>
     </row>
@@ -23558,7 +23588,7 @@
         <v>148</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D35" s="162"/>
       <c r="F35" s="161" t="s">
@@ -23568,100 +23598,100 @@
         <v>148</v>
       </c>
       <c r="H35" s="75" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I35" s="162"/>
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="161" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B36" s="75" t="s">
         <v>1319</v>
       </c>
-      <c r="B36" s="75" t="s">
-        <v>1320</v>
-      </c>
       <c r="C36" s="75" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D36" s="162"/>
       <c r="F36" s="161" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G36" s="75" t="s">
         <v>1319</v>
       </c>
-      <c r="G36" s="75" t="s">
-        <v>1320</v>
-      </c>
       <c r="H36" s="75" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I36" s="162"/>
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="161" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B37" s="75" t="s">
         <v>1319</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>1320</v>
-      </c>
       <c r="C37" s="75" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D37" s="162"/>
       <c r="F37" s="161" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G37" s="75" t="s">
         <v>1319</v>
       </c>
-      <c r="G37" s="75" t="s">
+      <c r="H37" s="75" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I37" s="162"/>
+    </row>
+    <row r="38" spans="1:9" ht="15">
+      <c r="A38" s="211" t="s">
         <v>1320</v>
       </c>
-      <c r="H37" s="75" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I37" s="162"/>
-    </row>
-    <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="201" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="203"/>
-      <c r="F38" s="201" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="203"/>
+      <c r="B38" s="212"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="213"/>
+      <c r="F38" s="211" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="213"/>
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="167" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B39" s="168" t="s">
         <v>1322</v>
-      </c>
-      <c r="B39" s="168" t="s">
-        <v>1323</v>
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="162"/>
       <c r="F39" s="167" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G39" s="168" t="s">
         <v>1322</v>
-      </c>
-      <c r="G39" s="168" t="s">
-        <v>1323</v>
       </c>
       <c r="H39" s="75"/>
       <c r="I39" s="162"/>
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="161" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B40" s="75" t="s">
         <v>1324</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>1325</v>
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="162"/>
       <c r="F40" s="161" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G40" s="75" t="s">
         <v>1324</v>
-      </c>
-      <c r="G40" s="75" t="s">
-        <v>1325</v>
       </c>
       <c r="H40" s="75"/>
       <c r="I40" s="162"/>
@@ -23740,137 +23770,137 @@
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="161" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C45" s="75"/>
       <c r="D45" s="162"/>
       <c r="F45" s="161" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G45" s="75" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H45" s="75"/>
       <c r="I45" s="162"/>
     </row>
     <row r="46" spans="1:9" ht="15">
-      <c r="A46" s="201" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="203"/>
-      <c r="F46" s="201" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="203"/>
+      <c r="A46" s="211" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B46" s="212"/>
+      <c r="C46" s="212"/>
+      <c r="D46" s="213"/>
+      <c r="F46" s="211" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="213"/>
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="167" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B47" s="168" t="s">
         <v>1328</v>
       </c>
-      <c r="B47" s="168" t="s">
+      <c r="C47" s="168" t="s">
         <v>1329</v>
       </c>
-      <c r="C47" s="168" t="s">
+      <c r="D47" s="170" t="s">
         <v>1330</v>
       </c>
-      <c r="D47" s="170" t="s">
-        <v>1331</v>
-      </c>
       <c r="F47" s="167" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G47" s="168" t="s">
         <v>1328</v>
       </c>
-      <c r="G47" s="168" t="s">
+      <c r="H47" s="168" t="s">
         <v>1329</v>
       </c>
-      <c r="H47" s="168" t="s">
+      <c r="I47" s="170" t="s">
         <v>1330</v>
-      </c>
-      <c r="I47" s="170" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="161" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D48" s="162" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F48" s="161" t="s">
         <v>1393</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="G48" s="75" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H48" s="75" t="s">
         <v>1332</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="I48" s="162" t="s">
         <v>1333</v>
-      </c>
-      <c r="D48" s="162" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F48" s="161" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G48" s="75" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H48" s="75" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I48" s="162" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="161" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D49" s="162" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F49" s="161" t="s">
         <v>1395</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="G49" s="75" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H49" s="75" t="s">
         <v>1332</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="I49" s="162" t="s">
         <v>1333</v>
       </c>
-      <c r="D49" s="162" t="s">
+    </row>
+    <row r="50" spans="1:9" ht="15">
+      <c r="A50" s="211" t="s">
         <v>1334</v>
       </c>
-      <c r="F49" s="161" t="s">
-        <v>1396</v>
-      </c>
-      <c r="G49" s="75" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I49" s="162" t="s">
+      <c r="B50" s="212"/>
+      <c r="C50" s="212"/>
+      <c r="D50" s="213"/>
+      <c r="F50" s="211" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15">
-      <c r="A50" s="201" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B50" s="202"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="203"/>
-      <c r="F50" s="201" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G50" s="202"/>
-      <c r="H50" s="202"/>
-      <c r="I50" s="203"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="212"/>
+      <c r="I50" s="213"/>
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" s="167" t="s">
         <v>908</v>
       </c>
       <c r="B51" s="168" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C51" s="168" t="s">
         <v>1336</v>
-      </c>
-      <c r="C51" s="168" t="s">
-        <v>1337</v>
       </c>
       <c r="D51" s="170" t="s">
         <v>1070</v>
@@ -23879,10 +23909,10 @@
         <v>908</v>
       </c>
       <c r="G51" s="168" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H51" s="168" t="s">
         <v>1336</v>
-      </c>
-      <c r="H51" s="168" t="s">
-        <v>1337</v>
       </c>
       <c r="I51" s="170" t="s">
         <v>1070</v>
@@ -23890,153 +23920,153 @@
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="161" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B52" s="75" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C52" s="75" t="s">
         <v>1397</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="D52" s="162" t="s">
         <v>1398</v>
       </c>
-      <c r="D52" s="162" t="s">
+      <c r="F52" s="161" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G52" s="75" t="s">
         <v>1399</v>
       </c>
-      <c r="F52" s="161" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G52" s="75" t="s">
+      <c r="H52" s="75" t="s">
         <v>1400</v>
       </c>
-      <c r="H52" s="75" t="s">
+      <c r="I52" s="162" t="s">
         <v>1401</v>
-      </c>
-      <c r="I52" s="162" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1">
       <c r="A53" s="165" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B53" s="169" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C53" s="169" t="s">
         <v>1403</v>
       </c>
-      <c r="C53" s="169" t="s">
+      <c r="D53" s="166" t="s">
         <v>1404</v>
       </c>
-      <c r="D53" s="166" t="s">
+      <c r="F53" s="165" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G53" s="169" t="s">
         <v>1405</v>
       </c>
-      <c r="F53" s="165" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G53" s="169" t="s">
+      <c r="H53" s="169" t="s">
         <v>1406</v>
       </c>
-      <c r="H53" s="169" t="s">
+      <c r="I53" s="166" t="s">
         <v>1407</v>
       </c>
-      <c r="I53" s="166" t="s">
-        <v>1408</v>
-      </c>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="194" t="s">
-        <v>1760</v>
+      <c r="A58" s="193" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="30" customFormat="1" ht="15">
       <c r="A59" s="30" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>1761</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>1764</v>
-      </c>
       <c r="D59" s="30" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C60" t="s">
         <v>1762</v>
       </c>
-      <c r="B60" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1765</v>
-      </c>
       <c r="D60" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E60" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="194" t="s">
-        <v>1767</v>
+      <c r="A62" s="193" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="30" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B64" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="C64" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="194" t="s">
-        <v>1769</v>
+      <c r="A66" s="193" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="A67" s="30" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
     </row>
     <row r="68" spans="1:5" ht="15">
       <c r="A68" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B68" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75">
-      <c r="A71" s="194" t="s">
-        <v>1335</v>
+      <c r="A71" s="193" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15">
@@ -24044,313 +24074,298 @@
         <v>1070</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="E72" s="30"/>
     </row>
     <row r="73" spans="1:5" ht="15">
       <c r="A73" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B73" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15">
       <c r="A74" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B74" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15">
       <c r="A75" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B75" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15">
       <c r="A76" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B76" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15">
       <c r="A77" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B77" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15">
       <c r="A78" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B78" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15">
       <c r="A79" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B79" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15">
       <c r="A80" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B80" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B81" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B82" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B83" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B84" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B85" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B86" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B87" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B88" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C88" s="75" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B89" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C89" s="75" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B90" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C90" s="75" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B91" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B92" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:I21"/>
@@ -24362,6 +24377,21 @@
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F46:I46"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -24371,7 +24401,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -24380,419 +24410,584 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" customWidth="1"/>
+    <col min="3" max="3" width="99" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="204" t="s">
+    <row r="1" spans="1:10" ht="18.75">
+      <c r="A1" s="218" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="197" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B3" s="219"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="75" t="s">
         <v>1409</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="F1" s="204" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G1" s="206"/>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="207" t="s">
+      <c r="B4" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="75" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="197" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B6" s="197"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="75" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="75" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="197" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B9" s="197"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="75" t="s">
+        <v>908</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="75" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B11" s="220" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C11" s="220" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="197" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B12" s="197"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="75" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="75" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="75" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="222" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B16" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="222" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75">
+      <c r="A17" s="194" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B17" s="225"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="196" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="F2" s="207" t="s">
+      <c r="B18" s="197"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="161" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="196" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B21" s="197"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="161" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="161" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="161" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="161" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="196" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B26" s="197"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="161" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="183" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="161" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="161" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="161" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A32" s="165" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75">
+      <c r="A33" s="194" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B33" s="195"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+    </row>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="196" t="s">
         <v>1281</v>
       </c>
-      <c r="G2" s="209"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="161" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B3" s="162" t="s">
-        <v>743</v>
-      </c>
-      <c r="F3" s="161" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G3" s="162" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="161" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B4" s="162" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F4" s="161" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G4" s="162" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="207" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B5" s="209"/>
-      <c r="F5" s="207" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G5" s="209"/>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="161" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B6" s="162" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="161" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G6" s="162" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="161" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F7" s="161" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G7" s="162" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="207" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B8" s="209"/>
-      <c r="F8" s="207" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G8" s="209"/>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="161" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="223" t="s">
         <v>908</v>
       </c>
-      <c r="B9" s="162" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F9" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G9" s="162" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="161" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B10" s="164" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F10" s="161" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G10" s="164" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="207" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B11" s="209"/>
-      <c r="F11" s="207" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G11" s="209"/>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="161" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="161" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G12" s="162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="161" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B13" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="161" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G13" s="162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="161" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B14" s="162" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="161" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G14" s="162" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="165" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B15" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="165" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G15" s="166" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="18" spans="1:2" ht="18.75">
-      <c r="A18" s="204" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B18" s="206"/>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="207" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B19" s="209"/>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B20" s="162" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="161" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B21" s="162" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="207" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B22" s="209"/>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="161" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B23" s="162" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="161" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B24" s="162" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="161" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B25" s="162" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="161" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B26" s="162" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="207" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B27" s="209"/>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="161" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B28" s="162" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="183" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B29" s="184" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="161" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B30" s="162" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="161" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B31" s="162" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="161" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B32" s="162" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A33" s="165" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B33" s="166" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="183"/>
-      <c r="B34" s="52"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1"/>
+      <c r="B35" s="223" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C35" s="223" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D35" s="223"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+    </row>
     <row r="36" spans="1:7" ht="18.75">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="223" t="s">
         <v>1434</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="F36" s="204" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G36" s="206"/>
+      <c r="B36" s="223" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C36" s="223" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D36" s="223"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="207" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B37" s="209"/>
-      <c r="F37" s="207" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G37" s="209"/>
+      <c r="A37" s="223" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B37" s="223" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C37" s="224" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D37" s="224"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="B38" s="162" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F38" s="161" t="s">
-        <v>908</v>
-      </c>
-      <c r="G38" s="162" t="s">
-        <v>1436</v>
-      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="161" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B39" s="162" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F39" s="161" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G39" s="162" t="s">
-        <v>1438</v>
-      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="207" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B40" s="209"/>
-      <c r="F40" s="207" t="s">
-        <v>1439</v>
-      </c>
-      <c r="G40" s="209"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A41" s="213" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B41" s="214"/>
-      <c r="F41" s="213" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G41" s="214"/>
-    </row>
+      <c r="E40" s="75"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="223"/>
+      <c r="B42" s="223"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="75"/>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+    </row>
+    <row r="44" spans="1:7" ht="15">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+    </row>
+    <row r="49" ht="15"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
+  <mergeCells count="6">
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24845,53 +25040,53 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="196"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="196"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="196"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="196"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="196"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
+      <c r="A11" s="200"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="196"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="15">
@@ -24929,18 +25124,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="200" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="196"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="20" t="s">
@@ -25000,514 +25195,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="187" t="s">
         <v>908</v>
       </c>
-      <c r="C1" s="188" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D1" s="188" t="s">
+      <c r="C1" s="187" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1" s="187" t="s">
         <v>1282</v>
       </c>
-      <c r="E1" s="188" t="s">
+      <c r="E1" s="187" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1" s="187" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G1" s="187" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H1" s="187" t="s">
         <v>1715</v>
       </c>
-      <c r="F1" s="188" t="s">
+      <c r="I1" s="187" t="s">
         <v>1716</v>
       </c>
-      <c r="G1" s="188" t="s">
+      <c r="J1" s="187" t="s">
         <v>1717</v>
       </c>
-      <c r="H1" s="188" t="s">
+      <c r="K1" s="187" t="s">
+        <v>1728</v>
+      </c>
+      <c r="L1" s="187" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="190" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B2" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D2" s="187" t="s">
         <v>1718</v>
       </c>
-      <c r="I1" s="188" t="s">
+      <c r="E2" s="187">
+        <v>2100</v>
+      </c>
+      <c r="F2" s="187" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G2" s="187" t="s">
         <v>1719</v>
       </c>
-      <c r="J1" s="188" t="s">
+      <c r="H2" s="187" t="s">
         <v>1720</v>
       </c>
-      <c r="K1" s="188" t="s">
-        <v>1731</v>
-      </c>
-      <c r="L1" s="188" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="191" t="s">
+      <c r="I2" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J2" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="191" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B3" s="187" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D3" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E3" s="187">
+        <v>1300</v>
+      </c>
+      <c r="F3" s="187" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G3" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H3" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I3" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J3" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K3" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L3" s="187" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="190" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B4" s="187" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="187" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D4" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E4" s="187">
+        <v>2101</v>
+      </c>
+      <c r="F4" s="187" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G4" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H4" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I4" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K4" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L4" s="187"/>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="191" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B5" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="187" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D5" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E5" s="187">
+        <v>2110</v>
+      </c>
+      <c r="F5" s="187" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G5" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H5" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I5" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J5" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K5" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L5" s="187"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="190" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B6" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="187" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D6" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E6" s="187">
+        <v>2111</v>
+      </c>
+      <c r="F6" s="187" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G6" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H6" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I6" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J6" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K6" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L6" s="187"/>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="191" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B7" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C7" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D7" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E7" s="187">
+        <v>2112</v>
+      </c>
+      <c r="F7" s="187" t="s">
         <v>1710</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="G7" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H7" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I7" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J7" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K7" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L7" s="187"/>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="190" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B8" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C8" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D8" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E8" s="187">
+        <v>2113</v>
+      </c>
+      <c r="F8" s="187" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G8" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H8" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I8" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K8" s="187" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L8" s="187"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="191" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B9" s="187" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D9" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E9" s="187">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="187" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G9" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H9" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I9" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J9" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K9" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L9" s="187" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="190" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B10" s="187" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D10" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E10" s="187">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="187" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G10" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H10" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I10" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J10" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K10" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L10" s="187" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="191" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B11" s="187" t="s">
+        <v>600</v>
+      </c>
+      <c r="C11" s="187" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D11" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E11" s="187">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="187" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G11" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H11" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I11" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J11" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L11" s="187" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="190" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B12" s="187" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C12" s="187" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D12" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E12" s="187">
+        <v>2106</v>
+      </c>
+      <c r="F12" s="187" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G12" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H12" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I12" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="187" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L12" s="187"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="191" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B13" s="187" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C13" s="187" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D13" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E13" s="187">
+        <v>2102</v>
+      </c>
+      <c r="F13" s="187" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G13" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H13" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I13" s="187">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="187">
+        <v>20000</v>
+      </c>
+      <c r="K13" s="187" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L13" s="187"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="190" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B14" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C14" s="187" t="s">
         <v>1281</v>
       </c>
-      <c r="D2" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E2" s="188">
-        <v>2100</v>
-      </c>
-      <c r="F2" s="188" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G2" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H2" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I2" s="188">
+      <c r="D14" s="187" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E14" s="187">
+        <v>2116</v>
+      </c>
+      <c r="F14" s="187" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G14" s="187" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H14" s="187" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I14" s="187">
         <v>2500</v>
       </c>
-      <c r="J2" s="188">
+      <c r="J14" s="187">
         <v>20000</v>
       </c>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-    </row>
-    <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="192" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B3" s="188" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D3" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E3" s="188">
-        <v>1300</v>
-      </c>
-      <c r="F3" s="188" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G3" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H3" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I3" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J3" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K3" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L3" s="188" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="191" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B4" s="188" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="188" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D4" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E4" s="188">
-        <v>2101</v>
-      </c>
-      <c r="F4" s="188" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G4" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H4" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I4" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J4" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K4" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L4" s="188"/>
-    </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="192" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B5" s="188" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="188" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D5" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E5" s="188">
-        <v>2110</v>
-      </c>
-      <c r="F5" s="188" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G5" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H5" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I5" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J5" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K5" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L5" s="188"/>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="191" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B6" s="188" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="188" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D6" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E6" s="188">
-        <v>2111</v>
-      </c>
-      <c r="F6" s="188" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G6" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H6" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I6" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J6" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K6" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L6" s="188"/>
-    </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="192" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B7" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C7" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D7" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E7" s="188">
-        <v>2112</v>
-      </c>
-      <c r="F7" s="188" t="s">
-        <v>1713</v>
-      </c>
-      <c r="G7" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H7" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I7" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J7" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K7" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L7" s="188"/>
-    </row>
-    <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="191" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B8" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C8" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D8" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E8" s="188">
-        <v>2113</v>
-      </c>
-      <c r="F8" s="188" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G8" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H8" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I8" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J8" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K8" s="188" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L8" s="188"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="192" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B9" s="188" t="s">
-        <v>589</v>
-      </c>
-      <c r="C9" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D9" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E9" s="188">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="188" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G9" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H9" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I9" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J9" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K9" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L9" s="188" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="191" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B10" s="188" t="s">
-        <v>595</v>
-      </c>
-      <c r="C10" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D10" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E10" s="188">
-        <v>1100</v>
-      </c>
-      <c r="F10" s="188" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G10" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H10" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I10" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J10" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K10" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L10" s="188" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="192" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B11" s="188" t="s">
-        <v>600</v>
-      </c>
-      <c r="C11" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D11" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E11" s="188">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="188" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G11" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H11" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I11" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J11" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K11" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L11" s="188" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="191" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B12" s="188" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C12" s="188" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D12" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E12" s="188">
-        <v>2106</v>
-      </c>
-      <c r="F12" s="188" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G12" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H12" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I12" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J12" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K12" s="188" t="s">
-        <v>1732</v>
-      </c>
-      <c r="L12" s="188"/>
-    </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="192" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B13" s="188" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C13" s="188" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D13" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E13" s="188">
-        <v>2102</v>
-      </c>
-      <c r="F13" s="188" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G13" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H13" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I13" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J13" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="188" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L13" s="188"/>
-    </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="191" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B14" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="188" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D14" s="188" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E14" s="188">
-        <v>2116</v>
-      </c>
-      <c r="F14" s="188" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G14" s="188" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H14" s="188" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I14" s="188">
-        <v>2500</v>
-      </c>
-      <c r="J14" s="188">
-        <v>20000</v>
-      </c>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -26578,20 +26773,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="75" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="75" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="408.95" customHeight="1">
-      <c r="A4" s="215" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
+      <c r="A4" s="217" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="155"/>
@@ -26829,17 +27024,17 @@
     </row>
     <row r="11" spans="1:27" ht="15">
       <c r="A11" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15">
       <c r="A12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15">
       <c r="A13" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15">
@@ -26847,173 +27042,173 @@
         <v>1068</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>1447</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>1448</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>1449</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="H14" s="25" t="s">
         <v>1450</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="I14" s="25" t="s">
         <v>1451</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>1452</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="K14" s="25" t="s">
         <v>1453</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="L14" s="25" t="s">
         <v>1454</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="M14" s="25" t="s">
         <v>1455</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>1456</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="O14" s="25" t="s">
         <v>1457</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="P14" s="25" t="s">
         <v>1458</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="Q14" s="25" t="s">
         <v>1459</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="R14" s="25" t="s">
         <v>1460</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="S14" s="25" t="s">
         <v>1461</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="T14" s="25" t="s">
         <v>1462</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="U14" s="25" t="s">
         <v>1463</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="V14" s="25" t="s">
         <v>1464</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="W14" s="25" t="s">
         <v>1465</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="X14" s="25" t="s">
         <v>1466</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="Y14" s="25" t="s">
         <v>1467</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="Z14" s="25" t="s">
         <v>1468</v>
       </c>
-      <c r="X14" s="25" t="s">
+      <c r="AA14" s="25" t="s">
         <v>1469</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>1470</v>
-      </c>
-      <c r="Z14" s="25" t="s">
-        <v>1471</v>
-      </c>
-      <c r="AA14" s="25" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="6" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="6" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -27043,7 +27238,7 @@
     </row>
     <row r="17" spans="1:27" ht="42" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -27074,7 +27269,7 @@
     </row>
     <row r="18" spans="1:27" ht="15">
       <c r="A18" s="6" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1243</v>
@@ -27107,7 +27302,7 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -27138,10 +27333,10 @@
     </row>
     <row r="20" spans="1:27" ht="15">
       <c r="A20" s="6" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -27171,7 +27366,7 @@
     </row>
     <row r="21" spans="1:27" ht="15">
       <c r="A21" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -27202,7 +27397,7 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="6" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>166</v>
@@ -27235,7 +27430,7 @@
     </row>
     <row r="23" spans="1:27" ht="15">
       <c r="A23" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -27266,7 +27461,7 @@
     </row>
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="6" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>373</v>
@@ -27299,7 +27494,7 @@
     </row>
     <row r="25" spans="1:27" ht="15">
       <c r="A25" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -27330,10 +27525,10 @@
     </row>
     <row r="26" spans="1:27" ht="15">
       <c r="A26" s="6" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -27363,7 +27558,7 @@
     </row>
     <row r="27" spans="1:27" ht="15">
       <c r="A27" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -27394,7 +27589,7 @@
     </row>
     <row r="28" spans="1:27" ht="15">
       <c r="A28" s="6" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>1225</v>
@@ -27427,7 +27622,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -27458,7 +27653,7 @@
     </row>
     <row r="30" spans="1:27" ht="15">
       <c r="A30" s="6" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -27489,7 +27684,7 @@
     </row>
     <row r="31" spans="1:27" ht="15">
       <c r="A31" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -27520,7 +27715,7 @@
     </row>
     <row r="32" spans="1:27" ht="15">
       <c r="A32" s="6" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -27551,7 +27746,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -27582,7 +27777,7 @@
     </row>
     <row r="34" spans="1:27" ht="15">
       <c r="A34" s="6" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1243</v>
@@ -27615,7 +27810,7 @@
     </row>
     <row r="35" spans="1:27" ht="15">
       <c r="A35" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27646,10 +27841,10 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="6" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -27679,7 +27874,7 @@
     </row>
     <row r="37" spans="1:27" ht="15">
       <c r="A37" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -27710,7 +27905,7 @@
     </row>
     <row r="38" spans="1:27" ht="15">
       <c r="A38" s="6" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>170</v>
@@ -27743,7 +27938,7 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -27774,7 +27969,7 @@
     </row>
     <row r="40" spans="1:27" ht="15">
       <c r="A40" s="6" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>373</v>
@@ -27807,7 +28002,7 @@
     </row>
     <row r="41" spans="1:27" ht="15">
       <c r="A41" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -27838,10 +28033,10 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="6" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -27871,7 +28066,7 @@
     </row>
     <row r="43" spans="1:27" ht="15">
       <c r="A43" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -27902,7 +28097,7 @@
     </row>
     <row r="44" spans="1:27" ht="15">
       <c r="A44" s="6" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>1225</v>
@@ -27935,7 +28130,7 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -27966,7 +28161,7 @@
     </row>
     <row r="46" spans="1:27" ht="15">
       <c r="A46" s="6" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -27997,7 +28192,7 @@
     </row>
     <row r="47" spans="1:27" ht="15">
       <c r="A47" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -28028,7 +28223,7 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="6" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -28059,7 +28254,7 @@
     </row>
     <row r="49" spans="1:27" ht="15">
       <c r="A49" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -28119,10 +28314,10 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="6" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -28152,7 +28347,7 @@
     </row>
     <row r="52" spans="1:27" ht="40.5" customHeight="1">
       <c r="A52" s="39" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -28186,7 +28381,7 @@
         <v>1180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -28248,82 +28443,82 @@
         <v>1070</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E55" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="R55" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I55" s="13" t="s">
+      <c r="S55" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>1367</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>1387</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M55" s="13" t="s">
+      <c r="W55" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="N55" s="13" t="s">
-        <v>1347</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>1506</v>
-      </c>
       <c r="AA55" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="15">
@@ -28331,70 +28526,70 @@
         <v>1164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="15">
@@ -28402,7 +28597,7 @@
         <v>1072</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
@@ -28435,7 +28630,7 @@
         <v>1073</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -28468,7 +28663,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -28501,7 +28696,7 @@
         <v>1074</v>
       </c>
       <c r="B60" s="84" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C60" s="84"/>
       <c r="D60" s="84"/>
@@ -28685,82 +28880,82 @@
         <v>1099</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>1508</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="G66" s="13" t="s">
         <v>1510</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="H66" s="13" t="s">
         <v>1511</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="I66" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="J66" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="K66" s="13" t="s">
         <v>1514</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="L66" s="13" t="s">
         <v>1515</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="M66" s="13" t="s">
         <v>1516</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="N66" s="13" t="s">
         <v>1517</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="O66" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="P66" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="N66" s="13" t="s">
+      <c r="Q66" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="Y66" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="Z66" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="X66" s="1" t="s">
+      <c r="AA66" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="15">
@@ -28887,7 +29082,7 @@
     </row>
     <row r="71" spans="1:27" ht="15">
       <c r="A71" s="6" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B71" s="84"/>
       <c r="C71" s="84"/>
@@ -28918,7 +29113,7 @@
     </row>
     <row r="72" spans="1:27" ht="15">
       <c r="A72" s="6" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B72" s="84"/>
       <c r="C72" s="84"/>
@@ -28949,7 +29144,7 @@
     </row>
     <row r="73" spans="1:27" ht="15">
       <c r="A73" s="6" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B73" s="84"/>
       <c r="C73" s="84"/>
@@ -29012,71 +29207,71 @@
         <v>1145</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="1" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="1:27" ht="15">
       <c r="A76" s="6" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>374</v>
@@ -29159,7 +29354,7 @@
     </row>
     <row r="77" spans="1:27" ht="63" customHeight="1">
       <c r="A77" s="42" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -29190,7 +29385,7 @@
     </row>
     <row r="79" spans="1:27" ht="15">
       <c r="A79" s="121" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>59</v>
@@ -29202,73 +29397,73 @@
         <v>98</v>
       </c>
       <c r="E79" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="I79" s="13" t="s">
         <v>1559</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="J79" s="13" t="s">
         <v>1560</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="K79" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="L79" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="M79" s="13" t="s">
         <v>1563</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="N79" s="13" t="s">
         <v>1564</v>
       </c>
-      <c r="L79" s="13" t="s">
+      <c r="O79" s="13" t="s">
         <v>1565</v>
       </c>
-      <c r="M79" s="13" t="s">
+      <c r="P79" s="13" t="s">
         <v>1566</v>
       </c>
-      <c r="N79" s="13" t="s">
+      <c r="Q79" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="O79" s="13" t="s">
+      <c r="R79" s="13" t="s">
         <v>1568</v>
       </c>
-      <c r="P79" s="13" t="s">
+      <c r="S79" s="13" t="s">
         <v>1569</v>
       </c>
-      <c r="Q79" s="13" t="s">
+      <c r="T79" s="13" t="s">
         <v>1570</v>
       </c>
-      <c r="R79" s="13" t="s">
+      <c r="U79" s="13" t="s">
         <v>1571</v>
       </c>
-      <c r="S79" s="13" t="s">
+      <c r="V79" s="13" t="s">
         <v>1572</v>
       </c>
-      <c r="T79" s="13" t="s">
+      <c r="W79" s="13" t="s">
         <v>1573</v>
       </c>
-      <c r="U79" s="13" t="s">
+      <c r="X79" s="13" t="s">
         <v>1574</v>
       </c>
-      <c r="V79" s="13" t="s">
+      <c r="Y79" s="13" t="s">
         <v>1575</v>
       </c>
-      <c r="W79" s="13" t="s">
+      <c r="Z79" s="13" t="s">
         <v>1576</v>
       </c>
-      <c r="X79" s="13" t="s">
+      <c r="AA79" s="11" t="s">
         <v>1577</v>
-      </c>
-      <c r="Y79" s="13" t="s">
-        <v>1578</v>
-      </c>
-      <c r="Z79" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="AA79" s="11" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="15">
@@ -29302,10 +29497,10 @@
     </row>
     <row r="81" spans="1:27" ht="15">
       <c r="A81" s="6" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -29426,10 +29621,10 @@
     </row>
     <row r="85" spans="1:27" ht="15">
       <c r="A85" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -29560,33 +29755,33 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="12" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1584</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="6" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -29594,33 +29789,33 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1595</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
@@ -29628,7 +29823,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="6" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>364</v>
@@ -29640,7 +29835,7 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
@@ -29648,7 +29843,7 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
@@ -29656,30 +29851,30 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="8" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
@@ -29696,7 +29891,7 @@
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="6" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="7"/>
@@ -29704,7 +29899,7 @@
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="6" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="7"/>
@@ -29712,7 +29907,7 @@
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="6" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="7"/>
@@ -29726,24 +29921,24 @@
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D23" t="s">
         <v>1613</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>1614</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="15" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>1232</v>
@@ -29777,41 +29972,41 @@
     </row>
     <row r="26" spans="1:5" ht="60">
       <c r="A26" s="22" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60">
       <c r="A27" s="22" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="15" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -29820,41 +30015,41 @@
     </row>
     <row r="29" spans="1:5" ht="60">
       <c r="A29" s="22" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="60">
       <c r="A30" s="22" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="15" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -29863,70 +30058,70 @@
     </row>
     <row r="32" spans="1:5" ht="120">
       <c r="A32" s="22" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60">
       <c r="A33" s="22" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
       <c r="A34" s="23" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C34" s="127" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D34" s="127" t="s">
         <v>1633</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="E34" s="127" t="s">
         <v>1634</v>
-      </c>
-      <c r="C34" s="127" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E34" s="127" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="22" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15">
@@ -29938,7 +30133,7 @@
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="12" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>57</v>
@@ -29949,32 +30144,32 @@
     </row>
     <row r="38" spans="1:5" ht="15">
       <c r="A38" s="6" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="6" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="8" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15">
       <c r="A42" s="12" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>57</v>
@@ -29982,42 +30177,42 @@
     </row>
     <row r="43" spans="1:5" ht="15">
       <c r="A43" s="6" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="6" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="6" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="8" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B46" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B7:C10">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C16">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C40">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30055,18 +30250,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
       <c r="E1" s="100" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" t="str">
@@ -30076,7 +30271,7 @@
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E20" si="0">"initiatorgrp --create "&amp;$A3</f>
@@ -30085,7 +30280,7 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -30216,27 +30411,27 @@
         <v>1070</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="101" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B2" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E2" t="str">
         <f>"initiatorgrp --add_initiators "&amp;$D2&amp;" --label "&amp;$A2&amp;" --initiator_name "&amp;$B2</f>
@@ -30683,445 +30878,445 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>1660</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="E1" s="101" t="s">
         <v>1661</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D1" s="101" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E1" s="101" t="s">
-        <v>1664</v>
       </c>
       <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B2" s="61">
         <v>4096</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B3" s="61">
         <v>4096</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B4" s="61">
         <v>4096</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="B5" s="61">
         <v>8192</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B6" s="61">
         <v>32768</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B7" s="61">
         <v>16384</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B8" s="61">
         <v>4096</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B9" s="61">
         <v>4096</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B10" s="61">
         <v>4096</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B11" s="61">
         <v>4096</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="B12" s="61">
         <v>8192</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B13" s="61">
         <v>4096</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B14" s="61">
         <v>8192</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B15" s="61">
         <v>8192</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="B16" s="61">
         <v>8192</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B17" s="61">
         <v>4096</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B18" s="61">
         <v>4096</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B19" s="61">
         <v>4096</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B20" s="61">
         <v>4096</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B21" s="61">
         <v>4096</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B22" s="61">
         <v>4096</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B23" s="61">
         <v>4096</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B24" s="61">
         <v>4096</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="B25" s="61">
         <v>4096</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B26" s="61">
         <v>4096</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
@@ -31225,23 +31420,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
       <c r="E1" s="100" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="B2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" t="str">
@@ -31251,7 +31446,7 @@
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="B3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E20" si="0">"folder --create "&amp;$A3&amp;" --pool "&amp;B3</f>
@@ -31260,7 +31455,7 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="B4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -31269,7 +31464,7 @@
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="B5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -31278,7 +31473,7 @@
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="B6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -31287,7 +31482,7 @@
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="B7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -31296,7 +31491,7 @@
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="B8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -31305,7 +31500,7 @@
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="B9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -31314,7 +31509,7 @@
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="B10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -31323,7 +31518,7 @@
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="B11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -31332,7 +31527,7 @@
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="B12" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -31341,7 +31536,7 @@
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="B13" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -31350,7 +31545,7 @@
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="B14" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -31359,7 +31554,7 @@
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="B15" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -31368,7 +31563,7 @@
     </row>
     <row r="16" spans="1:5" ht="15">
       <c r="B16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -31377,7 +31572,7 @@
     </row>
     <row r="17" spans="2:5" ht="15">
       <c r="B17" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -31386,7 +31581,7 @@
     </row>
     <row r="18" spans="2:5" ht="15">
       <c r="B18" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -31395,7 +31590,7 @@
     </row>
     <row r="19" spans="2:5" ht="15">
       <c r="B19" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -31404,7 +31599,7 @@
     </row>
     <row r="20" spans="2:5" ht="15">
       <c r="B20" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -31450,43 +31645,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="100" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C1" s="100" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>1698</v>
       </c>
       <c r="H1" s="101"/>
       <c r="J1" s="100" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="K1" s="100" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C2">
         <v>10240</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="F2" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="J2" t="str">
         <f>"vol --create "&amp;A2&amp;" --size "&amp;C2&amp;" --perfpolicy """&amp;B2&amp;""""&amp;" --multi_initiator "&amp;F2</f>
@@ -31497,7 +31692,7 @@
         <v>vol --addacl foo --initiatorgrp ESXi</v>
       </c>
       <c r="M2" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -31512,7 +31707,7 @@
         <v xml:space="preserve">vol --addacl  --initiatorgrp </v>
       </c>
       <c r="M3" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
@@ -33653,13 +33848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="186" t="s">
         <v>185</v>
       </c>
     </row>
@@ -33854,7 +34049,7 @@
       <c r="A23" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="184" t="s">
         <v>208</v>
       </c>
       <c r="C23" t="s">
@@ -37665,7 +37860,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="201" t="s">
         <v>615</v>
       </c>
       <c r="B2" s="152">
@@ -37691,7 +37886,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="197"/>
+      <c r="A3" s="201"/>
       <c r="B3" s="152">
         <v>2501</v>
       </c>
@@ -37715,7 +37910,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="197"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="152">
         <v>2502</v>
       </c>
@@ -37739,7 +37934,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="197"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="152">
         <v>2503</v>
       </c>
@@ -37763,7 +37958,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="197"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="152">
         <v>2504</v>
       </c>
@@ -37787,7 +37982,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="197"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="152">
         <v>2505</v>
       </c>
@@ -37811,7 +38006,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="197"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="152">
         <v>2506</v>
       </c>
@@ -37835,7 +38030,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="197"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="152">
         <v>2507</v>
       </c>
@@ -37859,7 +38054,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="198"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="152">
         <v>2549</v>
       </c>
@@ -37883,7 +38078,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="201" t="s">
         <v>663</v>
       </c>
       <c r="B11" s="152">
@@ -37909,7 +38104,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="197"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="152">
         <v>2551</v>
       </c>
@@ -37933,7 +38128,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="197"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="152">
         <v>2552</v>
       </c>
@@ -37957,7 +38152,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="197"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="152">
         <v>2553</v>
       </c>
@@ -37981,7 +38176,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="197"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="152">
         <v>2554</v>
       </c>
@@ -38005,7 +38200,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="197"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="152">
         <v>2555</v>
       </c>
@@ -38029,7 +38224,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="197"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="152">
         <v>2556</v>
       </c>
@@ -38053,7 +38248,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="199"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="152">
         <v>2557</v>
       </c>
@@ -38077,7 +38272,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="201" t="s">
         <v>673</v>
       </c>
       <c r="B19" s="152">
@@ -38103,7 +38298,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="197"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="152">
         <v>2601</v>
       </c>
@@ -38127,7 +38322,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="197"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="152">
         <v>2602</v>
       </c>
@@ -38151,7 +38346,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="197"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="152">
         <v>2603</v>
       </c>
@@ -38175,7 +38370,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15">
-      <c r="A23" s="197"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="152">
         <v>2604</v>
       </c>
@@ -38199,7 +38394,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15">
-      <c r="A24" s="197"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="152">
         <v>2605</v>
       </c>
@@ -38223,7 +38418,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15">
-      <c r="A25" s="197"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="152">
         <v>2606</v>
       </c>
@@ -38247,7 +38442,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15">
-      <c r="A26" s="199"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="152">
         <v>2607</v>
       </c>
@@ -38271,7 +38466,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="201" t="s">
         <v>683</v>
       </c>
       <c r="B27" s="152">
@@ -38297,7 +38492,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15">
-      <c r="A28" s="199"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="152">
         <v>2699</v>
       </c>
@@ -38948,12 +39143,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39133,17 +39327,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39167,17 +39370,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39a9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5D828059-479F-45F9-8892-947574E64309}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{C0C70AED-9EB6-4CE2-A002-75091045E0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52ADFFC3-1121-4670-843C-CEFF310B6404}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1786">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -4508,18 +4508,12 @@
     <t>default</t>
   </si>
   <si>
-    <t>Manage</t>
-  </si>
-  <si>
     <t>$true</t>
   </si>
   <si>
     <t>Storage system ports</t>
   </si>
   <si>
-    <t>Subnet label</t>
-  </si>
-  <si>
     <t>Storage volume template</t>
   </si>
   <si>
@@ -4533,9 +4527,6 @@
   </si>
   <si>
     <t>8TiB</t>
-  </si>
-  <si>
-    <t>Locked</t>
   </si>
   <si>
     <t>$false</t>
@@ -5738,6 +5729,39 @@
   </si>
   <si>
     <t>B-EI-0001,B-EI-0002,B-PROD-0001,B-PROD-0002,B-PRODTEST-0001,B-PTODTEST-0002,B-TEST-0001,B-TEST-0002</t>
+  </si>
+  <si>
+    <t>storage_volume_names</t>
+  </si>
+  <si>
+    <t>storage_pool_name</t>
+  </si>
+  <si>
+    <t>storage_pool_manage</t>
+  </si>
+  <si>
+    <t>Capacity-Locked</t>
+  </si>
+  <si>
+    <t>Sharing-Locked</t>
+  </si>
+  <si>
+    <t>Provisioning-Locked</t>
+  </si>
+  <si>
+    <t>Enable deduplication-Locked</t>
+  </si>
+  <si>
+    <t>Performance policy-Locked</t>
+  </si>
+  <si>
+    <t>Subnet labels</t>
+  </si>
+  <si>
+    <t>iSCSI-A,iSCSI-B</t>
+  </si>
+  <si>
+    <t>Networks</t>
   </si>
 </sst>
 </file>
@@ -6519,7 +6543,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6933,16 +6957,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7016,6 +7034,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12041,16 +12062,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
@@ -21158,7 +21179,7 @@
       <c r="F6" t="s">
         <v>1087</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="202" t="s">
         <v>1088</v>
       </c>
       <c r="I6" s="54"/>
@@ -21184,7 +21205,7 @@
       <c r="F7" t="s">
         <v>1093</v>
       </c>
-      <c r="H7" s="204"/>
+      <c r="H7" s="202"/>
       <c r="I7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -21208,7 +21229,7 @@
       <c r="F8" t="s">
         <v>1098</v>
       </c>
-      <c r="H8" s="204"/>
+      <c r="H8" s="202"/>
       <c r="I8" s="53"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
@@ -21232,7 +21253,7 @@
       <c r="F9" t="s">
         <v>364</v>
       </c>
-      <c r="H9" s="204"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
@@ -21256,7 +21277,7 @@
       <c r="F10" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="204"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
@@ -21265,7 +21286,7 @@
       <c r="A11" t="s">
         <v>1074</v>
       </c>
-      <c r="H11" s="204"/>
+      <c r="H11" s="202"/>
       <c r="I11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -21274,7 +21295,7 @@
       <c r="A12" t="s">
         <v>1075</v>
       </c>
-      <c r="H12" s="204"/>
+      <c r="H12" s="202"/>
       <c r="I12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
@@ -21283,52 +21304,52 @@
       <c r="A13" t="s">
         <v>1076</v>
       </c>
-      <c r="H13" s="204"/>
+      <c r="H13" s="202"/>
       <c r="I13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" ht="15">
-      <c r="H14" s="204"/>
+      <c r="H14" s="202"/>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" t="s">
         <v>1077</v>
       </c>
-      <c r="H15" s="204"/>
+      <c r="H15" s="202"/>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" t="s">
         <v>1072</v>
       </c>
-      <c r="H16" s="204"/>
+      <c r="H16" s="202"/>
     </row>
     <row r="17" spans="1:15" ht="15">
       <c r="A17" t="s">
         <v>1073</v>
       </c>
-      <c r="H17" s="204"/>
+      <c r="H17" s="202"/>
     </row>
     <row r="18" spans="1:15" ht="15">
       <c r="A18" t="s">
         <v>1074</v>
       </c>
-      <c r="H18" s="204"/>
+      <c r="H18" s="202"/>
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="A19" t="s">
         <v>1075</v>
       </c>
-      <c r="H19" s="204"/>
+      <c r="H19" s="202"/>
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" t="s">
         <v>1076</v>
       </c>
-      <c r="H20" s="204"/>
+      <c r="H20" s="202"/>
     </row>
     <row r="21" spans="1:15" ht="15">
-      <c r="H21" s="204"/>
+      <c r="H21" s="202"/>
     </row>
     <row r="22" spans="1:15" ht="15">
       <c r="A22" t="s">
@@ -21349,7 +21370,7 @@
       <c r="F22" t="s">
         <v>1104</v>
       </c>
-      <c r="H22" s="204"/>
+      <c r="H22" s="202"/>
     </row>
     <row r="23" spans="1:15" ht="15">
       <c r="A23" t="s">
@@ -21370,7 +21391,7 @@
       <c r="F23" t="s">
         <v>1110</v>
       </c>
-      <c r="H23" s="204"/>
+      <c r="H23" s="202"/>
     </row>
     <row r="24" spans="1:15" ht="15">
       <c r="A24" t="s">
@@ -21391,7 +21412,7 @@
       <c r="F24" t="s">
         <v>364</v>
       </c>
-      <c r="H24" s="204"/>
+      <c r="H24" s="202"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
@@ -21417,7 +21438,7 @@
       <c r="F25" t="s">
         <v>1113</v>
       </c>
-      <c r="H25" s="204"/>
+      <c r="H25" s="202"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
@@ -21425,7 +21446,7 @@
       <c r="O25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="15">
-      <c r="H26" s="204"/>
+      <c r="H26" s="202"/>
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
@@ -21436,7 +21457,7 @@
       <c r="A27" t="s">
         <v>1114</v>
       </c>
-      <c r="H27" s="204"/>
+      <c r="H27" s="202"/>
       <c r="K27" s="54"/>
       <c r="L27" s="54"/>
       <c r="M27" s="52"/>
@@ -21447,7 +21468,7 @@
       <c r="A28" t="s">
         <v>1111</v>
       </c>
-      <c r="H28" s="204"/>
+      <c r="H28" s="202"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="52"/>
@@ -21458,7 +21479,7 @@
       <c r="A29" t="s">
         <v>1112</v>
       </c>
-      <c r="H29" s="204"/>
+      <c r="H29" s="202"/>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="52"/>
@@ -21466,7 +21487,7 @@
       <c r="O29" s="52"/>
     </row>
     <row r="30" spans="1:15" ht="15">
-      <c r="H30" s="204"/>
+      <c r="H30" s="202"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="52"/>
@@ -21474,7 +21495,7 @@
       <c r="O30" s="52"/>
     </row>
     <row r="31" spans="1:15" ht="15">
-      <c r="H31" s="204"/>
+      <c r="H31" s="202"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="52"/>
@@ -21500,7 +21521,7 @@
       <c r="F32" t="s">
         <v>1118</v>
       </c>
-      <c r="H32" s="204"/>
+      <c r="H32" s="202"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="52"/>
@@ -21526,7 +21547,7 @@
       <c r="F33" t="s">
         <v>1124</v>
       </c>
-      <c r="H33" s="204"/>
+      <c r="H33" s="202"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="52"/>
@@ -21537,7 +21558,7 @@
       <c r="A34" t="s">
         <v>1125</v>
       </c>
-      <c r="H34" s="204"/>
+      <c r="H34" s="202"/>
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="52"/>
@@ -21563,7 +21584,7 @@
       <c r="F35" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="204"/>
+      <c r="H35" s="202"/>
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="52"/>
@@ -21589,7 +21610,7 @@
       <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="204"/>
+      <c r="H36" s="202"/>
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="52"/>
@@ -21597,7 +21618,7 @@
       <c r="O36" s="52"/>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="H37" s="204"/>
+      <c r="H37" s="202"/>
       <c r="K37" s="52"/>
       <c r="L37" s="53"/>
       <c r="M37" s="52"/>
@@ -21608,7 +21629,7 @@
       <c r="A38" t="s">
         <v>1126</v>
       </c>
-      <c r="H38" s="204"/>
+      <c r="H38" s="202"/>
       <c r="K38" s="53"/>
       <c r="L38" s="52"/>
       <c r="M38" s="52"/>
@@ -21619,7 +21640,7 @@
       <c r="A39" t="s">
         <v>1125</v>
       </c>
-      <c r="H39" s="204"/>
+      <c r="H39" s="202"/>
       <c r="K39" s="53"/>
       <c r="L39" s="52"/>
       <c r="M39" s="52"/>
@@ -21627,7 +21648,7 @@
       <c r="O39" s="52"/>
     </row>
     <row r="40" spans="1:15" ht="15">
-      <c r="H40" s="204"/>
+      <c r="H40" s="202"/>
       <c r="K40" s="53"/>
       <c r="L40" s="52"/>
       <c r="M40" s="52"/>
@@ -21638,7 +21659,7 @@
       <c r="A41" t="s">
         <v>1073</v>
       </c>
-      <c r="H41" s="204"/>
+      <c r="H41" s="202"/>
       <c r="K41" s="53"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
@@ -21646,7 +21667,7 @@
       <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:15" ht="15">
-      <c r="H42" s="204"/>
+      <c r="H42" s="202"/>
       <c r="K42" s="53"/>
       <c r="L42" s="52"/>
       <c r="M42" s="52"/>
@@ -21654,7 +21675,7 @@
       <c r="O42" s="52"/>
     </row>
     <row r="43" spans="1:15" ht="15">
-      <c r="H43" s="204"/>
+      <c r="H43" s="202"/>
       <c r="K43" s="53"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
@@ -21680,7 +21701,7 @@
       <c r="F44" t="s">
         <v>1132</v>
       </c>
-      <c r="H44" s="204"/>
+      <c r="H44" s="202"/>
       <c r="K44" s="53"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
@@ -22284,7 +22305,7 @@
         <v>1161</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -22292,22 +22313,22 @@
         <v>1068</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>1733</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="F8" s="25" t="s">
         <v>1734</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="G8" s="25" t="s">
         <v>1735</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>1737</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -22517,7 +22538,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="6" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>1204</v>
@@ -22532,7 +22553,7 @@
     </row>
     <row r="23" spans="1:7" ht="15">
       <c r="A23" s="6" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1205</v>
@@ -22559,12 +22580,12 @@
         <v>1207</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -22586,19 +22607,19 @@
         <v>1209</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>1209</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>1744</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
@@ -22609,19 +22630,19 @@
         <v>1211</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>1211</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
@@ -22635,60 +22656,60 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15">
       <c r="A31" s="1" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="15">
       <c r="A32" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="15">
       <c r="A33" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -22762,10 +22783,10 @@
         <v>1282</v>
       </c>
       <c r="D1" s="187" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E1" s="187" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="F1" s="187" t="s">
         <v>1073</v>
@@ -22774,24 +22795,24 @@
         <v>1215</v>
       </c>
       <c r="H1" s="187" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="I1" s="187" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="J1" s="187" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="K1" s="187" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="L1" s="187" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B2" s="187" t="s">
         <v>121</v>
@@ -22820,13 +22841,13 @@
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B3" s="187" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K3" s="187" t="s">
         <v>1216</v>
@@ -22837,7 +22858,7 @@
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B4" s="187" t="s">
         <v>121</v>
@@ -22866,24 +22887,24 @@
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B5" s="187" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K5" s="187" t="s">
         <v>1217</v>
       </c>
       <c r="L5" s="187" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="187" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B6" s="187" t="s">
         <v>373</v>
@@ -22912,7 +22933,7 @@
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="187" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B7" s="187" t="s">
         <v>1318</v>
@@ -22929,13 +22950,13 @@
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B8" s="187" t="s">
         <v>1318</v>
       </c>
       <c r="C8" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K8" s="187" t="s">
         <v>1146</v>
@@ -22946,13 +22967,13 @@
     </row>
     <row r="9" spans="1:12" ht="15">
       <c r="A9" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B9" s="187" t="s">
         <v>1318</v>
       </c>
       <c r="C9" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K9" s="187" t="s">
         <v>1222</v>
@@ -22963,7 +22984,7 @@
     </row>
     <row r="10" spans="1:12" ht="15">
       <c r="A10" s="187" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B10" s="187" t="s">
         <v>1227</v>
@@ -22980,13 +23001,13 @@
     </row>
     <row r="11" spans="1:12" ht="15">
       <c r="A11" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B11" s="187" t="s">
         <v>1227</v>
       </c>
       <c r="C11" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K11" s="187" t="s">
         <v>1228</v>
@@ -22997,13 +23018,13 @@
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B12" s="187" t="s">
         <v>1227</v>
       </c>
       <c r="C12" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K12" s="187" t="s">
         <v>1229</v>
@@ -23014,7 +23035,7 @@
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="187" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B13" s="187" t="s">
         <v>166</v>
@@ -23031,13 +23052,13 @@
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B14" s="187" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K14" s="187" t="s">
         <v>1233</v>
@@ -23048,13 +23069,13 @@
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B15" s="187" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K15" s="187" t="s">
         <v>1234</v>
@@ -23065,7 +23086,7 @@
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="187" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B16" s="187" t="s">
         <v>170</v>
@@ -23082,13 +23103,13 @@
     </row>
     <row r="17" spans="1:12" ht="15">
       <c r="A17" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>170</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K17" s="187" t="s">
         <v>1238</v>
@@ -23099,13 +23120,13 @@
     </row>
     <row r="18" spans="1:12" ht="15">
       <c r="A18" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B18" s="187" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K18" s="187" t="s">
         <v>1239</v>
@@ -23116,7 +23137,7 @@
     </row>
     <row r="19" spans="1:12" ht="15">
       <c r="A19" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B19" s="187" t="s">
         <v>1243</v>
@@ -23125,7 +23146,7 @@
         <v>1072</v>
       </c>
       <c r="D19" s="187" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E19" s="187" t="s">
         <v>374</v>
@@ -23133,16 +23154,16 @@
     </row>
     <row r="20" spans="1:12" ht="15">
       <c r="A20" s="187" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B20" s="187" t="s">
         <v>1243</v>
       </c>
       <c r="C20" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K20" s="187" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="L20" s="187" t="s">
         <v>1245</v>
@@ -23150,7 +23171,7 @@
     </row>
     <row r="21" spans="1:12" ht="15">
       <c r="A21" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B21" s="187" t="s">
         <v>1243</v>
@@ -23167,13 +23188,13 @@
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="187" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B22" s="187" t="s">
         <v>1243</v>
       </c>
       <c r="C22" s="187" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K22" s="187" t="s">
         <v>1244</v>
@@ -23215,16 +23236,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="206" t="s">
         <v>1280</v>
       </c>
-      <c r="B1" s="210"/>
+      <c r="B1" s="208"/>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="203" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="207"/>
+      <c r="B2" s="205"/>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="161" t="s">
@@ -23251,10 +23272,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="203" t="s">
         <v>1287</v>
       </c>
-      <c r="B6" s="207"/>
+      <c r="B6" s="205"/>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="161" t="s">
@@ -23269,14 +23290,14 @@
         <v>1289</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="205" t="s">
+      <c r="A9" s="203" t="s">
         <v>1290</v>
       </c>
-      <c r="B9" s="207"/>
+      <c r="B9" s="205"/>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="161" t="s">
@@ -23299,15 +23320,15 @@
         <v>1295</v>
       </c>
       <c r="B12" s="163" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C12" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="161" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B13" s="162" t="s">
         <v>1296</v>
@@ -23331,32 +23352,32 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:9" ht="18.75">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="206" t="s">
         <v>1299</v>
       </c>
-      <c r="B20" s="209"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="F20" s="208" t="s">
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="208"/>
+      <c r="F20" s="206" t="s">
         <v>1299</v>
       </c>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="210"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="208"/>
     </row>
     <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="203" t="s">
         <v>1281</v>
       </c>
-      <c r="B21" s="206"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="207"/>
-      <c r="F21" s="205" t="s">
+      <c r="B21" s="204"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="205"/>
+      <c r="F21" s="203" t="s">
         <v>1281</v>
       </c>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="207"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="205"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="161" t="s">
@@ -23431,88 +23452,88 @@
       <c r="I25" s="162"/>
     </row>
     <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="205" t="s">
+      <c r="A26" s="203" t="s">
         <v>1307</v>
       </c>
-      <c r="B26" s="206"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="207"/>
-      <c r="F26" s="205" t="s">
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205"/>
+      <c r="F26" s="203" t="s">
         <v>1307</v>
       </c>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="205"/>
     </row>
     <row r="27" spans="1:9" ht="15">
-      <c r="A27" s="214" t="s">
+      <c r="A27" s="212" t="s">
         <v>1308</v>
       </c>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="216"/>
-      <c r="F27" s="214" t="s">
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="F27" s="212" t="s">
         <v>1308</v>
       </c>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="214"/>
     </row>
     <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="205" t="s">
+      <c r="A28" s="203" t="s">
         <v>1309</v>
       </c>
-      <c r="B28" s="206"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="207"/>
-      <c r="F28" s="205" t="s">
+      <c r="B28" s="204"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
+      <c r="F28" s="203" t="s">
         <v>1309</v>
       </c>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="207"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="205"/>
     </row>
     <row r="29" spans="1:9" ht="15">
-      <c r="A29" s="214" t="s">
+      <c r="A29" s="212" t="s">
         <v>1310</v>
       </c>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="216"/>
-      <c r="F29" s="214" t="s">
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="F29" s="212" t="s">
         <v>1310</v>
       </c>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="216"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="214"/>
     </row>
     <row r="30" spans="1:9" ht="15">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="203" t="s">
         <v>1311</v>
       </c>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
-      <c r="F30" s="205" t="s">
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="205"/>
+      <c r="F30" s="203" t="s">
         <v>1311</v>
       </c>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="207"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="205"/>
     </row>
     <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="211" t="s">
+      <c r="A31" s="209" t="s">
         <v>1312</v>
       </c>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="213"/>
-      <c r="F31" s="211" t="s">
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
+      <c r="F31" s="209" t="s">
         <v>1312</v>
       </c>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="213"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="211"/>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="167" t="s">
@@ -23647,18 +23668,18 @@
       <c r="I37" s="162"/>
     </row>
     <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="211" t="s">
+      <c r="A38" s="209" t="s">
         <v>1320</v>
       </c>
-      <c r="B38" s="212"/>
-      <c r="C38" s="212"/>
-      <c r="D38" s="213"/>
-      <c r="F38" s="211" t="s">
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="211"/>
+      <c r="F38" s="209" t="s">
         <v>1320</v>
       </c>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="213"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="211"/>
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="167" t="s">
@@ -23787,18 +23808,18 @@
       <c r="I45" s="162"/>
     </row>
     <row r="46" spans="1:9" ht="15">
-      <c r="A46" s="211" t="s">
+      <c r="A46" s="209" t="s">
         <v>1326</v>
       </c>
-      <c r="B46" s="212"/>
-      <c r="C46" s="212"/>
-      <c r="D46" s="213"/>
-      <c r="F46" s="211" t="s">
+      <c r="B46" s="210"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="F46" s="209" t="s">
         <v>1326</v>
       </c>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="213"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="210"/>
+      <c r="I46" s="211"/>
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="167" t="s">
@@ -23879,18 +23900,18 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15">
-      <c r="A50" s="211" t="s">
+      <c r="A50" s="209" t="s">
         <v>1334</v>
       </c>
-      <c r="B50" s="212"/>
-      <c r="C50" s="212"/>
-      <c r="D50" s="213"/>
-      <c r="F50" s="211" t="s">
+      <c r="B50" s="210"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="211"/>
+      <c r="F50" s="209" t="s">
         <v>1334</v>
       </c>
-      <c r="G50" s="212"/>
-      <c r="H50" s="212"/>
-      <c r="I50" s="213"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="210"/>
+      <c r="I50" s="211"/>
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" s="167" t="s">
@@ -23972,38 +23993,38 @@
     </row>
     <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="193" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="30" customFormat="1" ht="15">
       <c r="A59" s="30" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>1758</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>1761</v>
-      </c>
       <c r="D59" s="30" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C60" t="s">
         <v>1759</v>
       </c>
-      <c r="B60" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1762</v>
-      </c>
       <c r="D60" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="E60" t="s">
         <v>373</v>
@@ -24011,7 +24032,7 @@
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="193" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15">
@@ -24022,25 +24043,25 @@
         <v>1313</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="B64" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C64" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="193" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15">
@@ -24048,17 +24069,17 @@
         <v>1321</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
     </row>
     <row r="68" spans="1:5" ht="15">
       <c r="A68" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="B68" t="s">
         <v>1324</v>
@@ -24080,7 +24101,7 @@
         <v>1335</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="E72" s="30"/>
     </row>
@@ -24401,10 +24422,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45"/>
@@ -24417,15 +24438,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="216" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="216"/>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
       <c r="J1" s="75"/>
@@ -24435,25 +24456,29 @@
         <v>114</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
       <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="197" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="75"/>
+      <c r="A3" s="75" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>743</v>
+      </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
@@ -24464,17 +24489,17 @@
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="75" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>743</v>
+        <v>1411</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>743</v>
+        <v>1412</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="75"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
@@ -24482,31 +24507,35 @@
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="75" t="s">
-        <v>1410</v>
+        <v>1288</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>1411</v>
+        <v>202</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>1412</v>
+        <v>202</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="219"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
       <c r="I5" s="75"/>
       <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="197" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="219"/>
+      <c r="A6" s="75" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1736</v>
+      </c>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="F6" s="217"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
       <c r="I6" s="75"/>
@@ -24514,13 +24543,13 @@
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="75" t="s">
-        <v>1288</v>
+        <v>1776</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>202</v>
+        <v>1414</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>202</v>
+        <v>1414</v>
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
@@ -24532,28 +24561,28 @@
     </row>
     <row r="8" spans="1:10" ht="15">
       <c r="A8" s="75" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>1739</v>
+        <v>1777</v>
+      </c>
+      <c r="B8" s="218" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C8" s="218" t="s">
+        <v>1415</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
-      <c r="F8" s="219"/>
+      <c r="F8" s="217"/>
       <c r="G8" s="75"/>
       <c r="H8" s="75"/>
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="197" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B9" s="197"/>
-      <c r="C9" s="219"/>
+      <c r="A9" s="196" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B9" s="196"/>
+      <c r="C9" s="217"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
@@ -24564,13 +24593,13 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="75" t="s">
-        <v>908</v>
+        <v>1783</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>1414</v>
+        <v>1784</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>1414</v>
+        <v>1784</v>
       </c>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
@@ -24580,30 +24609,30 @@
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="75" t="s">
-        <v>1415</v>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="220" t="s">
+        <v>1785</v>
       </c>
       <c r="B11" s="220" t="s">
-        <v>1416</v>
+        <v>1784</v>
       </c>
       <c r="C11" s="220" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="219"/>
+        <v>1784</v>
+      </c>
+      <c r="D11" s="220"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="220"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="197" t="s">
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="194" t="s">
         <v>1417</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="219"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="75"/>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
@@ -24613,16 +24642,15 @@
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="161" t="s">
+        <v>908</v>
+      </c>
+      <c r="B13" s="75" t="s">
         <v>1418</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="75"/>
+      <c r="C13" t="s">
+        <v>1418</v>
+      </c>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
@@ -24631,16 +24659,15 @@
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="75" t="s">
-        <v>1313</v>
+      <c r="A14" s="161" t="s">
+        <v>1413</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="75"/>
+        <v>1414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1414</v>
+      </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
@@ -24649,16 +24676,11 @@
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="75" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="75"/>
+      <c r="A15" s="195" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B15" s="196"/>
+      <c r="C15" s="224"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
@@ -24666,31 +24688,33 @@
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="222" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B16" s="222" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="222" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="161" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="194" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B17" s="225"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="161" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1422</v>
+      </c>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
@@ -24699,293 +24723,239 @@
       <c r="J17" s="75"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="196" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B18" s="197"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="A18" s="161" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="161" t="s">
-        <v>908</v>
+        <v>1779</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+        <v>1422</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="161" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
+      <c r="A20" s="195" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B20" s="196"/>
+      <c r="C20" s="224"/>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="196" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B21" s="197"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
+      <c r="A21" s="161" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="183" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>1422</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="C22" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="161" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
+        <v>1415</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="161" t="s">
-        <v>1426</v>
+        <v>1781</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>1427</v>
-      </c>
+        <v>1422</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="161" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="196" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B26" s="197"/>
-    </row>
-    <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="161" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B27" s="75" t="s">
         <v>1429</v>
       </c>
+      <c r="C25" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A26" s="165" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B26" s="220" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C26" s="220" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D26" s="220"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="75"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
+      <c r="A27" s="194" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B27" s="223"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="183" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>1425</v>
-      </c>
+      <c r="A28" s="195" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B28" s="196"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="161" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="161" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="A29" s="221" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B29" s="221" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C29" s="221" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D29" s="221"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
+      <c r="A30" s="221" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B30" s="221" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C30" s="221" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D30" s="221"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="161" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="165" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222"/>
-      <c r="E32" s="222"/>
-      <c r="F32" s="222"/>
+      <c r="A31" s="221" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B31" s="221" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C31" s="222" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D31" s="222"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="75"/>
     </row>
-    <row r="33" spans="1:7" ht="18.75">
-      <c r="A33" s="194" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B33" s="195"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+    <row r="33" spans="1:7" ht="15">
+      <c r="E33" s="75"/>
       <c r="F33" s="75"/>
       <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="196" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
     </row>
     <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="223" t="s">
-        <v>908</v>
-      </c>
-      <c r="B35" s="223" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C35" s="223" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D35" s="223"/>
       <c r="E35" s="75"/>
       <c r="F35" s="75"/>
       <c r="G35" s="75"/>
     </row>
-    <row r="36" spans="1:7" ht="18.75">
-      <c r="A36" s="223" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B36" s="223" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C36" s="223" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D36" s="223"/>
+    <row r="36" spans="1:7" ht="15">
+      <c r="A36" s="221"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="75"/>
-      <c r="F36" s="221"/>
-      <c r="G36" s="221"/>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="223" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B37" s="223" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C37" s="224" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D37" s="224"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="75"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
     </row>
     <row r="38" spans="1:7" ht="15">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" ht="15">
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" ht="15">
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="75"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
     </row>
     <row r="41" spans="1:7" ht="15">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="223"/>
-      <c r="B42" s="223"/>
-      <c r="C42" s="223"/>
-      <c r="D42" s="223"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="75"/>
     </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-    </row>
-    <row r="44" spans="1:7" ht="15">
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-    </row>
-    <row r="45" spans="1:7" ht="15">
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-    </row>
-    <row r="46" spans="1:7" ht="15">
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-    </row>
-    <row r="47" spans="1:7" ht="15">
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-    </row>
-    <row r="48" spans="1:7" ht="15">
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-    </row>
-    <row r="49" ht="15"/>
+    <row r="43" spans="1:7" ht="15"/>
+    <row r="44" spans="1:7" ht="15"/>
+    <row r="45" spans="1:7" ht="15"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
@@ -25040,53 +25010,53 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="200"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="A7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="200"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="200"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="200"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="200"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="200"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="15">
@@ -25124,18 +25094,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="200"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="200"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="20" t="s">
@@ -25208,33 +25178,33 @@
         <v>1282</v>
       </c>
       <c r="E1" s="187" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F1" s="187" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G1" s="187" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H1" s="187" t="s">
         <v>1712</v>
       </c>
-      <c r="F1" s="187" t="s">
+      <c r="I1" s="187" t="s">
         <v>1713</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="J1" s="187" t="s">
         <v>1714</v>
       </c>
-      <c r="H1" s="187" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I1" s="187" t="s">
-        <v>1716</v>
-      </c>
-      <c r="J1" s="187" t="s">
-        <v>1717</v>
-      </c>
       <c r="K1" s="187" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="L1" s="187" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="190" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B2" s="187" t="s">
         <v>121</v>
@@ -25243,7 +25213,7 @@
         <v>1281</v>
       </c>
       <c r="D2" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E2" s="187">
         <v>2100</v>
@@ -25252,10 +25222,10 @@
         <v>1213</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H2" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I2" s="187">
         <v>2500</v>
@@ -25268,7 +25238,7 @@
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="191" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B3" s="187" t="s">
         <v>606</v>
@@ -25277,19 +25247,19 @@
         <v>1281</v>
       </c>
       <c r="D3" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E3" s="187">
         <v>1300</v>
       </c>
       <c r="F3" s="187" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="G3" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H3" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I3" s="187">
         <v>2500</v>
@@ -25306,16 +25276,16 @@
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="190" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B4" s="187" t="s">
         <v>373</v>
       </c>
       <c r="C4" s="187" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="D4" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E4" s="187">
         <v>2101</v>
@@ -25324,10 +25294,10 @@
         <v>1219</v>
       </c>
       <c r="G4" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H4" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I4" s="187">
         <v>2500</v>
@@ -25342,7 +25312,7 @@
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="191" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B5" s="187" t="s">
         <v>166</v>
@@ -25351,7 +25321,7 @@
         <v>1316</v>
       </c>
       <c r="D5" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E5" s="187">
         <v>2110</v>
@@ -25360,10 +25330,10 @@
         <v>1232</v>
       </c>
       <c r="G5" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H5" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I5" s="187">
         <v>2500</v>
@@ -25378,7 +25348,7 @@
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="190" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B6" s="187" t="s">
         <v>170</v>
@@ -25387,7 +25357,7 @@
         <v>1316</v>
       </c>
       <c r="D6" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E6" s="187">
         <v>2111</v>
@@ -25396,10 +25366,10 @@
         <v>1237</v>
       </c>
       <c r="G6" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H6" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I6" s="187">
         <v>2500</v>
@@ -25414,7 +25384,7 @@
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="191" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B7" s="187" t="s">
         <v>1243</v>
@@ -25423,19 +25393,19 @@
         <v>1281</v>
       </c>
       <c r="D7" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E7" s="187">
         <v>2112</v>
       </c>
       <c r="F7" s="187" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="G7" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H7" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I7" s="187">
         <v>2500</v>
@@ -25450,7 +25420,7 @@
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="190" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B8" s="187" t="s">
         <v>1243</v>
@@ -25459,7 +25429,7 @@
         <v>1281</v>
       </c>
       <c r="D8" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E8" s="187">
         <v>2113</v>
@@ -25468,10 +25438,10 @@
         <v>1242</v>
       </c>
       <c r="G8" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H8" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I8" s="187">
         <v>2500</v>
@@ -25486,7 +25456,7 @@
     </row>
     <row r="9" spans="1:12" ht="15">
       <c r="A9" s="191" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B9" s="187" t="s">
         <v>589</v>
@@ -25495,19 +25465,19 @@
         <v>1281</v>
       </c>
       <c r="D9" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E9" s="187">
         <v>1000</v>
       </c>
       <c r="F9" s="187" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="G9" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H9" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I9" s="187">
         <v>2500</v>
@@ -25524,7 +25494,7 @@
     </row>
     <row r="10" spans="1:12" ht="15">
       <c r="A10" s="190" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B10" s="187" t="s">
         <v>595</v>
@@ -25533,19 +25503,19 @@
         <v>1281</v>
       </c>
       <c r="D10" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E10" s="187">
         <v>1100</v>
       </c>
       <c r="F10" s="187" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="G10" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H10" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I10" s="187">
         <v>2500</v>
@@ -25562,7 +25532,7 @@
     </row>
     <row r="11" spans="1:12" ht="15">
       <c r="A11" s="191" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B11" s="187" t="s">
         <v>600</v>
@@ -25571,19 +25541,19 @@
         <v>1281</v>
       </c>
       <c r="D11" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E11" s="187">
         <v>1200</v>
       </c>
       <c r="F11" s="187" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="G11" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H11" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I11" s="187">
         <v>2500</v>
@@ -25600,16 +25570,16 @@
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="190" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B12" s="187" t="s">
         <v>1227</v>
       </c>
       <c r="C12" s="187" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="D12" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E12" s="187">
         <v>2106</v>
@@ -25618,10 +25588,10 @@
         <v>1226</v>
       </c>
       <c r="G12" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H12" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I12" s="187">
         <v>2500</v>
@@ -25630,22 +25600,22 @@
         <v>20000</v>
       </c>
       <c r="K12" s="187" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="L12" s="187"/>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="191" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B13" s="187" t="s">
         <v>1318</v>
       </c>
       <c r="C13" s="187" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D13" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E13" s="187">
         <v>2102</v>
@@ -25654,10 +25624,10 @@
         <v>1220</v>
       </c>
       <c r="G13" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H13" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I13" s="187">
         <v>2500</v>
@@ -25672,7 +25642,7 @@
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="190" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B14" s="187" t="s">
         <v>121</v>
@@ -25681,7 +25651,7 @@
         <v>1281</v>
       </c>
       <c r="D14" s="187" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E14" s="187">
         <v>2116</v>
@@ -25690,10 +25660,10 @@
         <v>1212</v>
       </c>
       <c r="G14" s="187" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H14" s="187" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="I14" s="187">
         <v>2500</v>
@@ -26773,20 +26743,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="75" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="75" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="408.95" customHeight="1">
-      <c r="A4" s="217" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
+      <c r="A4" s="215" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="155"/>
@@ -27024,17 +26994,17 @@
     </row>
     <row r="11" spans="1:27" ht="15">
       <c r="A11" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15">
       <c r="A12" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15">
       <c r="A13" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15">
@@ -27042,173 +27012,173 @@
         <v>1068</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>1444</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>1445</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>1446</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="H14" s="25" t="s">
         <v>1447</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="I14" s="25" t="s">
         <v>1448</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>1449</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="K14" s="25" t="s">
         <v>1450</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="L14" s="25" t="s">
         <v>1451</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="M14" s="25" t="s">
         <v>1452</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>1453</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="O14" s="25" t="s">
         <v>1454</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="P14" s="25" t="s">
         <v>1455</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="Q14" s="25" t="s">
         <v>1456</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="R14" s="25" t="s">
         <v>1457</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="S14" s="25" t="s">
         <v>1458</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="T14" s="25" t="s">
         <v>1459</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="U14" s="25" t="s">
         <v>1460</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="V14" s="25" t="s">
         <v>1461</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="W14" s="25" t="s">
         <v>1462</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="X14" s="25" t="s">
         <v>1463</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="Y14" s="25" t="s">
         <v>1464</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="Z14" s="25" t="s">
         <v>1465</v>
       </c>
-      <c r="X14" s="25" t="s">
+      <c r="AA14" s="25" t="s">
         <v>1466</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>1467</v>
-      </c>
-      <c r="Z14" s="25" t="s">
-        <v>1468</v>
-      </c>
-      <c r="AA14" s="25" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="6" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="6" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -27238,7 +27208,7 @@
     </row>
     <row r="17" spans="1:27" ht="42" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -27269,7 +27239,7 @@
     </row>
     <row r="18" spans="1:27" ht="15">
       <c r="A18" s="6" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1243</v>
@@ -27302,7 +27272,7 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -27333,10 +27303,10 @@
     </row>
     <row r="20" spans="1:27" ht="15">
       <c r="A20" s="6" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -27366,7 +27336,7 @@
     </row>
     <row r="21" spans="1:27" ht="15">
       <c r="A21" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -27397,7 +27367,7 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>166</v>
@@ -27430,7 +27400,7 @@
     </row>
     <row r="23" spans="1:27" ht="15">
       <c r="A23" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -27461,7 +27431,7 @@
     </row>
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="6" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>373</v>
@@ -27494,7 +27464,7 @@
     </row>
     <row r="25" spans="1:27" ht="15">
       <c r="A25" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -27525,10 +27495,10 @@
     </row>
     <row r="26" spans="1:27" ht="15">
       <c r="A26" s="6" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -27558,7 +27528,7 @@
     </row>
     <row r="27" spans="1:27" ht="15">
       <c r="A27" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -27589,7 +27559,7 @@
     </row>
     <row r="28" spans="1:27" ht="15">
       <c r="A28" s="6" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>1225</v>
@@ -27622,7 +27592,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -27653,7 +27623,7 @@
     </row>
     <row r="30" spans="1:27" ht="15">
       <c r="A30" s="6" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -27684,7 +27654,7 @@
     </row>
     <row r="31" spans="1:27" ht="15">
       <c r="A31" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -27715,7 +27685,7 @@
     </row>
     <row r="32" spans="1:27" ht="15">
       <c r="A32" s="6" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -27746,7 +27716,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -27777,7 +27747,7 @@
     </row>
     <row r="34" spans="1:27" ht="15">
       <c r="A34" s="6" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1243</v>
@@ -27810,7 +27780,7 @@
     </row>
     <row r="35" spans="1:27" ht="15">
       <c r="A35" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27841,7 +27811,7 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="6" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1324</v>
@@ -27874,7 +27844,7 @@
     </row>
     <row r="37" spans="1:27" ht="15">
       <c r="A37" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -27905,7 +27875,7 @@
     </row>
     <row r="38" spans="1:27" ht="15">
       <c r="A38" s="6" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>170</v>
@@ -27938,7 +27908,7 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -27969,7 +27939,7 @@
     </row>
     <row r="40" spans="1:27" ht="15">
       <c r="A40" s="6" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>373</v>
@@ -28002,7 +27972,7 @@
     </row>
     <row r="41" spans="1:27" ht="15">
       <c r="A41" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -28033,10 +28003,10 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="6" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -28066,7 +28036,7 @@
     </row>
     <row r="43" spans="1:27" ht="15">
       <c r="A43" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -28097,7 +28067,7 @@
     </row>
     <row r="44" spans="1:27" ht="15">
       <c r="A44" s="6" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>1225</v>
@@ -28130,7 +28100,7 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -28161,7 +28131,7 @@
     </row>
     <row r="46" spans="1:27" ht="15">
       <c r="A46" s="6" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -28192,7 +28162,7 @@
     </row>
     <row r="47" spans="1:27" ht="15">
       <c r="A47" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -28223,7 +28193,7 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="6" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -28254,7 +28224,7 @@
     </row>
     <row r="49" spans="1:27" ht="15">
       <c r="A49" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -28314,10 +28284,10 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="6" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -28347,7 +28317,7 @@
     </row>
     <row r="52" spans="1:27" ht="40.5" customHeight="1">
       <c r="A52" s="39" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -28381,7 +28351,7 @@
         <v>1180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -28452,7 +28422,7 @@
         <v>1398</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>1360</v>
@@ -28464,7 +28434,7 @@
         <v>1340</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>1366</v>
@@ -28476,7 +28446,7 @@
         <v>1404</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>1346</v>
@@ -28491,7 +28461,7 @@
         <v>1401</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>1363</v>
@@ -28503,7 +28473,7 @@
         <v>1343</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>1369</v>
@@ -28515,7 +28485,7 @@
         <v>1407</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="AA55" s="1" t="s">
         <v>1349</v>
@@ -28597,7 +28567,7 @@
         <v>1072</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
@@ -28630,7 +28600,7 @@
         <v>1073</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -28663,7 +28633,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -28696,7 +28666,7 @@
         <v>1074</v>
       </c>
       <c r="B60" s="84" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C60" s="84"/>
       <c r="D60" s="84"/>
@@ -28880,82 +28850,82 @@
         <v>1099</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>1505</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>1506</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="G66" s="13" t="s">
         <v>1507</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="H66" s="13" t="s">
         <v>1508</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="I66" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="J66" s="13" t="s">
         <v>1510</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="K66" s="13" t="s">
         <v>1511</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="L66" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="M66" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="N66" s="13" t="s">
         <v>1514</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="O66" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="P66" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="N66" s="13" t="s">
+      <c r="Q66" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="Y66" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="Z66" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="X66" s="1" t="s">
+      <c r="AA66" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="15">
@@ -29082,7 +29052,7 @@
     </row>
     <row r="71" spans="1:27" ht="15">
       <c r="A71" s="6" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B71" s="84"/>
       <c r="C71" s="84"/>
@@ -29113,7 +29083,7 @@
     </row>
     <row r="72" spans="1:27" ht="15">
       <c r="A72" s="6" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B72" s="84"/>
       <c r="C72" s="84"/>
@@ -29144,7 +29114,7 @@
     </row>
     <row r="73" spans="1:27" ht="15">
       <c r="A73" s="6" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B73" s="84"/>
       <c r="C73" s="84"/>
@@ -29207,71 +29177,71 @@
         <v>1145</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="1:27" ht="15">
       <c r="A76" s="6" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>374</v>
@@ -29354,7 +29324,7 @@
     </row>
     <row r="77" spans="1:27" ht="63" customHeight="1">
       <c r="A77" s="42" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -29385,7 +29355,7 @@
     </row>
     <row r="79" spans="1:27" ht="15">
       <c r="A79" s="121" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>59</v>
@@ -29397,73 +29367,73 @@
         <v>98</v>
       </c>
       <c r="E79" s="13" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>1555</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="I79" s="13" t="s">
         <v>1556</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="J79" s="13" t="s">
         <v>1557</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="K79" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="L79" s="13" t="s">
         <v>1559</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="M79" s="13" t="s">
         <v>1560</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="N79" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="L79" s="13" t="s">
+      <c r="O79" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="M79" s="13" t="s">
+      <c r="P79" s="13" t="s">
         <v>1563</v>
       </c>
-      <c r="N79" s="13" t="s">
+      <c r="Q79" s="13" t="s">
         <v>1564</v>
       </c>
-      <c r="O79" s="13" t="s">
+      <c r="R79" s="13" t="s">
         <v>1565</v>
       </c>
-      <c r="P79" s="13" t="s">
+      <c r="S79" s="13" t="s">
         <v>1566</v>
       </c>
-      <c r="Q79" s="13" t="s">
+      <c r="T79" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="R79" s="13" t="s">
+      <c r="U79" s="13" t="s">
         <v>1568</v>
       </c>
-      <c r="S79" s="13" t="s">
+      <c r="V79" s="13" t="s">
         <v>1569</v>
       </c>
-      <c r="T79" s="13" t="s">
+      <c r="W79" s="13" t="s">
         <v>1570</v>
       </c>
-      <c r="U79" s="13" t="s">
+      <c r="X79" s="13" t="s">
         <v>1571</v>
       </c>
-      <c r="V79" s="13" t="s">
+      <c r="Y79" s="13" t="s">
         <v>1572</v>
       </c>
-      <c r="W79" s="13" t="s">
+      <c r="Z79" s="13" t="s">
         <v>1573</v>
       </c>
-      <c r="X79" s="13" t="s">
+      <c r="AA79" s="11" t="s">
         <v>1574</v>
-      </c>
-      <c r="Y79" s="13" t="s">
-        <v>1575</v>
-      </c>
-      <c r="Z79" s="13" t="s">
-        <v>1576</v>
-      </c>
-      <c r="AA79" s="11" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="15">
@@ -29497,10 +29467,10 @@
     </row>
     <row r="81" spans="1:27" ht="15">
       <c r="A81" s="6" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -29621,10 +29591,10 @@
     </row>
     <row r="85" spans="1:27" ht="15">
       <c r="A85" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -29755,33 +29725,33 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="12" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1581</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -29789,33 +29759,33 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1592</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
@@ -29823,7 +29793,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="6" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>364</v>
@@ -29835,7 +29805,7 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
@@ -29843,7 +29813,7 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
@@ -29851,30 +29821,30 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1600</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="8" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
@@ -29891,7 +29861,7 @@
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="6" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="7"/>
@@ -29899,7 +29869,7 @@
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="6" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="7"/>
@@ -29907,7 +29877,7 @@
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="6" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="7"/>
@@ -29921,24 +29891,24 @@
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D23" t="s">
         <v>1610</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>1611</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="15" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>1232</v>
@@ -29972,41 +29942,41 @@
     </row>
     <row r="26" spans="1:5" ht="60">
       <c r="A26" s="22" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60">
       <c r="A27" s="22" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="15" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -30015,41 +29985,41 @@
     </row>
     <row r="29" spans="1:5" ht="60">
       <c r="A29" s="22" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="60">
       <c r="A30" s="22" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="15" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -30058,70 +30028,70 @@
     </row>
     <row r="32" spans="1:5" ht="120">
       <c r="A32" s="22" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60">
       <c r="A33" s="22" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
       <c r="A34" s="23" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C34" s="127" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D34" s="127" t="s">
         <v>1630</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="E34" s="127" t="s">
         <v>1631</v>
-      </c>
-      <c r="C34" s="127" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E34" s="127" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="22" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15">
@@ -30133,7 +30103,7 @@
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="12" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>57</v>
@@ -30144,32 +30114,32 @@
     </row>
     <row r="38" spans="1:5" ht="15">
       <c r="A38" s="6" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="6" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="8" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15">
       <c r="A42" s="12" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>57</v>
@@ -30177,25 +30147,25 @@
     </row>
     <row r="43" spans="1:5" ht="15">
       <c r="A43" s="6" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="6" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="6" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="8" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B46" s="9"/>
     </row>
@@ -30250,18 +30220,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
       <c r="E1" s="100" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" t="str">
@@ -30271,7 +30241,7 @@
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E20" si="0">"initiatorgrp --create "&amp;$A3</f>
@@ -30280,7 +30250,7 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -30411,27 +30381,27 @@
         <v>1070</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="101" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B2" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E2" t="str">
         <f>"initiatorgrp --add_initiators "&amp;$D2&amp;" --label "&amp;$A2&amp;" --initiator_name "&amp;$B2</f>
@@ -30878,37 +30848,37 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>1657</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="E1" s="101" t="s">
         <v>1658</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D1" s="101" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E1" s="101" t="s">
-        <v>1661</v>
       </c>
       <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="B2" s="61">
         <v>4096</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
@@ -30919,404 +30889,404 @@
         <v>4096</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B4" s="61">
         <v>4096</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B5" s="61">
         <v>8192</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="B6" s="61">
         <v>32768</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B7" s="61">
         <v>16384</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B8" s="61">
         <v>4096</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B9" s="61">
         <v>4096</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B10" s="61">
         <v>4096</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B11" s="61">
         <v>4096</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B12" s="61">
         <v>8192</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B13" s="61">
         <v>4096</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B14" s="61">
         <v>8192</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="B15" s="61">
         <v>8192</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B16" s="61">
         <v>8192</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B17" s="61">
         <v>4096</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B18" s="61">
         <v>4096</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="B19" s="61">
         <v>4096</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B20" s="61">
         <v>4096</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B21" s="61">
         <v>4096</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B22" s="61">
         <v>4096</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B23" s="61">
         <v>4096</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B24" s="61">
         <v>4096</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B25" s="61">
         <v>4096</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B26" s="61">
         <v>4096</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
@@ -31420,20 +31390,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C1" s="100"/>
       <c r="D1" s="101"/>
       <c r="E1" s="100" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B2" t="s">
         <v>1414</v>
@@ -31645,43 +31615,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="100" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="100" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>1692</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C1" s="100" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>1695</v>
       </c>
       <c r="H1" s="101"/>
       <c r="J1" s="100" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="K1" s="100" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C2">
         <v>10240</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="F2" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="J2" t="str">
         <f>"vol --create "&amp;A2&amp;" --size "&amp;C2&amp;" --perfpolicy """&amp;B2&amp;""""&amp;" --multi_initiator "&amp;F2</f>
@@ -31692,7 +31662,7 @@
         <v>vol --addacl foo --initiatorgrp ESXi</v>
       </c>
       <c r="M2" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -31707,7 +31677,7 @@
         <v xml:space="preserve">vol --addacl  --initiatorgrp </v>
       </c>
       <c r="M3" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
@@ -37860,7 +37830,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="199" t="s">
         <v>615</v>
       </c>
       <c r="B2" s="152">
@@ -37886,7 +37856,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="201"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="152">
         <v>2501</v>
       </c>
@@ -37910,7 +37880,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="201"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="152">
         <v>2502</v>
       </c>
@@ -37934,7 +37904,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="201"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="152">
         <v>2503</v>
       </c>
@@ -37958,7 +37928,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="201"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="152">
         <v>2504</v>
       </c>
@@ -37982,7 +37952,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="201"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="152">
         <v>2505</v>
       </c>
@@ -38006,7 +37976,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="201"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="152">
         <v>2506</v>
       </c>
@@ -38030,7 +38000,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="201"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="152">
         <v>2507</v>
       </c>
@@ -38054,7 +38024,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="202"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="152">
         <v>2549</v>
       </c>
@@ -38078,7 +38048,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="199" t="s">
         <v>663</v>
       </c>
       <c r="B11" s="152">
@@ -38104,7 +38074,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="201"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="152">
         <v>2551</v>
       </c>
@@ -38128,7 +38098,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="201"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="152">
         <v>2552</v>
       </c>
@@ -38152,7 +38122,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="201"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="152">
         <v>2553</v>
       </c>
@@ -38176,7 +38146,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="201"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="152">
         <v>2554</v>
       </c>
@@ -38200,7 +38170,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="201"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="152">
         <v>2555</v>
       </c>
@@ -38224,7 +38194,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="201"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="152">
         <v>2556</v>
       </c>
@@ -38248,7 +38218,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="203"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="152">
         <v>2557</v>
       </c>
@@ -38272,7 +38242,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="199" t="s">
         <v>673</v>
       </c>
       <c r="B19" s="152">
@@ -38298,7 +38268,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="201"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="152">
         <v>2601</v>
       </c>
@@ -38322,7 +38292,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="201"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="152">
         <v>2602</v>
       </c>
@@ -38346,7 +38316,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="201"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="152">
         <v>2603</v>
       </c>
@@ -38370,7 +38340,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15">
-      <c r="A23" s="201"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="152">
         <v>2604</v>
       </c>
@@ -38394,7 +38364,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15">
-      <c r="A24" s="201"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="152">
         <v>2605</v>
       </c>
@@ -38418,7 +38388,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15">
-      <c r="A25" s="201"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="152">
         <v>2606</v>
       </c>
@@ -38442,7 +38412,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15">
-      <c r="A26" s="203"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="152">
         <v>2607</v>
       </c>
@@ -38466,7 +38436,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
-      <c r="A27" s="201" t="s">
+      <c r="A27" s="199" t="s">
         <v>683</v>
       </c>
       <c r="B27" s="152">
@@ -38492,7 +38462,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15">
-      <c r="A28" s="203"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="152">
         <v>2699</v>
       </c>

--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39a9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA221FA-4C17-4AF4-8F31-58D8E49BF3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA930E48-984B-4285-B109-CD65A1AEE1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="26" r:id="rId1"/>
@@ -23222,7 +23222,7 @@
   </sheetPr>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -24427,8 +24427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concat-my.sharepoint.com/personal/oliver_antwerpen_concat_de/Documents/Kunden/ITSG/DiGeN/posh/xls-wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="101_{BAA6B38C-8C0A-40AE-8FC2-2C92A8B77B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71616498-6AD6-4A7E-A50F-7F20E7A3AC26}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="101_{BAA6B38C-8C0A-40AE-8FC2-2C92A8B77B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68035538-9658-46C4-ADA3-13813A083DF3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="26" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3741" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1761">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -5632,12 +5632,6 @@
     <t>Multi-NIC vMotion</t>
   </si>
   <si>
-    <t>A-EI-0001,A-EI-0002,A-PROD-0001,A-PROD-0002,A-PRODTEST-0001,A-PTODTEST-0002,A-TEST-0001,A-TEST-0002</t>
-  </si>
-  <si>
-    <t>B-EI-0001,B-EI-0002,B-PROD-0001,B-PROD-0002,B-PRODTEST-0001,B-PTODTEST-0002,B-TEST-0001,B-TEST-0002</t>
-  </si>
-  <si>
     <t>storage_volume_names</t>
   </si>
   <si>
@@ -5684,6 +5678,15 @@
   </si>
   <si>
     <t>Disabled</t>
+  </si>
+  <si>
+    <t>Cluster-Name+[0001|0002]</t>
+  </si>
+  <si>
+    <t>Enclosure Group Name</t>
+  </si>
+  <si>
+    <t>Nublar_EG_3e</t>
   </si>
 </sst>
 </file>
@@ -6431,7 +6434,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6860,6 +6863,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6878,22 +6884,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6912,6 +6918,415 @@
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
   <dxfs count="228">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6932,415 +7347,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -11421,13 +11427,13 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle320" displayName="Tabelle320" ref="A6:D21" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabelle320" displayName="Tabelle320" ref="A6:D21" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A6:D21" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="StoreServe Storage System" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="System 1" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="System 2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Bemerkungen" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="StoreServe Storage System" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="System 1" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="System 2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Bemerkungen" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11458,34 +11464,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tabelle28" displayName="Tabelle28" ref="A23:E36" totalsRowShown="0">
   <autoFilter ref="A23:E36" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Subnet Label" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Nimble A iSCSI-A" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Nimble A iSCSI-B" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nimble B iSCSI-A" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{95349553-7808-4F6B-BD41-4FA004C2BE2C}" name="Nimble B iSCSI-B" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Subnet Label" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Nimble A iSCSI-A" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Nimble A iSCSI-B" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nimble B iSCSI-A" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{95349553-7808-4F6B-BD41-4FA004C2BE2C}" name="Nimble B iSCSI-B" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle29" displayName="Tabelle29" ref="A37:C40" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tabelle29" displayName="Tabelle29" ref="A37:C40" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A37:C40" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Mail Notification" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Wert" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{0722E1BD-F75E-41A3-87F7-D2EF06094037}" name="Spalte1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Mail Notification" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Wert" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0722E1BD-F75E-41A3-87F7-D2EF06094037}" name="Spalte1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabelle30" displayName="Tabelle30" ref="A42:B46" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tabelle30" displayName="Tabelle30" ref="A42:B46" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A42:B46" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Call Home" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Wert" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Call Home" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Wert" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11915,26 +11921,26 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="84.33203125" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -12117,7 +12123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72">
+    <row r="15" spans="1:5" ht="75">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -13921,17 +13927,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="89" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15542,16 +15548,16 @@
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="9" width="32.85546875" customWidth="1"/>
+    <col min="10" max="10" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -20136,16 +20142,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="26.5546875" style="89" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="89" customWidth="1"/>
+    <col min="1" max="2" width="26.5703125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="89" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="6" width="25" style="89" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="89" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="89" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="89" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -20180,7 +20186,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="167" t="s">
         <v>789</v>
       </c>
@@ -20218,7 +20224,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="167" t="s">
         <v>789</v>
       </c>
@@ -20332,7 +20338,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="175" t="s">
         <v>789</v>
       </c>
@@ -20370,7 +20376,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="167" t="s">
         <v>789</v>
       </c>
@@ -20545,7 +20551,7 @@
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2">
+    <row r="13" spans="1:10" ht="45">
       <c r="A13" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20580,7 +20586,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20615,7 +20621,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="57.6">
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20650,7 +20656,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="57.6">
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20685,7 +20691,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="58" t="s">
         <v>904</v>
       </c>
@@ -20720,7 +20726,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="58" t="s">
         <v>904</v>
       </c>
@@ -20790,10 +20796,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -20970,12 +20976,12 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -21042,7 +21048,7 @@
       <c r="F6" t="s">
         <v>1087</v>
       </c>
-      <c r="H6" s="205" t="s">
+      <c r="H6" s="206" t="s">
         <v>1088</v>
       </c>
       <c r="I6" s="54"/>
@@ -21068,7 +21074,7 @@
       <c r="F7" t="s">
         <v>1093</v>
       </c>
-      <c r="H7" s="205"/>
+      <c r="H7" s="206"/>
       <c r="I7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -21092,7 +21098,7 @@
       <c r="F8" t="s">
         <v>1098</v>
       </c>
-      <c r="H8" s="205"/>
+      <c r="H8" s="206"/>
       <c r="I8" s="53"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
@@ -21116,7 +21122,7 @@
       <c r="F9" t="s">
         <v>364</v>
       </c>
-      <c r="H9" s="205"/>
+      <c r="H9" s="206"/>
       <c r="I9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
@@ -21140,7 +21146,7 @@
       <c r="F10" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="205"/>
+      <c r="H10" s="206"/>
       <c r="I10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
@@ -21149,7 +21155,7 @@
       <c r="A11" t="s">
         <v>1074</v>
       </c>
-      <c r="H11" s="205"/>
+      <c r="H11" s="206"/>
       <c r="I11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -21158,7 +21164,7 @@
       <c r="A12" t="s">
         <v>1075</v>
       </c>
-      <c r="H12" s="205"/>
+      <c r="H12" s="206"/>
       <c r="I12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
@@ -21167,52 +21173,52 @@
       <c r="A13" t="s">
         <v>1076</v>
       </c>
-      <c r="H13" s="205"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="H14" s="205"/>
+      <c r="H14" s="206"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>1077</v>
       </c>
-      <c r="H15" s="205"/>
+      <c r="H15" s="206"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>1072</v>
       </c>
-      <c r="H16" s="205"/>
+      <c r="H16" s="206"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>1073</v>
       </c>
-      <c r="H17" s="205"/>
+      <c r="H17" s="206"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>1074</v>
       </c>
-      <c r="H18" s="205"/>
+      <c r="H18" s="206"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>1075</v>
       </c>
-      <c r="H19" s="205"/>
+      <c r="H19" s="206"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>1076</v>
       </c>
-      <c r="H20" s="205"/>
+      <c r="H20" s="206"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="H21" s="205"/>
+      <c r="H21" s="206"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
@@ -21233,7 +21239,7 @@
       <c r="F22" t="s">
         <v>1104</v>
       </c>
-      <c r="H22" s="205"/>
+      <c r="H22" s="206"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
@@ -21254,7 +21260,7 @@
       <c r="F23" t="s">
         <v>1110</v>
       </c>
-      <c r="H23" s="205"/>
+      <c r="H23" s="206"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
@@ -21275,7 +21281,7 @@
       <c r="F24" t="s">
         <v>364</v>
       </c>
-      <c r="H24" s="205"/>
+      <c r="H24" s="206"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
@@ -21301,7 +21307,7 @@
       <c r="F25" t="s">
         <v>1113</v>
       </c>
-      <c r="H25" s="205"/>
+      <c r="H25" s="206"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
@@ -21309,7 +21315,7 @@
       <c r="O25" s="52"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="H26" s="205"/>
+      <c r="H26" s="206"/>
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
@@ -21320,7 +21326,7 @@
       <c r="A27" t="s">
         <v>1114</v>
       </c>
-      <c r="H27" s="205"/>
+      <c r="H27" s="206"/>
       <c r="K27" s="54"/>
       <c r="L27" s="54"/>
       <c r="M27" s="52"/>
@@ -21331,7 +21337,7 @@
       <c r="A28" t="s">
         <v>1111</v>
       </c>
-      <c r="H28" s="205"/>
+      <c r="H28" s="206"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="52"/>
@@ -21342,7 +21348,7 @@
       <c r="A29" t="s">
         <v>1112</v>
       </c>
-      <c r="H29" s="205"/>
+      <c r="H29" s="206"/>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="52"/>
@@ -21350,7 +21356,7 @@
       <c r="O29" s="52"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="H30" s="205"/>
+      <c r="H30" s="206"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="52"/>
@@ -21358,7 +21364,7 @@
       <c r="O30" s="52"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="H31" s="205"/>
+      <c r="H31" s="206"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="52"/>
@@ -21384,7 +21390,7 @@
       <c r="F32" t="s">
         <v>1118</v>
       </c>
-      <c r="H32" s="205"/>
+      <c r="H32" s="206"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="52"/>
@@ -21410,7 +21416,7 @@
       <c r="F33" t="s">
         <v>1124</v>
       </c>
-      <c r="H33" s="205"/>
+      <c r="H33" s="206"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="52"/>
@@ -21421,7 +21427,7 @@
       <c r="A34" t="s">
         <v>1125</v>
       </c>
-      <c r="H34" s="205"/>
+      <c r="H34" s="206"/>
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="52"/>
@@ -21447,7 +21453,7 @@
       <c r="F35" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="205"/>
+      <c r="H35" s="206"/>
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="52"/>
@@ -21473,7 +21479,7 @@
       <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="205"/>
+      <c r="H36" s="206"/>
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="52"/>
@@ -21481,7 +21487,7 @@
       <c r="O36" s="52"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="H37" s="205"/>
+      <c r="H37" s="206"/>
       <c r="K37" s="52"/>
       <c r="L37" s="53"/>
       <c r="M37" s="52"/>
@@ -21492,7 +21498,7 @@
       <c r="A38" t="s">
         <v>1126</v>
       </c>
-      <c r="H38" s="205"/>
+      <c r="H38" s="206"/>
       <c r="K38" s="53"/>
       <c r="L38" s="52"/>
       <c r="M38" s="52"/>
@@ -21503,7 +21509,7 @@
       <c r="A39" t="s">
         <v>1125</v>
       </c>
-      <c r="H39" s="205"/>
+      <c r="H39" s="206"/>
       <c r="K39" s="53"/>
       <c r="L39" s="52"/>
       <c r="M39" s="52"/>
@@ -21511,7 +21517,7 @@
       <c r="O39" s="52"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="H40" s="205"/>
+      <c r="H40" s="206"/>
       <c r="K40" s="53"/>
       <c r="L40" s="52"/>
       <c r="M40" s="52"/>
@@ -21522,7 +21528,7 @@
       <c r="A41" t="s">
         <v>1073</v>
       </c>
-      <c r="H41" s="205"/>
+      <c r="H41" s="206"/>
       <c r="K41" s="53"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52"/>
@@ -21530,7 +21536,7 @@
       <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="H42" s="205"/>
+      <c r="H42" s="206"/>
       <c r="K42" s="53"/>
       <c r="L42" s="52"/>
       <c r="M42" s="52"/>
@@ -21538,7 +21544,7 @@
       <c r="O42" s="52"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="H43" s="205"/>
+      <c r="H43" s="206"/>
       <c r="K43" s="53"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
@@ -21564,7 +21570,7 @@
       <c r="F44" t="s">
         <v>1132</v>
       </c>
-      <c r="H44" s="205"/>
+      <c r="H44" s="206"/>
       <c r="K44" s="53"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
@@ -21796,11 +21802,11 @@
       <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.5546875" customWidth="1"/>
+    <col min="1" max="1" width="91.5703125" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="4" width="35.33203125" customWidth="1"/>
+    <col min="3" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -22115,15 +22121,15 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
     <col min="6" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22578,11 +22584,17 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1760</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>1760</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
@@ -22619,20 +22631,20 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="183" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="183" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="183"/>
-    <col min="4" max="4" width="12.44140625" style="183" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" style="183" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="183" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="183" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" style="183" customWidth="1"/>
-    <col min="11" max="12" width="14.44140625" style="183" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="183" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="183" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="183"/>
+    <col min="4" max="4" width="12.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="183" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -23082,34 +23094,34 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="209" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="207" t="s">
         <v>1280</v>
       </c>
-      <c r="B1" s="210"/>
+      <c r="B1" s="208"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="209" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="210"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="161" t="s">
@@ -23136,10 +23148,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="209" t="s">
         <v>1287</v>
       </c>
-      <c r="B6" s="208"/>
+      <c r="B6" s="210"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="161" t="s">
@@ -23158,10 +23170,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="209" t="s">
         <v>1290</v>
       </c>
-      <c r="B9" s="208"/>
+      <c r="B9" s="210"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="161" t="s">
@@ -23195,7 +23207,7 @@
         <v>1741</v>
       </c>
       <c r="B13" s="162" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -23206,7 +23218,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="165" t="s">
         <v>1298</v>
       </c>
@@ -23214,7 +23226,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="189" t="s">
         <v>1723</v>
       </c>
@@ -23236,12 +23248,12 @@
         <v>1740</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="103" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B20" t="s">
         <v>1726</v>
@@ -23256,10 +23268,10 @@
         <v>373</v>
       </c>
       <c r="F20" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="189" t="s">
         <v>1730</v>
       </c>
@@ -23288,7 +23300,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="189" t="s">
         <v>1732</v>
       </c>
@@ -23314,7 +23326,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="189" t="s">
         <v>1308</v>
       </c>
@@ -23631,20 +23643,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.109375" customWidth="1"/>
-    <col min="3" max="3" width="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="193" t="s">
         <v>1377</v>
       </c>
@@ -23670,8 +23681,8 @@
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
       <c r="J2" s="75"/>
@@ -23750,7 +23761,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="75" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>1383</v>
@@ -23768,7 +23779,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="75" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B8" s="195" t="s">
         <v>1384</v>
@@ -23800,13 +23811,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="75" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
@@ -23816,15 +23827,15 @@
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="196" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B11" s="196" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C11" s="196" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="D11" s="196"/>
       <c r="E11" s="196"/>
@@ -23834,7 +23845,7 @@
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
-    <row r="12" spans="1:10" ht="18">
+    <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="190" t="s">
         <v>1386</v>
       </c>
@@ -23850,7 +23861,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="161" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>1387</v>
@@ -23914,7 +23925,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="161" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>1391</v>
@@ -23942,7 +23953,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="161" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>1391</v>
@@ -23971,7 +23982,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="179" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>1391</v>
@@ -23993,7 +24004,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="161" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B24" s="75" t="s">
         <v>1391</v>
@@ -24017,9 +24028,9 @@
       <c r="F25" s="75"/>
       <c r="G25" s="75"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="165" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B26" s="196" t="s">
         <v>1391</v>
@@ -24032,7 +24043,7 @@
       <c r="F26" s="196"/>
       <c r="G26" s="75"/>
     </row>
-    <row r="27" spans="1:10" ht="18">
+    <row r="27" spans="1:10" ht="18.75">
       <c r="A27" s="190" t="s">
         <v>1399</v>
       </c>
@@ -24054,20 +24065,20 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="197" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B29" s="197" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C29" s="197" t="s">
-        <v>1743</v>
+        <v>1758</v>
+      </c>
+      <c r="C29" s="200" t="s">
+        <v>1758</v>
       </c>
       <c r="D29" s="197"/>
       <c r="E29" s="75"/>
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
     </row>
-    <row r="30" spans="1:10" ht="18">
+    <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="197" t="s">
         <v>1400</v>
       </c>
@@ -24089,13 +24100,13 @@
       <c r="B31" s="197" t="s">
         <v>1403</v>
       </c>
-      <c r="C31" s="212" t="s">
+      <c r="C31" s="213" t="s">
         <v>1403</v>
       </c>
-      <c r="D31" s="212"/>
+      <c r="D31" s="213"/>
       <c r="E31" s="75"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
     </row>
     <row r="32" spans="1:10">
       <c r="E32" s="75"/>
@@ -24109,8 +24120,8 @@
     </row>
     <row r="34" spans="1:7">
       <c r="E34" s="75"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
     </row>
     <row r="35" spans="1:7">
       <c r="E35" s="75"/>
@@ -24175,10 +24186,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24214,53 +24225,53 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="201"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="201"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="A8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="201"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
+      <c r="A9" s="202"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="201"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
+      <c r="A10" s="202"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="201"/>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="201"/>
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
@@ -24298,18 +24309,18 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="201"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="201"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
+      <c r="A24" s="202"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="20" t="s">
@@ -24354,18 +24365,18 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -24898,12 +24909,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25937,12 +25948,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" style="75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" style="75" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="75"/>
+    <col min="4" max="16384" width="11.42578125" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25955,12 +25966,12 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="408.9" customHeight="1">
-      <c r="A4" s="213" t="s">
+    <row r="4" spans="1:3" ht="408.95" customHeight="1">
+      <c r="A4" s="214" t="s">
         <v>1406</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="155"/>
@@ -26119,21 +26130,21 @@
       <selection pane="topRight" activeCell="A14" sqref="A14:B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -28882,13 +28893,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29144,7 +29155,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6">
+    <row r="26" spans="1:5" ht="60">
       <c r="A26" s="22" t="s">
         <v>1582</v>
       </c>
@@ -29161,7 +29172,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="57.6">
+    <row r="27" spans="1:5" ht="60">
       <c r="A27" s="22" t="s">
         <v>1584</v>
       </c>
@@ -29187,7 +29198,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" ht="57.6">
+    <row r="29" spans="1:5" ht="60">
       <c r="A29" s="22" t="s">
         <v>1587</v>
       </c>
@@ -29204,7 +29215,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="57.6">
+    <row r="30" spans="1:5" ht="60">
       <c r="A30" s="22" t="s">
         <v>1589</v>
       </c>
@@ -29230,7 +29241,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" ht="115.2">
+    <row r="32" spans="1:5" ht="120">
       <c r="A32" s="22" t="s">
         <v>1592</v>
       </c>
@@ -29247,7 +29258,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="57.6">
+    <row r="33" spans="1:5" ht="60">
       <c r="A33" s="22" t="s">
         <v>1595</v>
       </c>
@@ -29264,7 +29275,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="23" t="s">
         <v>1596</v>
       </c>
@@ -29281,7 +29292,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8">
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="22" t="s">
         <v>1601</v>
       </c>
@@ -29376,17 +29387,17 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B7:C10">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C40">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>ISTFEHLER</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29413,13 +29424,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
@@ -29433,7 +29444,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>1616</v>
       </c>
@@ -29570,14 +29581,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="89" customWidth="1"/>
-    <col min="5" max="5" width="106.109375" customWidth="1"/>
-    <col min="6" max="6" width="75.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="89" customWidth="1"/>
+    <col min="5" max="5" width="106.140625" customWidth="1"/>
+    <col min="6" max="6" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1">
@@ -29597,7 +29608,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>1621</v>
       </c>
@@ -30041,13 +30052,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
@@ -30068,7 +30079,7 @@
       </c>
       <c r="F1" s="100"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>1628</v>
       </c>
@@ -30584,12 +30595,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
@@ -30605,7 +30616,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>1657</v>
       </c>
@@ -30801,20 +30812,20 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="3" style="89" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="79" customWidth="1"/>
     <col min="11" max="11" width="50" customWidth="1"/>
-    <col min="12" max="12" width="48.33203125" customWidth="1"/>
+    <col min="12" max="12" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="100" customFormat="1" ht="18" thickBot="1">
@@ -30841,7 +30852,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>1664</v>
       </c>
@@ -32073,10 +32084,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="1" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -32135,7 +32146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="57.6">
+    <row r="7" spans="1:12" ht="60">
       <c r="A7" s="91" t="s">
         <v>61</v>
       </c>
@@ -32175,7 +32186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="91" t="s">
         <v>73</v>
       </c>
@@ -32195,7 +32206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8">
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="91" t="s">
         <v>78</v>
       </c>
@@ -33014,14 +33025,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="1:3" ht="20.25" thickBot="1">
       <c r="A1" s="181" t="s">
         <v>183</v>
       </c>
@@ -33032,7 +33043,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -33289,23 +33300,23 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="58" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="58"/>
+    <col min="1" max="1" width="33.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="58" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.2">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="57" t="s">
         <v>215</v>
       </c>
@@ -33540,7 +33551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8">
+    <row r="8" spans="1:14" ht="30">
       <c r="A8" s="65" t="s">
         <v>252</v>
       </c>
@@ -33853,7 +33864,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="46.8">
+    <row r="19" spans="1:14" ht="47.25">
       <c r="A19" s="66" t="s">
         <v>290</v>
       </c>
@@ -33897,7 +33908,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.6">
+    <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="68" t="s">
         <v>227</v>
       </c>
@@ -33939,7 +33950,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="31.2">
+    <row r="21" spans="1:14" ht="31.5">
       <c r="A21" s="72" t="s">
         <v>305</v>
       </c>
@@ -33981,7 +33992,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="31.2">
+    <row r="22" spans="1:14" ht="31.5">
       <c r="A22" s="72" t="s">
         <v>235</v>
       </c>
@@ -34023,7 +34034,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.6">
+    <row r="23" spans="1:14" ht="15.75">
       <c r="A23" s="68" t="s">
         <v>239</v>
       </c>
@@ -34065,7 +34076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.6">
+    <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="68" t="s">
         <v>244</v>
       </c>
@@ -34107,7 +34118,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.6">
+    <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="68" t="s">
         <v>248</v>
       </c>
@@ -34149,7 +34160,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="31.2">
+    <row r="26" spans="1:14" ht="31.5">
       <c r="A26" s="73" t="s">
         <v>252</v>
       </c>
@@ -34191,7 +34202,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.6">
+    <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="68" t="s">
         <v>264</v>
       </c>
@@ -34233,7 +34244,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.6">
+    <row r="28" spans="1:14" ht="15.75">
       <c r="A28" s="68" t="s">
         <v>256</v>
       </c>
@@ -34275,7 +34286,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.6">
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="68" t="s">
         <v>268</v>
       </c>
@@ -34317,7 +34328,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.6">
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="68" t="s">
         <v>260</v>
       </c>
@@ -34359,7 +34370,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.6">
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="68" t="s">
         <v>308</v>
       </c>
@@ -34401,7 +34412,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.6">
+    <row r="32" spans="1:14" ht="15.75">
       <c r="A32" s="68" t="s">
         <v>281</v>
       </c>
@@ -34491,7 +34502,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="28.8">
+    <row r="37" spans="1:14" ht="30">
       <c r="A37" s="74" t="s">
         <v>321</v>
       </c>
@@ -34529,7 +34540,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="28.8">
+    <row r="38" spans="1:14" ht="30">
       <c r="A38" s="74" t="s">
         <v>328</v>
       </c>
@@ -34567,7 +34578,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="28.8">
+    <row r="39" spans="1:14" ht="30">
       <c r="A39" s="74" t="s">
         <v>333</v>
       </c>
@@ -34605,7 +34616,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="28.8">
+    <row r="40" spans="1:14" ht="30">
       <c r="A40" s="74" t="s">
         <v>338</v>
       </c>
@@ -34643,7 +34654,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="28.8">
+    <row r="41" spans="1:14" ht="30">
       <c r="A41" s="74" t="s">
         <v>343</v>
       </c>
@@ -34681,7 +34692,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="28.8">
+    <row r="42" spans="1:14" ht="30">
       <c r="A42" s="74" t="s">
         <v>349</v>
       </c>
@@ -34719,7 +34730,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="28.8">
+    <row r="43" spans="1:14" ht="30">
       <c r="A43" s="74" t="s">
         <v>354</v>
       </c>
@@ -34757,7 +34768,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="28.8">
+    <row r="44" spans="1:14" ht="30">
       <c r="A44" s="74" t="s">
         <v>359</v>
       </c>
@@ -34795,7 +34806,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="28.8">
+    <row r="45" spans="1:14" ht="30">
       <c r="A45" s="74" t="s">
         <v>115</v>
       </c>
@@ -34833,7 +34844,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="28.8">
+    <row r="46" spans="1:14" ht="30">
       <c r="A46" s="74" t="s">
         <v>123</v>
       </c>
@@ -34871,7 +34882,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="28.8">
+    <row r="47" spans="1:14" ht="30">
       <c r="A47" s="74" t="s">
         <v>128</v>
       </c>
@@ -34909,7 +34920,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="28.8">
+    <row r="48" spans="1:14" ht="30">
       <c r="A48" s="74" t="s">
         <v>133</v>
       </c>
@@ -34947,7 +34958,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="28.8">
+    <row r="49" spans="1:14" ht="30">
       <c r="A49" s="74" t="s">
         <v>137</v>
       </c>
@@ -34985,7 +34996,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="28.8">
+    <row r="50" spans="1:14" ht="30">
       <c r="A50" s="74" t="s">
         <v>141</v>
       </c>
@@ -35023,7 +35034,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="28.8">
+    <row r="51" spans="1:14" ht="30">
       <c r="A51" s="74" t="s">
         <v>145</v>
       </c>
@@ -35061,7 +35072,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="28.8">
+    <row r="52" spans="1:14" ht="30">
       <c r="A52" s="81" t="s">
         <v>149</v>
       </c>
@@ -35102,7 +35113,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="28.8">
+    <row r="53" spans="1:14" ht="30">
       <c r="A53" s="81" t="s">
         <v>154</v>
       </c>
@@ -35143,7 +35154,7 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="28.8">
+    <row r="54" spans="1:14" ht="30">
       <c r="A54" s="81" t="s">
         <v>159</v>
       </c>
@@ -35184,7 +35195,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="28.8">
+    <row r="55" spans="1:14" ht="30">
       <c r="A55" s="74" t="s">
         <v>163</v>
       </c>
@@ -35222,7 +35233,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="28.8">
+    <row r="56" spans="1:14" ht="30">
       <c r="A56" s="74" t="s">
         <v>167</v>
       </c>
@@ -35260,7 +35271,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="28.8">
+    <row r="57" spans="1:14" ht="30">
       <c r="A57" s="74" t="s">
         <v>171</v>
       </c>
@@ -35298,7 +35309,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="28.8">
+    <row r="58" spans="1:14" ht="30">
       <c r="A58" s="74" t="s">
         <v>175</v>
       </c>
@@ -35336,7 +35347,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="28.8">
+    <row r="59" spans="1:14" ht="30">
       <c r="A59" s="74" t="s">
         <v>416</v>
       </c>
@@ -35377,7 +35388,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="28.8">
+    <row r="60" spans="1:14" ht="30">
       <c r="A60" s="74" t="s">
         <v>421</v>
       </c>
@@ -35406,7 +35417,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="28.8">
+    <row r="61" spans="1:14" ht="30">
       <c r="A61" s="74" t="s">
         <v>426</v>
       </c>
@@ -35444,7 +35455,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="28.8">
+    <row r="62" spans="1:14" ht="30">
       <c r="A62" s="74" t="s">
         <v>432</v>
       </c>
@@ -35473,7 +35484,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="28.8">
+    <row r="63" spans="1:14" ht="30">
       <c r="A63" s="74" t="s">
         <v>437</v>
       </c>
@@ -35502,7 +35513,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="28.8">
+    <row r="64" spans="1:14" ht="30">
       <c r="A64" s="74" t="s">
         <v>442</v>
       </c>
@@ -35531,7 +35542,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="28.8">
+    <row r="65" spans="1:14" ht="30">
       <c r="A65" s="74" t="s">
         <v>447</v>
       </c>
@@ -35560,7 +35571,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="28.8">
+    <row r="66" spans="1:14" ht="30">
       <c r="A66" s="74" t="s">
         <v>452</v>
       </c>
@@ -35589,7 +35600,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="28.8">
+    <row r="67" spans="1:14" ht="30">
       <c r="A67" s="74" t="s">
         <v>457</v>
       </c>
@@ -35618,7 +35629,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.8">
+    <row r="68" spans="1:14" ht="30">
       <c r="A68" s="74" t="s">
         <v>462</v>
       </c>
@@ -35647,7 +35658,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="28.8">
+    <row r="69" spans="1:14" ht="30">
       <c r="A69" s="74" t="s">
         <v>467</v>
       </c>
@@ -35676,7 +35687,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="28.8">
+    <row r="70" spans="1:14" ht="30">
       <c r="A70" s="74" t="s">
         <v>472</v>
       </c>
@@ -35705,7 +35716,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="28.8">
+    <row r="71" spans="1:14" ht="30">
       <c r="A71" s="74" t="s">
         <v>477</v>
       </c>
@@ -35734,7 +35745,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="28.8">
+    <row r="72" spans="1:14" ht="30">
       <c r="A72" s="74" t="s">
         <v>482</v>
       </c>
@@ -35763,7 +35774,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="28.8">
+    <row r="73" spans="1:14" ht="30">
       <c r="A73" s="74" t="s">
         <v>487</v>
       </c>
@@ -35840,7 +35851,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="28.8">
+    <row r="76" spans="1:14" ht="30">
       <c r="A76" s="74" t="s">
         <v>492</v>
       </c>
@@ -35881,7 +35892,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="28.8">
+    <row r="77" spans="1:14" ht="30">
       <c r="A77" s="74" t="s">
         <v>498</v>
       </c>
@@ -35922,7 +35933,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.8">
+    <row r="78" spans="1:14" ht="30">
       <c r="A78" s="74" t="s">
         <v>505</v>
       </c>
@@ -35948,7 +35959,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="28.8">
+    <row r="79" spans="1:14" ht="30">
       <c r="A79" s="74" t="s">
         <v>510</v>
       </c>
@@ -35974,7 +35985,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="28.8">
+    <row r="80" spans="1:14" ht="30">
       <c r="A80" s="74" t="s">
         <v>515</v>
       </c>
@@ -36000,7 +36011,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="28.8">
+    <row r="81" spans="1:14" ht="30">
       <c r="A81" s="74" t="s">
         <v>520</v>
       </c>
@@ -36026,7 +36037,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="28.8">
+    <row r="82" spans="1:14" ht="30">
       <c r="A82" s="74" t="s">
         <v>525</v>
       </c>
@@ -36052,7 +36063,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="28.8">
+    <row r="83" spans="1:14" ht="30">
       <c r="A83" s="74" t="s">
         <v>530</v>
       </c>
@@ -36119,7 +36130,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="28.8">
+    <row r="86" spans="1:14" ht="30">
       <c r="A86" s="62" t="s">
         <v>535</v>
       </c>
@@ -36160,7 +36171,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="28.8">
+    <row r="87" spans="1:14" ht="30">
       <c r="A87" s="62" t="s">
         <v>541</v>
       </c>
@@ -36242,7 +36253,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="28.8">
+    <row r="90" spans="1:14" ht="30">
       <c r="A90" s="62" t="s">
         <v>548</v>
       </c>
@@ -36283,7 +36294,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="28.8">
+    <row r="91" spans="1:14" ht="30">
       <c r="A91" s="62" t="s">
         <v>554</v>
       </c>
@@ -36469,7 +36480,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="28.8">
+    <row r="104" spans="1:14" ht="30">
       <c r="A104" s="58" t="s">
         <v>566</v>
       </c>
@@ -36548,7 +36559,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="28.8">
+    <row r="107" spans="1:14" ht="30">
       <c r="A107" s="58" t="s">
         <v>574</v>
       </c>
@@ -36627,7 +36638,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="28.8">
+    <row r="110" spans="1:14" ht="30">
       <c r="A110" s="58" t="s">
         <v>579</v>
       </c>
@@ -36706,7 +36717,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="28.8">
+    <row r="113" spans="1:14" ht="30">
       <c r="A113" s="58" t="s">
         <v>584</v>
       </c>
@@ -36785,7 +36796,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="28.8">
+    <row r="116" spans="1:14" ht="30">
       <c r="A116" s="58" t="s">
         <v>590</v>
       </c>
@@ -36864,7 +36875,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="28.8">
+    <row r="119" spans="1:14" ht="30">
       <c r="A119" s="58" t="s">
         <v>596</v>
       </c>
@@ -36943,7 +36954,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="28.8">
+    <row r="122" spans="1:14" ht="30">
       <c r="A122" s="58" t="s">
         <v>601</v>
       </c>
@@ -36995,16 +37006,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1">
@@ -37033,8 +37044,8 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
-      <c r="A2" s="202" t="s">
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="203" t="s">
         <v>615</v>
       </c>
       <c r="B2" s="152">
@@ -37059,8 +37070,8 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8">
-      <c r="A3" s="202"/>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="203"/>
       <c r="B3" s="152">
         <v>2501</v>
       </c>
@@ -37083,8 +37094,8 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8">
-      <c r="A4" s="202"/>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="203"/>
       <c r="B4" s="152">
         <v>2502</v>
       </c>
@@ -37107,8 +37118,8 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8">
-      <c r="A5" s="202"/>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="203"/>
       <c r="B5" s="152">
         <v>2503</v>
       </c>
@@ -37131,8 +37142,8 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8">
-      <c r="A6" s="202"/>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="203"/>
       <c r="B6" s="152">
         <v>2504</v>
       </c>
@@ -37155,8 +37166,8 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8">
-      <c r="A7" s="202"/>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="203"/>
       <c r="B7" s="152">
         <v>2505</v>
       </c>
@@ -37179,8 +37190,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8">
-      <c r="A8" s="202"/>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="203"/>
       <c r="B8" s="152">
         <v>2506</v>
       </c>
@@ -37203,8 +37214,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8">
-      <c r="A9" s="202"/>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="203"/>
       <c r="B9" s="152">
         <v>2507</v>
       </c>
@@ -37227,8 +37238,8 @@
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="203"/>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" s="204"/>
       <c r="B10" s="152">
         <v>2549</v>
       </c>
@@ -37251,8 +37262,8 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8">
-      <c r="A11" s="202" t="s">
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="203" t="s">
         <v>663</v>
       </c>
       <c r="B11" s="152">
@@ -37277,8 +37288,8 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8">
-      <c r="A12" s="202"/>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="203"/>
       <c r="B12" s="152">
         <v>2551</v>
       </c>
@@ -37301,8 +37312,8 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
-      <c r="A13" s="202"/>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="203"/>
       <c r="B13" s="152">
         <v>2552</v>
       </c>
@@ -37325,8 +37336,8 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8">
-      <c r="A14" s="202"/>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="203"/>
       <c r="B14" s="152">
         <v>2553</v>
       </c>
@@ -37349,8 +37360,8 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8">
-      <c r="A15" s="202"/>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="203"/>
       <c r="B15" s="152">
         <v>2554</v>
       </c>
@@ -37373,8 +37384,8 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8">
-      <c r="A16" s="202"/>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="203"/>
       <c r="B16" s="152">
         <v>2555</v>
       </c>
@@ -37397,8 +37408,8 @@
         <v>670</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8">
-      <c r="A17" s="202"/>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="203"/>
       <c r="B17" s="152">
         <v>2556</v>
       </c>
@@ -37421,8 +37432,8 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8">
-      <c r="A18" s="204"/>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" s="205"/>
       <c r="B18" s="152">
         <v>2557</v>
       </c>
@@ -37446,7 +37457,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="202" t="s">
+      <c r="A19" s="203" t="s">
         <v>673</v>
       </c>
       <c r="B19" s="152">
@@ -37472,7 +37483,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="202"/>
+      <c r="A20" s="203"/>
       <c r="B20" s="152">
         <v>2601</v>
       </c>
@@ -37496,7 +37507,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="202"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="152">
         <v>2602</v>
       </c>
@@ -37520,7 +37531,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="202"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="152">
         <v>2603</v>
       </c>
@@ -37544,7 +37555,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="202"/>
+      <c r="A23" s="203"/>
       <c r="B23" s="152">
         <v>2604</v>
       </c>
@@ -37568,7 +37579,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="202"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="152">
         <v>2605</v>
       </c>
@@ -37592,7 +37603,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="202"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="152">
         <v>2606</v>
       </c>
@@ -37616,7 +37627,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="204"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="152">
         <v>2607</v>
       </c>
@@ -37640,7 +37651,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="202" t="s">
+      <c r="A27" s="203" t="s">
         <v>683</v>
       </c>
       <c r="B27" s="152">
@@ -37666,7 +37677,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="204"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="152">
         <v>2699</v>
       </c>
@@ -37759,13 +37770,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -38040,10 +38051,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -38171,11 +38182,11 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -38317,11 +38328,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38501,26 +38513,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38544,9 +38547,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concat-my.sharepoint.com/personal/oliver_antwerpen_concat_de/Documents/Kunden/ITSG/DiGeN/posh/xls-wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="101_{BAA6B38C-8C0A-40AE-8FC2-2C92A8B77B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68035538-9658-46C4-ADA3-13813A083DF3}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="101_{BAA6B38C-8C0A-40AE-8FC2-2C92A8B77B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1216B8F-58C8-4AA5-9F09-8D4D23BF69A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1095" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="26" r:id="rId1"/>
@@ -29,10 +29,10 @@
     <sheet name="Simplivity Checkliste" sheetId="25" r:id="rId14"/>
     <sheet name="Apollo 4510 Konfig" sheetId="24" r:id="rId15"/>
     <sheet name="Synergy-MGMT" sheetId="21" r:id="rId16"/>
-    <sheet name="Synergy-Subnets" sheetId="44" r:id="rId17"/>
-    <sheet name="Synergy-VMware" sheetId="41" r:id="rId18"/>
-    <sheet name="Synergy-Nimble" sheetId="46" r:id="rId19"/>
-    <sheet name="Synergy-Networks" sheetId="45" r:id="rId20"/>
+    <sheet name="Synergy-Networks" sheetId="45" r:id="rId17"/>
+    <sheet name="Synergy-Subnets" sheetId="44" r:id="rId18"/>
+    <sheet name="Synergy-VMware" sheetId="41" r:id="rId19"/>
+    <sheet name="Synergy-Nimble" sheetId="46" r:id="rId20"/>
     <sheet name="VirtualConnect Konfig" sheetId="22" r:id="rId21"/>
     <sheet name="Synergy-Hypervisor Template" sheetId="40" r:id="rId22"/>
     <sheet name="Synergy-Compute Konfig" sheetId="23" r:id="rId23"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1763">
   <si>
     <t>Bitte über "Zellen einfügen" immer eine neue Zeile "5" erstellen! Danke :-)</t>
   </si>
@@ -5687,6 +5687,12 @@
   </si>
   <si>
     <t>Nublar_EG_3e</t>
+  </si>
+  <si>
+    <t>zonePrefix</t>
+  </si>
+  <si>
+    <t>FFM</t>
   </si>
 </sst>
 </file>
@@ -11242,20 +11248,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{926181DA-CBAF-4928-B5F3-0E1A0777033E}" name="Tabelle6" displayName="Tabelle6" ref="B1:L14" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
-  <autoFilter ref="B1:L14" xr:uid="{7766A357-26C6-4690-9C18-F7F16C78F028}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C9F95E78-00F2-4748-9AB8-00A9D57E226E}" name="Name" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{851B9CAB-3BBD-4E47-A479-93E1A6BB9555}" name="Purpose" dataDxfId="157"/>
-    <tableColumn id="3" xr3:uid="{A094AA9D-9339-475A-8F8A-F754CEB9212E}" name="Type" dataDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{EA1F4E56-4974-4FF2-85B3-5E643B75708A}" name="VlanID" dataDxfId="155"/>
-    <tableColumn id="5" xr3:uid="{78D39E12-D3F8-4781-8503-8CC2A850C2F1}" name="IPv4Subnet" dataDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{9DF7F43F-8572-4BCB-93D1-4C30EA4AD9B8}" name="Smartlink" dataDxfId="153"/>
-    <tableColumn id="7" xr3:uid="{49A6667C-83D4-4F03-9106-AB0608531672}" name="PrivateNetwork" dataDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{EAFB87E3-07E7-4775-B47E-180417067E4A}" name="PreferredBandwidth" dataDxfId="151"/>
-    <tableColumn id="9" xr3:uid="{754AAC91-91D1-4378-9CB5-6E6BCC850CC0}" name="MaxBandwidth" dataDxfId="150"/>
-    <tableColumn id="10" xr3:uid="{3AD5FFD1-969B-4E24-88F2-117DE0453AF1}" name="UplinkSet" dataDxfId="149"/>
-    <tableColumn id="11" xr3:uid="{BE8875EA-34F5-40B2-8014-2AB67DD3D586}" name="NetworkSet" dataDxfId="148"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{88638CF4-4B51-404C-8ECA-437A98720BB3}" name="Tabelle18" displayName="Tabelle18" ref="A1:L22" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+  <autoFilter ref="A1:L22" xr:uid="{C8ED7277-4C2A-4869-8F71-893322FE1EB5}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{32C158CD-E5C1-412C-ABEA-31B90FA6B0A1}" name="Zone" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{DD857513-5BB8-4A19-A194-7BE5C5F37A1A}" name="Name" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{DE020B8F-E6A1-4D23-8127-7275F9462DD3}" name="Type" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{2C53B1A8-030C-4B38-A4E7-2E018389656A}" name="SubnetID" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{C7E4B0B1-3549-4510-9B57-5223172FA28A}" name="SubnetMask" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{8A385309-2507-47B6-82B5-C0E2CBE39764}" name="Gateway" dataDxfId="167"/>
+    <tableColumn id="7" xr3:uid="{09E71725-F923-4B72-B9DD-5B3B364574C4}" name="Domain" dataDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{96D404E1-7F74-4453-A0DB-60FF50E3D812}" name="DnsServer1" dataDxfId="165"/>
+    <tableColumn id="12" xr3:uid="{F3010178-84F9-4A15-9AD7-01380702506A}" name="DnsServer2" dataDxfId="164"/>
+    <tableColumn id="11" xr3:uid="{211E2654-FDFA-48B9-A2B6-7AB540F65AE4}" name="DnsServer3" dataDxfId="163"/>
+    <tableColumn id="9" xr3:uid="{4D5427C1-341C-4D2D-ADE4-9B2640B412A6}" name="RangeStart" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{6FE1C019-96E8-4C58-B4C7-CA4EEA6C76B5}" name="RangeEnd" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11573,21 +11580,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{88638CF4-4B51-404C-8ECA-437A98720BB3}" name="Tabelle18" displayName="Tabelle18" ref="A1:L22" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
-  <autoFilter ref="A1:L22" xr:uid="{C8ED7277-4C2A-4869-8F71-893322FE1EB5}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{32C158CD-E5C1-412C-ABEA-31B90FA6B0A1}" name="Zone" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{DD857513-5BB8-4A19-A194-7BE5C5F37A1A}" name="Name" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{DE020B8F-E6A1-4D23-8127-7275F9462DD3}" name="Type" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{2C53B1A8-030C-4B38-A4E7-2E018389656A}" name="SubnetID" dataDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{C7E4B0B1-3549-4510-9B57-5223172FA28A}" name="SubnetMask" dataDxfId="168"/>
-    <tableColumn id="6" xr3:uid="{8A385309-2507-47B6-82B5-C0E2CBE39764}" name="Gateway" dataDxfId="167"/>
-    <tableColumn id="7" xr3:uid="{09E71725-F923-4B72-B9DD-5B3B364574C4}" name="Domain" dataDxfId="166"/>
-    <tableColumn id="8" xr3:uid="{96D404E1-7F74-4453-A0DB-60FF50E3D812}" name="DnsServer1" dataDxfId="165"/>
-    <tableColumn id="12" xr3:uid="{F3010178-84F9-4A15-9AD7-01380702506A}" name="DnsServer2" dataDxfId="164"/>
-    <tableColumn id="11" xr3:uid="{211E2654-FDFA-48B9-A2B6-7AB540F65AE4}" name="DnsServer3" dataDxfId="163"/>
-    <tableColumn id="9" xr3:uid="{4D5427C1-341C-4D2D-ADE4-9B2640B412A6}" name="RangeStart" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{6FE1C019-96E8-4C58-B4C7-CA4EEA6C76B5}" name="RangeEnd" dataDxfId="161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{926181DA-CBAF-4928-B5F3-0E1A0777033E}" name="Tabelle6" displayName="Tabelle6" ref="B1:L14" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
+  <autoFilter ref="B1:L14" xr:uid="{7766A357-26C6-4690-9C18-F7F16C78F028}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{C9F95E78-00F2-4748-9AB8-00A9D57E226E}" name="Name" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{851B9CAB-3BBD-4E47-A479-93E1A6BB9555}" name="Purpose" dataDxfId="157"/>
+    <tableColumn id="3" xr3:uid="{A094AA9D-9339-475A-8F8A-F754CEB9212E}" name="Type" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{EA1F4E56-4974-4FF2-85B3-5E643B75708A}" name="VlanID" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{78D39E12-D3F8-4781-8503-8CC2A850C2F1}" name="IPv4Subnet" dataDxfId="154"/>
+    <tableColumn id="6" xr3:uid="{9DF7F43F-8572-4BCB-93D1-4C30EA4AD9B8}" name="Smartlink" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{49A6667C-83D4-4F03-9106-AB0608531672}" name="PrivateNetwork" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{EAFB87E3-07E7-4775-B47E-180417067E4A}" name="PreferredBandwidth" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{754AAC91-91D1-4378-9CB5-6E6BCC850CC0}" name="MaxBandwidth" dataDxfId="150"/>
+    <tableColumn id="10" xr3:uid="{3AD5FFD1-969B-4E24-88F2-117DE0453AF1}" name="UplinkSet" dataDxfId="149"/>
+    <tableColumn id="11" xr3:uid="{BE8875EA-34F5-40B2-8014-2AB67DD3D586}" name="NetworkSet" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22121,8 +22127,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -22627,1737 +22633,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535FDB9A-6764-457A-87D4-67FC54DE5130}">
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" style="183" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="183" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="183"/>
-    <col min="4" max="4" width="12.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="183" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="183" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="183" t="s">
-        <v>908</v>
-      </c>
-      <c r="C1" s="183" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D1" s="183" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E1" s="183" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F1" s="183" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G1" s="183" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H1" s="183" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I1" s="183" t="s">
-        <v>1692</v>
-      </c>
-      <c r="J1" s="183" t="s">
-        <v>1693</v>
-      </c>
-      <c r="K1" s="183" t="s">
-        <v>1669</v>
-      </c>
-      <c r="L1" s="183" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B2" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D2" s="183" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E2" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="183" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" s="183" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="183" t="s">
-        <v>774</v>
-      </c>
-      <c r="I2" s="183" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B3" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K3" s="183" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L3" s="183" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B4" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D4" s="183" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E4" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" s="183" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="183" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="183" t="s">
-        <v>774</v>
-      </c>
-      <c r="I4" s="183" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B5" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K5" s="183" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L5" s="183" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="183" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B6" s="183" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D6" s="183" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E6" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="F6" s="183" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="183" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="183" t="s">
-        <v>774</v>
-      </c>
-      <c r="I6" s="183" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="183" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B7" s="183" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C7" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D7" s="183" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E7" s="183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B8" s="183" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C8" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K8" s="183" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L8" s="183" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B9" s="183" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C9" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K9" s="183" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L9" s="183" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="183" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B10" s="183" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C10" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D10" s="183" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E10" s="183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B11" s="183" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C11" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K11" s="183" t="s">
-        <v>1228</v>
-      </c>
-      <c r="L11" s="183" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B12" s="183" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C12" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K12" s="183" t="s">
-        <v>1229</v>
-      </c>
-      <c r="L12" s="183" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="183" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B13" s="183" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D13" s="183" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E13" s="183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B14" s="183" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K14" s="183" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L14" s="183" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B15" s="183" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K15" s="183" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L15" s="183" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="183" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B16" s="183" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D16" s="183" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E16" s="183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B17" s="183" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K17" s="183" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L17" s="183" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B18" s="183" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K18" s="183" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L18" s="183" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B19" s="183" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D19" s="183" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E19" s="183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="183" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B20" s="183" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C20" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K20" s="183" t="s">
-        <v>1677</v>
-      </c>
-      <c r="L20" s="183" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B21" s="183" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C21" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D21" s="183" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E21" s="183" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="183" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B22" s="183" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K22" s="183" t="s">
-        <v>1244</v>
-      </c>
-      <c r="L22" s="183" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AAA7C6-009D-4FB1-8598-50C67870BD11}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="207" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B1" s="208"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="209" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B2" s="210"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="161" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B3" s="162" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="161" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B4" s="162" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="161" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="209" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B6" s="210"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="161" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="161" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B8" s="162" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="209" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B9" s="210"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="161" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B10" s="162" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="161" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="161" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B12" s="163" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="161" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B13" s="162" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="161" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B14" s="162" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="165" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B15" s="166" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="189" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="30" customFormat="1">
-      <c r="A19" s="30" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>1740</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="103" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E20" t="s">
-        <v>373</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="189" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="30" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="189" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="30" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="189" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="30" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C40" s="75" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C44" s="75" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C45" s="75" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C51" s="75" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="193" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="75" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>743</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>743</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="75" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="75" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="75" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="75" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="75" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B8" s="195" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C8" s="195" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="192" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="75" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="196" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B11" s="196" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="190" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="161" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="161" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="191" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="199"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="161" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="161" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="161" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="161" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="191" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="199"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="161" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="179" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="161" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="161" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="161" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B25" s="75" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" s="165" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B26" s="196" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C26" s="196" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="75"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75">
-      <c r="A27" s="190" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B27" s="198"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="191" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="197" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B29" s="197" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C29" s="200" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D29" s="197"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="197" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B30" s="197" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C30" s="197" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="197" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B31" s="197" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C31" s="213" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D31" s="213"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="E34" s="75"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="197"/>
-      <c r="B36" s="197"/>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="75"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <f>Changelog!$B$16</f>
-        <v>43698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f>Changelog!$A$8</f>
-        <v>0.00.011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="202" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="202"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="202"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="202"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="202"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="202"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="202" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="202"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A23:D24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123FC9F-23EA-4F5F-A4E7-231974F9FE8E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -24895,6 +23170,1743 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535FDB9A-6764-457A-87D4-67FC54DE5130}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="183" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="183" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="183"/>
+    <col min="4" max="4" width="12.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="183" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="183" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="183" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1" s="183" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1" s="183" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E1" s="183" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F1" s="183" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G1" s="183" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H1" s="183" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I1" s="183" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J1" s="183" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K1" s="183" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L1" s="183" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D2" s="183" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E2" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="183" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="183" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="183" t="s">
+        <v>774</v>
+      </c>
+      <c r="I2" s="183" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B3" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K3" s="183" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L3" s="183" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B4" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D4" s="183" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E4" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="183" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="183" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="183" t="s">
+        <v>774</v>
+      </c>
+      <c r="I4" s="183" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K5" s="183" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L5" s="183" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="183" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B6" s="183" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D6" s="183" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E6" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" s="183" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="183" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="183" t="s">
+        <v>774</v>
+      </c>
+      <c r="I6" s="183" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="183" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B7" s="183" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C7" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D7" s="183" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E7" s="183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B8" s="183" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C8" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K8" s="183" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L8" s="183" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B9" s="183" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C9" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K9" s="183" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L9" s="183" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="183" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B10" s="183" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C10" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D10" s="183" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E10" s="183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B11" s="183" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K11" s="183" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L11" s="183" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B12" s="183" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C12" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K12" s="183" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L12" s="183" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="183" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B13" s="183" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E13" s="183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B14" s="183" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K14" s="183" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L14" s="183" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B15" s="183" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K15" s="183" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L15" s="183" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="183" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B16" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D16" s="183" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E16" s="183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B17" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K17" s="183" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L17" s="183" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B18" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K18" s="183" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L18" s="183" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B19" s="183" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C19" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D19" s="183" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E19" s="183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="183" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B20" s="183" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C20" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K20" s="183" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L20" s="183" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B21" s="183" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C21" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D21" s="183" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E21" s="183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="183" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B22" s="183" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K22" s="183" t="s">
+        <v>1244</v>
+      </c>
+      <c r="L22" s="183" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AAA7C6-009D-4FB1-8598-50C67870BD11}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="207" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1" s="208"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="209" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B2" s="210"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="161" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="161" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="161" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="209" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B6" s="210"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="161" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="161" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B8" s="162" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="209" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B9" s="210"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="161" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B10" s="162" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="161" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="161" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B12" s="163" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="161" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B13" s="162" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="161" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B14" s="162" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="165" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B15" s="166" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
+      <c r="A18" s="189" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="30" customFormat="1">
+      <c r="A19" s="30" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="103" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E20" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="189" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="30" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="189" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="30" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="189" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Changelog!$B$16</f>
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f>Changelog!$A$8</f>
+        <v>0.00.011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="202" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="202"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="202"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="202"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="202" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="202"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A23:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE378C3-D821-4183-A199-240224C2AEDA}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75">
+      <c r="A1" s="193" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1" s="193"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="75" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="75" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="75" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="75" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="75" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="75" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B8" s="195" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="192" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B9" s="192"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="75" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="196" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B11" s="196" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C11" s="196" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="190" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B12" s="198"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="161" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="161" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="191" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B15" s="192"/>
+      <c r="C15" s="199"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="161" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="161" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="161" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="161" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="191" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B20" s="192"/>
+      <c r="C20" s="199"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="161" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="179" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="161" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="161" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="161" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A26" s="165" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B26" s="196" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C26" s="196" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="75"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
+      <c r="A27" s="190" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B27" s="198"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="191" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B28" s="192"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="197" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B29" s="197" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C29" s="200" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D29" s="197"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
+      <c r="A30" s="197" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B30" s="197" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C30" s="197" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D30" s="197"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="197" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B31" s="197" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C31" s="213" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D31" s="213"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="E34" s="75"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="197"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -38328,12 +38340,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38513,17 +38524,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38547,17 +38567,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/feste-script/wip_checkliste_gesamt.xlsx
+++ b/feste-script/wip_checkliste_gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://concat-my.sharepoint.com/personal/oliver_antwerpen_concat_de/Documents/Kunden/ITSG/DiGeN/posh/xls-wip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="101_{BAA6B38C-8C0A-40AE-8FC2-2C92A8B77B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1216B8F-58C8-4AA5-9F09-8D4D23BF69A0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="101_{BAA6B38C-8C0A-40AE-8FC2-2C92A8B77B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75CCB52D-5082-4281-810A-EAD5E5B04169}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1095" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="870" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="26" r:id="rId1"/>
@@ -11248,21 +11248,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{88638CF4-4B51-404C-8ECA-437A98720BB3}" name="Tabelle18" displayName="Tabelle18" ref="A1:L22" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{88638CF4-4B51-404C-8ECA-437A98720BB3}" name="Tabelle18" displayName="Tabelle18" ref="A1:L22" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:L22" xr:uid="{C8ED7277-4C2A-4869-8F71-893322FE1EB5}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{32C158CD-E5C1-412C-ABEA-31B90FA6B0A1}" name="Zone" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{DD857513-5BB8-4A19-A194-7BE5C5F37A1A}" name="Name" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{DE020B8F-E6A1-4D23-8127-7275F9462DD3}" name="Type" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{2C53B1A8-030C-4B38-A4E7-2E018389656A}" name="SubnetID" dataDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{C7E4B0B1-3549-4510-9B57-5223172FA28A}" name="SubnetMask" dataDxfId="168"/>
-    <tableColumn id="6" xr3:uid="{8A385309-2507-47B6-82B5-C0E2CBE39764}" name="Gateway" dataDxfId="167"/>
-    <tableColumn id="7" xr3:uid="{09E71725-F923-4B72-B9DD-5B3B364574C4}" name="Domain" dataDxfId="166"/>
-    <tableColumn id="8" xr3:uid="{96D404E1-7F74-4453-A0DB-60FF50E3D812}" name="DnsServer1" dataDxfId="165"/>
-    <tableColumn id="12" xr3:uid="{F3010178-84F9-4A15-9AD7-01380702506A}" name="DnsServer2" dataDxfId="164"/>
-    <tableColumn id="11" xr3:uid="{211E2654-FDFA-48B9-A2B6-7AB540F65AE4}" name="DnsServer3" dataDxfId="163"/>
-    <tableColumn id="9" xr3:uid="{4D5427C1-341C-4D2D-ADE4-9B2640B412A6}" name="RangeStart" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{6FE1C019-96E8-4C58-B4C7-CA4EEA6C76B5}" name="RangeEnd" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{32C158CD-E5C1-412C-ABEA-31B90FA6B0A1}" name="Zone" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{DD857513-5BB8-4A19-A194-7BE5C5F37A1A}" name="Name" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{DE020B8F-E6A1-4D23-8127-7275F9462DD3}" name="Type" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{2C53B1A8-030C-4B38-A4E7-2E018389656A}" name="SubnetID" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{C7E4B0B1-3549-4510-9B57-5223172FA28A}" name="SubnetMask" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{8A385309-2507-47B6-82B5-C0E2CBE39764}" name="Gateway" dataDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{09E71725-F923-4B72-B9DD-5B3B364574C4}" name="Domain" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{96D404E1-7F74-4453-A0DB-60FF50E3D812}" name="DnsServer1" dataDxfId="152"/>
+    <tableColumn id="12" xr3:uid="{F3010178-84F9-4A15-9AD7-01380702506A}" name="DnsServer2" dataDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{211E2654-FDFA-48B9-A2B6-7AB540F65AE4}" name="DnsServer3" dataDxfId="150"/>
+    <tableColumn id="9" xr3:uid="{4D5427C1-341C-4D2D-ADE4-9B2640B412A6}" name="RangeStart" dataDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{6FE1C019-96E8-4C58-B4C7-CA4EEA6C76B5}" name="RangeEnd" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11580,20 +11580,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{926181DA-CBAF-4928-B5F3-0E1A0777033E}" name="Tabelle6" displayName="Tabelle6" ref="B1:L14" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
-  <autoFilter ref="B1:L14" xr:uid="{7766A357-26C6-4690-9C18-F7F16C78F028}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{926181DA-CBAF-4928-B5F3-0E1A0777033E}" name="Tabelle6" displayName="Tabelle6" ref="B1:L15" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+  <autoFilter ref="B1:L15" xr:uid="{7766A357-26C6-4690-9C18-F7F16C78F028}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C9F95E78-00F2-4748-9AB8-00A9D57E226E}" name="Name" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{851B9CAB-3BBD-4E47-A479-93E1A6BB9555}" name="Purpose" dataDxfId="157"/>
-    <tableColumn id="3" xr3:uid="{A094AA9D-9339-475A-8F8A-F754CEB9212E}" name="Type" dataDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{EA1F4E56-4974-4FF2-85B3-5E643B75708A}" name="VlanID" dataDxfId="155"/>
-    <tableColumn id="5" xr3:uid="{78D39E12-D3F8-4781-8503-8CC2A850C2F1}" name="IPv4Subnet" dataDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{9DF7F43F-8572-4BCB-93D1-4C30EA4AD9B8}" name="Smartlink" dataDxfId="153"/>
-    <tableColumn id="7" xr3:uid="{49A6667C-83D4-4F03-9106-AB0608531672}" name="PrivateNetwork" dataDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{EAFB87E3-07E7-4775-B47E-180417067E4A}" name="PreferredBandwidth" dataDxfId="151"/>
-    <tableColumn id="9" xr3:uid="{754AAC91-91D1-4378-9CB5-6E6BCC850CC0}" name="MaxBandwidth" dataDxfId="150"/>
-    <tableColumn id="10" xr3:uid="{3AD5FFD1-969B-4E24-88F2-117DE0453AF1}" name="UplinkSet" dataDxfId="149"/>
-    <tableColumn id="11" xr3:uid="{BE8875EA-34F5-40B2-8014-2AB67DD3D586}" name="NetworkSet" dataDxfId="148"/>
+    <tableColumn id="1" xr3:uid="{C9F95E78-00F2-4748-9AB8-00A9D57E226E}" name="Name" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{851B9CAB-3BBD-4E47-A479-93E1A6BB9555}" name="Purpose" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{A094AA9D-9339-475A-8F8A-F754CEB9212E}" name="Type" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{EA1F4E56-4974-4FF2-85B3-5E643B75708A}" name="VlanID" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{78D39E12-D3F8-4781-8503-8CC2A850C2F1}" name="IPv4Subnet" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{9DF7F43F-8572-4BCB-93D1-4C30EA4AD9B8}" name="Smartlink" dataDxfId="167"/>
+    <tableColumn id="7" xr3:uid="{49A6667C-83D4-4F03-9106-AB0608531672}" name="PrivateNetwork" dataDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{EAFB87E3-07E7-4775-B47E-180417067E4A}" name="PreferredBandwidth" dataDxfId="165"/>
+    <tableColumn id="9" xr3:uid="{754AAC91-91D1-4378-9CB5-6E6BCC850CC0}" name="MaxBandwidth" dataDxfId="164"/>
+    <tableColumn id="10" xr3:uid="{3AD5FFD1-969B-4E24-88F2-117DE0453AF1}" name="UplinkSet" dataDxfId="163"/>
+    <tableColumn id="11" xr3:uid="{BE8875EA-34F5-40B2-8014-2AB67DD3D586}" name="NetworkSet" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11927,13 +11927,13 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" customWidth="1"/>
+    <col min="5" max="5" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12129,7 +12129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75">
+    <row r="15" spans="1:5" ht="72">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -13933,17 +13933,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="89" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15554,16 +15554,16 @@
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -20148,16 +20148,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="26.5703125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="89" customWidth="1"/>
+    <col min="1" max="2" width="26.5546875" style="89" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="89" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="6" width="25" style="89" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="89" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="89" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="89" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="89" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -20192,7 +20192,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="43.2">
       <c r="A2" s="167" t="s">
         <v>789</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="167" t="s">
         <v>789</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="175" t="s">
         <v>789</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="167" t="s">
         <v>789</v>
       </c>
@@ -20557,7 +20557,7 @@
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="43.2">
       <c r="A13" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="28.8">
       <c r="A14" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="60">
+    <row r="15" spans="1:10" ht="57.6">
       <c r="A15" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60">
+    <row r="16" spans="1:10" ht="57.6">
       <c r="A16" s="58" t="s">
         <v>1061</v>
       </c>
@@ -20697,7 +20697,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10" ht="28.8">
       <c r="A17" s="58" t="s">
         <v>904</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="58" t="s">
         <v>904</v>
       </c>
@@ -20802,10 +20802,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -20982,12 +20982,12 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -21808,11 +21808,11 @@
       <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="91.5703125" customWidth="1"/>
+    <col min="1" max="1" width="91.5546875" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="4" width="35.28515625" customWidth="1"/>
+    <col min="3" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -22131,11 +22131,11 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
     <col min="6" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22634,24 +22634,24 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123FC9F-23EA-4F5F-A4E7-231974F9FE8E}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -23163,6 +23163,19 @@
       </c>
       <c r="K14" s="183"/>
       <c r="L14" s="183"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -23181,17 +23194,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="183" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="183" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="183"/>
-    <col min="4" max="4" width="12.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="183" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="183" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="183" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="183" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="183"/>
+    <col min="4" max="4" width="12.44140625" style="183" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.44140625" style="183" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="183" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="183" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" style="183" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" style="183" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -23641,24 +23654,24 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="207" t="s">
         <v>1280</v>
       </c>
@@ -23765,7 +23778,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="165" t="s">
         <v>1298</v>
       </c>
@@ -23773,7 +23786,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="189" t="s">
         <v>1723</v>
       </c>
@@ -23824,7 +23837,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="189" t="s">
         <v>1730</v>
       </c>
@@ -23853,7 +23866,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="189" t="s">
         <v>1732</v>
       </c>
@@ -23879,7 +23892,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="189" t="s">
         <v>1308</v>
       </c>
@@ -24200,10 +24213,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24379,15 +24392,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="193" t="s">
         <v>1377</v>
       </c>
@@ -24559,7 +24572,7 @@
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="196" t="s">
         <v>1752</v>
       </c>
@@ -24577,7 +24590,7 @@
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75">
+    <row r="12" spans="1:10" ht="18">
       <c r="A12" s="190" t="s">
         <v>1386</v>
       </c>
@@ -24760,7 +24773,7 @@
       <c r="F25" s="75"/>
       <c r="G25" s="75"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="165" t="s">
         <v>1749</v>
       </c>
@@ -24775,7 +24788,7 @@
       <c r="F26" s="196"/>
       <c r="G26" s="75"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75">
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="190" t="s">
         <v>1399</v>
       </c>
@@ -24810,7 +24823,7 @@
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75">
+    <row r="30" spans="1:10" ht="18">
       <c r="A30" s="197" t="s">
         <v>1400</v>
       </c>
@@ -24921,12 +24934,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="1" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25960,12 +25973,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" style="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" style="75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" style="75" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="75"/>
+    <col min="4" max="16384" width="11.44140625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -25978,7 +25991,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="408.95" customHeight="1">
+    <row r="4" spans="1:3" ht="408.9" customHeight="1">
       <c r="A4" s="214" t="s">
         <v>1406</v>
       </c>
@@ -26142,21 +26155,21 @@
       <selection pane="topRight" activeCell="A14" sqref="A14:B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -28905,13 +28918,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29167,7 +29180,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60">
+    <row r="26" spans="1:5" ht="57.6">
       <c r="A26" s="22" t="s">
         <v>1582</v>
       </c>
@@ -29184,7 +29197,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60">
+    <row r="27" spans="1:5" ht="57.6">
       <c r="A27" s="22" t="s">
         <v>1584</v>
       </c>
@@ -29210,7 +29223,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" ht="60">
+    <row r="29" spans="1:5" ht="57.6">
       <c r="A29" s="22" t="s">
         <v>1587</v>
       </c>
@@ -29227,7 +29240,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60">
+    <row r="30" spans="1:5" ht="57.6">
       <c r="A30" s="22" t="s">
         <v>1589</v>
       </c>
@@ -29253,7 +29266,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" ht="120">
+    <row r="32" spans="1:5" ht="115.2">
       <c r="A32" s="22" t="s">
         <v>1592</v>
       </c>
@@ -29270,7 +29283,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="60">
+    <row r="33" spans="1:5" ht="57.6">
       <c r="A33" s="22" t="s">
         <v>1595</v>
       </c>
@@ -29287,7 +29300,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30">
+    <row r="34" spans="1:5" ht="28.8">
       <c r="A34" s="23" t="s">
         <v>1596</v>
       </c>
@@ -29304,7 +29317,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30">
+    <row r="35" spans="1:5" ht="28.8">
       <c r="A35" s="22" t="s">
         <v>1601</v>
       </c>
@@ -29436,13 +29449,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
@@ -29456,7 +29469,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1">
+    <row r="2" spans="1:5" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>1616</v>
       </c>
@@ -29593,14 +29606,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="89" customWidth="1"/>
-    <col min="5" max="5" width="106.140625" customWidth="1"/>
-    <col min="6" max="6" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="89" customWidth="1"/>
+    <col min="5" max="5" width="106.109375" customWidth="1"/>
+    <col min="6" max="6" width="75.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1">
@@ -29620,7 +29633,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="100"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1">
+    <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>1621</v>
       </c>
@@ -30064,13 +30077,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
@@ -30091,7 +30104,7 @@
       </c>
       <c r="F1" s="100"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+    <row r="2" spans="1:6" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>1628</v>
       </c>
@@ -30607,12 +30620,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
@@ -30628,7 +30641,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1">
+    <row r="2" spans="1:5" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>1657</v>
       </c>
@@ -30824,20 +30837,20 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="3" style="89" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="79" customWidth="1"/>
     <col min="11" max="11" width="50" customWidth="1"/>
-    <col min="12" max="12" width="48.28515625" customWidth="1"/>
+    <col min="12" max="12" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="100" customFormat="1" ht="18" thickBot="1">
@@ -30864,7 +30877,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
+    <row r="2" spans="1:13" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>1664</v>
       </c>
@@ -32096,10 +32109,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="1" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -32158,7 +32171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60">
+    <row r="7" spans="1:12" ht="57.6">
       <c r="A7" s="91" t="s">
         <v>61</v>
       </c>
@@ -32198,7 +32211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="28.8">
       <c r="A9" s="91" t="s">
         <v>73</v>
       </c>
@@ -32218,7 +32231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:12" ht="28.8">
       <c r="A10" s="91" t="s">
         <v>78</v>
       </c>
@@ -33037,14 +33050,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1">
+    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1">
       <c r="A1" s="181" t="s">
         <v>183</v>
       </c>
@@ -33055,7 +33068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+    <row r="2" spans="1:3" ht="15" thickTop="1">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -33312,23 +33325,23 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="58" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="58"/>
+    <col min="1" max="1" width="33.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="58" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="43.2">
       <c r="A1" s="57" t="s">
         <v>215</v>
       </c>
@@ -33563,7 +33576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30">
+    <row r="8" spans="1:14" ht="28.8">
       <c r="A8" s="65" t="s">
         <v>252</v>
       </c>
@@ -33876,7 +33889,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="47.25">
+    <row r="19" spans="1:14" ht="46.8">
       <c r="A19" s="66" t="s">
         <v>290</v>
       </c>
@@ -33920,7 +33933,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="68" t="s">
         <v>227</v>
       </c>
@@ -33962,7 +33975,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="31.5">
+    <row r="21" spans="1:14" ht="31.2">
       <c r="A21" s="72" t="s">
         <v>305</v>
       </c>
@@ -34004,7 +34017,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="31.5">
+    <row r="22" spans="1:14" ht="31.2">
       <c r="A22" s="72" t="s">
         <v>235</v>
       </c>
@@ -34046,7 +34059,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="68" t="s">
         <v>239</v>
       </c>
@@ -34088,7 +34101,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14" ht="15.6">
       <c r="A24" s="68" t="s">
         <v>244</v>
       </c>
@@ -34130,7 +34143,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" ht="15.6">
       <c r="A25" s="68" t="s">
         <v>248</v>
       </c>
@@ -34172,7 +34185,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="31.5">
+    <row r="26" spans="1:14" ht="31.2">
       <c r="A26" s="73" t="s">
         <v>252</v>
       </c>
@@ -34214,7 +34227,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.6">
       <c r="A27" s="68" t="s">
         <v>264</v>
       </c>
@@ -34256,7 +34269,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" ht="15.6">
       <c r="A28" s="68" t="s">
         <v>256</v>
       </c>
@@ -34298,7 +34311,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" ht="15.6">
       <c r="A29" s="68" t="s">
         <v>268</v>
       </c>
@@ -34340,7 +34353,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14" ht="15.6">
       <c r="A30" s="68" t="s">
         <v>260</v>
       </c>
@@ -34382,7 +34395,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14" ht="15.6">
       <c r="A31" s="68" t="s">
         <v>308</v>
       </c>
@@ -34424,7 +34437,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
+    <row r="32" spans="1:14" ht="15.6">
       <c r="A32" s="68" t="s">
         <v>281</v>
       </c>
@@ -34514,7 +34527,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30">
+    <row r="37" spans="1:14" ht="28.8">
       <c r="A37" s="74" t="s">
         <v>321</v>
       </c>
@@ -34552,7 +34565,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30">
+    <row r="38" spans="1:14" ht="28.8">
       <c r="A38" s="74" t="s">
         <v>328</v>
       </c>
@@ -34590,7 +34603,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30">
+    <row r="39" spans="1:14" ht="28.8">
       <c r="A39" s="74" t="s">
         <v>333</v>
       </c>
@@ -34628,7 +34641,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="30">
+    <row r="40" spans="1:14" ht="28.8">
       <c r="A40" s="74" t="s">
         <v>338</v>
       </c>
@@ -34666,7 +34679,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30">
+    <row r="41" spans="1:14" ht="28.8">
       <c r="A41" s="74" t="s">
         <v>343</v>
       </c>
@@ -34704,7 +34717,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30">
+    <row r="42" spans="1:14" ht="28.8">
       <c r="A42" s="74" t="s">
         <v>349</v>
       </c>
@@ -34742,7 +34755,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30">
+    <row r="43" spans="1:14" ht="28.8">
       <c r="A43" s="74" t="s">
         <v>354</v>
       </c>
@@ -34780,7 +34793,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30">
+    <row r="44" spans="1:14" ht="28.8">
       <c r="A44" s="74" t="s">
         <v>359</v>
       </c>
@@ -34818,7 +34831,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30">
+    <row r="45" spans="1:14" ht="28.8">
       <c r="A45" s="74" t="s">
         <v>115</v>
       </c>
@@ -34856,7 +34869,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30">
+    <row r="46" spans="1:14" ht="28.8">
       <c r="A46" s="74" t="s">
         <v>123</v>
       </c>
@@ -34894,7 +34907,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30">
+    <row r="47" spans="1:14" ht="28.8">
       <c r="A47" s="74" t="s">
         <v>128</v>
       </c>
@@ -34932,7 +34945,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="30">
+    <row r="48" spans="1:14" ht="28.8">
       <c r="A48" s="74" t="s">
         <v>133</v>
       </c>
@@ -34970,7 +34983,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30">
+    <row r="49" spans="1:14" ht="28.8">
       <c r="A49" s="74" t="s">
         <v>137</v>
       </c>
@@ -35008,7 +35021,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30">
+    <row r="50" spans="1:14" ht="28.8">
       <c r="A50" s="74" t="s">
         <v>141</v>
       </c>
@@ -35046,7 +35059,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30">
+    <row r="51" spans="1:14" ht="28.8">
       <c r="A51" s="74" t="s">
         <v>145</v>
       </c>
@@ -35084,7 +35097,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30">
+    <row r="52" spans="1:14" ht="28.8">
       <c r="A52" s="81" t="s">
         <v>149</v>
       </c>
@@ -35125,7 +35138,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30">
+    <row r="53" spans="1:14" ht="28.8">
       <c r="A53" s="81" t="s">
         <v>154</v>
       </c>
@@ -35166,7 +35179,7 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30">
+    <row r="54" spans="1:14" ht="28.8">
       <c r="A54" s="81" t="s">
         <v>159</v>
       </c>
@@ -35207,7 +35220,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30">
+    <row r="55" spans="1:14" ht="28.8">
       <c r="A55" s="74" t="s">
         <v>163</v>
       </c>
@@ -35245,7 +35258,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="30">
+    <row r="56" spans="1:14" ht="28.8">
       <c r="A56" s="74" t="s">
         <v>167</v>
       </c>
@@ -35283,7 +35296,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="30">
+    <row r="57" spans="1:14" ht="28.8">
       <c r="A57" s="74" t="s">
         <v>171</v>
       </c>
@@ -35321,7 +35334,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30">
+    <row r="58" spans="1:14" ht="28.8">
       <c r="A58" s="74" t="s">
         <v>175</v>
       </c>
@@ -35359,7 +35372,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="30">
+    <row r="59" spans="1:14" ht="28.8">
       <c r="A59" s="74" t="s">
         <v>416</v>
       </c>
@@ -35400,7 +35413,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="30">
+    <row r="60" spans="1:14" ht="28.8">
       <c r="A60" s="74" t="s">
         <v>421</v>
       </c>
@@ -35429,7 +35442,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30">
+    <row r="61" spans="1:14" ht="28.8">
       <c r="A61" s="74" t="s">
         <v>426</v>
       </c>
@@ -35467,7 +35480,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30">
+    <row r="62" spans="1:14" ht="28.8">
       <c r="A62" s="74" t="s">
         <v>432</v>
       </c>
@@ -35496,7 +35509,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30">
+    <row r="63" spans="1:14" ht="28.8">
       <c r="A63" s="74" t="s">
         <v>437</v>
       </c>
@@ -35525,7 +35538,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="30">
+    <row r="64" spans="1:14" ht="28.8">
       <c r="A64" s="74" t="s">
         <v>442</v>
       </c>
@@ -35554,7 +35567,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30">
+    <row r="65" spans="1:14" ht="28.8">
       <c r="A65" s="74" t="s">
         <v>447</v>
       </c>
@@ -35583,7 +35596,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30">
+    <row r="66" spans="1:14" ht="28.8">
       <c r="A66" s="74" t="s">
         <v>452</v>
       </c>
@@ -35612,7 +35625,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30">
+    <row r="67" spans="1:14" ht="28.8">
       <c r="A67" s="74" t="s">
         <v>457</v>
       </c>
@@ -35641,7 +35654,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30">
+    <row r="68" spans="1:14" ht="28.8">
       <c r="A68" s="74" t="s">
         <v>462</v>
       </c>
@@ -35670,7 +35683,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30">
+    <row r="69" spans="1:14" ht="28.8">
       <c r="A69" s="74" t="s">
         <v>467</v>
       </c>
@@ -35699,7 +35712,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="30">
+    <row r="70" spans="1:14" ht="28.8">
       <c r="A70" s="74" t="s">
         <v>472</v>
       </c>
@@ -35728,7 +35741,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="30">
+    <row r="71" spans="1:14" ht="28.8">
       <c r="A71" s="74" t="s">
         <v>477</v>
       </c>
@@ -35757,7 +35770,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="30">
+    <row r="72" spans="1:14" ht="28.8">
       <c r="A72" s="74" t="s">
         <v>482</v>
       </c>
@@ -35786,7 +35799,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="30">
+    <row r="73" spans="1:14" ht="28.8">
       <c r="A73" s="74" t="s">
         <v>487</v>
       </c>
@@ -35863,7 +35876,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="30">
+    <row r="76" spans="1:14" ht="28.8">
       <c r="A76" s="74" t="s">
         <v>492</v>
       </c>
@@ -35904,7 +35917,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="30">
+    <row r="77" spans="1:14" ht="28.8">
       <c r="A77" s="74" t="s">
         <v>498</v>
       </c>
@@ -35945,7 +35958,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="30">
+    <row r="78" spans="1:14" ht="28.8">
       <c r="A78" s="74" t="s">
         <v>505</v>
       </c>
@@ -35971,7 +35984,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30">
+    <row r="79" spans="1:14" ht="28.8">
       <c r="A79" s="74" t="s">
         <v>510</v>
       </c>
@@ -35997,7 +36010,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="30">
+    <row r="80" spans="1:14" ht="28.8">
       <c r="A80" s="74" t="s">
         <v>515</v>
       </c>
@@ -36023,7 +36036,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="30">
+    <row r="81" spans="1:14" ht="28.8">
       <c r="A81" s="74" t="s">
         <v>520</v>
       </c>
@@ -36049,7 +36062,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="30">
+    <row r="82" spans="1:14" ht="28.8">
       <c r="A82" s="74" t="s">
         <v>525</v>
       </c>
@@ -36075,7 +36088,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="30">
+    <row r="83" spans="1:14" ht="28.8">
       <c r="A83" s="74" t="s">
         <v>530</v>
       </c>
@@ -36142,7 +36155,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="30">
+    <row r="86" spans="1:14" ht="28.8">
       <c r="A86" s="62" t="s">
         <v>535</v>
       </c>
@@ -36183,7 +36196,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="30">
+    <row r="87" spans="1:14" ht="28.8">
       <c r="A87" s="62" t="s">
         <v>541</v>
       </c>
@@ -36265,7 +36278,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="30">
+    <row r="90" spans="1:14" ht="28.8">
       <c r="A90" s="62" t="s">
         <v>548</v>
       </c>
@@ -36306,7 +36319,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="30">
+    <row r="91" spans="1:14" ht="28.8">
       <c r="A91" s="62" t="s">
         <v>554</v>
       </c>
@@ -36492,7 +36505,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="30">
+    <row r="104" spans="1:14" ht="28.8">
       <c r="A104" s="58" t="s">
         <v>566</v>
       </c>
@@ -36571,7 +36584,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="30">
+    <row r="107" spans="1:14" ht="28.8">
       <c r="A107" s="58" t="s">
         <v>574</v>
       </c>
@@ -36650,7 +36663,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="30">
+    <row r="110" spans="1:14" ht="28.8">
       <c r="A110" s="58" t="s">
         <v>579</v>
       </c>
@@ -36729,7 +36742,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="30">
+    <row r="113" spans="1:14" ht="28.8">
       <c r="A113" s="58" t="s">
         <v>584</v>
       </c>
@@ -36808,7 +36821,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="30">
+    <row r="116" spans="1:14" ht="28.8">
       <c r="A116" s="58" t="s">
         <v>590</v>
       </c>
@@ -36887,7 +36900,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="30">
+    <row r="119" spans="1:14" ht="28.8">
       <c r="A119" s="58" t="s">
         <v>596</v>
       </c>
@@ -36966,7 +36979,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="30">
+    <row r="122" spans="1:14" ht="28.8">
       <c r="A122" s="58" t="s">
         <v>601</v>
       </c>
@@ -37018,16 +37031,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1">
@@ -37056,7 +37069,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="203" t="s">
         <v>615</v>
       </c>
@@ -37082,7 +37095,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="28.8">
       <c r="A3" s="203"/>
       <c r="B3" s="152">
         <v>2501</v>
@@ -37106,7 +37119,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="28.8">
       <c r="A4" s="203"/>
       <c r="B4" s="152">
         <v>2502</v>
@@ -37130,7 +37143,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="28.8">
       <c r="A5" s="203"/>
       <c r="B5" s="152">
         <v>2503</v>
@@ -37154,7 +37167,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="203"/>
       <c r="B6" s="152">
         <v>2504</v>
@@ -37178,7 +37191,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="28.8">
       <c r="A7" s="203"/>
       <c r="B7" s="152">
         <v>2505</v>
@@ -37202,7 +37215,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8" ht="28.8">
       <c r="A8" s="203"/>
       <c r="B8" s="152">
         <v>2506</v>
@@ -37226,7 +37239,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8" ht="28.8">
       <c r="A9" s="203"/>
       <c r="B9" s="152">
         <v>2507</v>
@@ -37250,7 +37263,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8">
       <c r="A10" s="204"/>
       <c r="B10" s="152">
         <v>2549</v>
@@ -37274,7 +37287,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="28.8">
       <c r="A11" s="203" t="s">
         <v>663</v>
       </c>
@@ -37300,7 +37313,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="28.8">
       <c r="A12" s="203"/>
       <c r="B12" s="152">
         <v>2551</v>
@@ -37324,7 +37337,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="203"/>
       <c r="B13" s="152">
         <v>2552</v>
@@ -37348,7 +37361,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="203"/>
       <c r="B14" s="152">
         <v>2553</v>
@@ -37372,7 +37385,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="28.8">
       <c r="A15" s="203"/>
       <c r="B15" s="152">
         <v>2554</v>
@@ -37396,7 +37409,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="203"/>
       <c r="B16" s="152">
         <v>2555</v>
@@ -37420,7 +37433,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="28.8">
       <c r="A17" s="203"/>
       <c r="B17" s="152">
         <v>2556</v>
@@ -37444,7 +37457,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="28.8">
       <c r="A18" s="205"/>
       <c r="B18" s="152">
         <v>2557</v>
@@ -37782,13 +37795,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -38063,10 +38076,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -38194,11 +38207,11 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -38340,11 +38353,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38524,26 +38538,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="eaf262ef-7826-430c-9070-0dd2e6d0c7a3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38567,9 +38572,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6A03F3-6EBC-493D-9331-FC3669ADBF91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87939E5-2E1D-451A-AA58-3A58F63DCD26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="eaf262ef-7826-430c-9070-0dd2e6d0c7a3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>